--- a/StructureDefinition-pmi-patient.xlsx
+++ b/StructureDefinition-pmi-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:30:00+00:00</t>
+    <t>2022-03-29T01:42:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pmi-patient.xlsx
+++ b/StructureDefinition-pmi-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:42:38+00:00</t>
+    <t>2022-03-29T02:49:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pmi-patient.xlsx
+++ b/StructureDefinition-pmi-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T02:49:17+00:00</t>
+    <t>2022-03-29T03:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pmi-patient.xlsx
+++ b/StructureDefinition-pmi-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3005" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="598">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T03:43:36+00:00</t>
+    <t>2022-03-30T01:18:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -575,6 +575,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
     &lt;code value="SS"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -956,6 +957,12 @@
     <t>Patient.telecom.extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
     <t>Patient.telecom.system</t>
   </si>
   <si>
@@ -1576,6 +1583,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0131"/&gt;
     &lt;code value="CP"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -5913,14 +5921,14 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -5935,14 +5943,12 @@
         <v>131</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>132</v>
+        <v>302</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>78</v>
@@ -6006,7 +6012,7 @@
         <v>136</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -6023,7 +6029,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6049,10 +6055,10 @@
         <v>105</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6082,10 +6088,10 @@
         <v>168</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>78</v>
@@ -6103,7 +6109,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -6112,13 +6118,13 @@
         <v>85</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -6127,7 +6133,7 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -6135,7 +6141,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6161,16 +6167,16 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>78</v>
@@ -6219,7 +6225,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -6234,7 +6240,7 @@
         <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -6243,7 +6249,7 @@
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -6251,7 +6257,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6277,16 +6283,16 @@
         <v>105</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>78</v>
@@ -6314,10 +6320,10 @@
         <v>168</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>78</v>
@@ -6335,7 +6341,7 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -6359,7 +6365,7 @@
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6367,7 +6373,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6390,16 +6396,16 @@
         <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6449,7 +6455,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -6481,7 +6487,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6507,10 +6513,10 @@
         <v>204</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6561,7 +6567,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -6593,7 +6599,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6619,16 +6625,16 @@
         <v>105</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>78</v>
@@ -6656,10 +6662,10 @@
         <v>168</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>78</v>
@@ -6677,7 +6683,7 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -6692,16 +6698,16 @@
         <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6709,7 +6715,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6732,19 +6738,19 @@
         <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>78</v>
@@ -6793,7 +6799,7 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -6808,24 +6814,24 @@
         <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6848,19 +6854,19 @@
         <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>78</v>
@@ -6909,7 +6915,7 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -6924,7 +6930,7 @@
         <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>155</v>
@@ -6933,7 +6939,7 @@
         <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6941,7 +6947,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6964,19 +6970,19 @@
         <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>78</v>
@@ -7025,7 +7031,7 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -7040,16 +7046,16 @@
         <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -7057,7 +7063,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7169,7 +7175,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7283,7 +7289,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7309,16 +7315,16 @@
         <v>105</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>78</v>
@@ -7328,10 +7334,10 @@
         <v>78</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>78</v>
@@ -7346,10 +7352,10 @@
         <v>168</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>78</v>
@@ -7367,7 +7373,7 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -7391,7 +7397,7 @@
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7399,7 +7405,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7425,13 +7431,13 @@
         <v>105</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7445,7 +7451,7 @@
         <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>78</v>
@@ -7460,10 +7466,10 @@
         <v>168</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>78</v>
@@ -7481,7 +7487,7 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -7505,7 +7511,7 @@
         <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7513,7 +7519,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7539,13 +7545,13 @@
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>252</v>
@@ -7561,7 +7567,7 @@
         <v>78</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>78</v>
@@ -7597,7 +7603,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7621,7 +7627,7 @@
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7629,7 +7635,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7640,7 +7646,7 @@
         <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>86</v>
@@ -7655,10 +7661,10 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7673,7 +7679,7 @@
         <v>78</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>78</v>
@@ -7709,7 +7715,7 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -7724,7 +7730,7 @@
         <v>97</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
@@ -7733,7 +7739,7 @@
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7741,11 +7747,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7767,10 +7773,10 @@
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7785,7 +7791,7 @@
         <v>78</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>78</v>
@@ -7821,7 +7827,7 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7836,7 +7842,7 @@
         <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
@@ -7845,7 +7851,7 @@
         <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7853,11 +7859,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7879,13 +7885,13 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7899,7 +7905,7 @@
         <v>78</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>78</v>
@@ -7935,7 +7941,7 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7950,7 +7956,7 @@
         <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
@@ -7959,7 +7965,7 @@
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7967,11 +7973,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7993,10 +7999,10 @@
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8047,7 +8053,7 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
@@ -8062,7 +8068,7 @@
         <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
@@ -8071,7 +8077,7 @@
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -8079,11 +8085,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8105,10 +8111,10 @@
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8123,7 +8129,7 @@
         <v>78</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>78</v>
@@ -8159,7 +8165,7 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -8174,7 +8180,7 @@
         <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
@@ -8183,7 +8189,7 @@
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -8191,7 +8197,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8217,13 +8223,13 @@
         <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8273,7 +8279,7 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -8288,7 +8294,7 @@
         <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
@@ -8297,7 +8303,7 @@
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8305,7 +8311,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8331,14 +8337,14 @@
         <v>204</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>78</v>
@@ -8351,7 +8357,7 @@
         <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>78</v>
@@ -8387,7 +8393,7 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -8411,7 +8417,7 @@
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8419,7 +8425,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8445,14 +8451,14 @@
         <v>174</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>78</v>
@@ -8480,10 +8486,10 @@
         <v>180</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>78</v>
@@ -8501,7 +8507,7 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -8516,16 +8522,16 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8533,7 +8539,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8556,19 +8562,19 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>78</v>
@@ -8617,7 +8623,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -8632,7 +8638,7 @@
         <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>155</v>
@@ -8641,7 +8647,7 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8649,7 +8655,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8672,19 +8678,19 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>78</v>
@@ -8733,7 +8739,7 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -8748,7 +8754,7 @@
         <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>155</v>
@@ -8757,7 +8763,7 @@
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8765,7 +8771,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8788,19 +8794,19 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>78</v>
@@ -8849,7 +8855,7 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -8861,10 +8867,10 @@
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>155</v>
@@ -8881,7 +8887,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8993,7 +8999,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9107,11 +9113,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9133,10 +9139,10 @@
         <v>131</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>134</v>
@@ -9191,7 +9197,7 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
@@ -9223,7 +9229,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9249,14 +9255,14 @@
         <v>174</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>78</v>
@@ -9266,7 +9272,7 @@
         <v>78</v>
       </c>
       <c r="R62" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="S62" t="s" s="2">
         <v>78</v>
@@ -9284,10 +9290,10 @@
         <v>180</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>78</v>
@@ -9305,7 +9311,7 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -9320,7 +9326,7 @@
         <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>155</v>
@@ -9329,7 +9335,7 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9337,7 +9343,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9363,14 +9369,14 @@
         <v>228</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>78</v>
@@ -9419,7 +9425,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -9443,7 +9449,7 @@
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9451,7 +9457,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9477,13 +9483,13 @@
         <v>292</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>296</v>
@@ -9535,7 +9541,7 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -9559,7 +9565,7 @@
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9567,7 +9573,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9590,17 +9596,17 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>78</v>
@@ -9649,7 +9655,7 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -9664,7 +9670,7 @@
         <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>155</v>
@@ -9673,7 +9679,7 @@
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9681,7 +9687,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9707,14 +9713,14 @@
         <v>105</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>78</v>
@@ -9742,10 +9748,10 @@
         <v>168</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>78</v>
@@ -9763,7 +9769,7 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -9778,7 +9784,7 @@
         <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>155</v>
@@ -9787,7 +9793,7 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9795,7 +9801,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9821,14 +9827,14 @@
         <v>211</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>78</v>
@@ -9877,7 +9883,7 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
@@ -9886,13 +9892,13 @@
         <v>85</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>155</v>
@@ -9901,7 +9907,7 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9909,7 +9915,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9935,10 +9941,10 @@
         <v>204</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9989,7 +9995,7 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
@@ -10004,7 +10010,7 @@
         <v>97</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>155</v>
@@ -10021,7 +10027,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10044,19 +10050,19 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>78</v>
@@ -10105,7 +10111,7 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -10120,10 +10126,10 @@
         <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>78</v>
@@ -10137,7 +10143,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10249,7 +10255,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10363,11 +10369,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10389,10 +10395,10 @@
         <v>131</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>134</v>
@@ -10447,7 +10453,7 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
@@ -10479,7 +10485,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10505,16 +10511,16 @@
         <v>174</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>78</v>
@@ -10563,7 +10569,7 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>85</v>
@@ -10578,16 +10584,16 @@
         <v>97</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10595,7 +10601,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10621,16 +10627,16 @@
         <v>219</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>78</v>
@@ -10679,7 +10685,7 @@
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -10694,16 +10700,16 @@
         <v>97</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10711,11 +10717,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10734,16 +10740,16 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10793,7 +10799,7 @@
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
@@ -10808,7 +10814,7 @@
         <v>97</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>155</v>
@@ -10817,7 +10823,7 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10825,7 +10831,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10851,16 +10857,16 @@
         <v>211</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>78</v>
@@ -10909,7 +10915,7 @@
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
@@ -10924,10 +10930,10 @@
         <v>97</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
@@ -10941,7 +10947,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10964,19 +10970,19 @@
         <v>86</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>78</v>
@@ -11025,7 +11031,7 @@
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
@@ -11040,7 +11046,7 @@
         <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>155</v>
@@ -11057,7 +11063,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11169,7 +11175,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11283,11 +11289,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11309,10 +11315,10 @@
         <v>131</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>134</v>
@@ -11367,7 +11373,7 @@
         <v>78</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>76</v>
@@ -11399,7 +11405,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11422,16 +11428,16 @@
         <v>86</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11481,7 +11487,7 @@
         <v>78</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>85</v>
@@ -11505,7 +11511,7 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11513,7 +11519,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11539,10 +11545,10 @@
         <v>105</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11572,28 +11578,28 @@
         <v>168</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE82" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>85</v>
@@ -11608,7 +11614,7 @@
         <v>97</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>155</v>

--- a/StructureDefinition-pmi-patient.xlsx
+++ b/StructureDefinition-pmi-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T01:18:45+00:00</t>
+    <t>2022-03-30T15:49:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pmi-patient.xlsx
+++ b/StructureDefinition-pmi-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:49:01+00:00</t>
+    <t>2022-03-30T16:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pmi-patient.xlsx
+++ b/StructureDefinition-pmi-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T16:10:16+00:00</t>
+    <t>2022-03-30T16:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pmi-patient.xlsx
+++ b/StructureDefinition-pmi-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T16:50:37+00:00</t>
+    <t>2022-03-30T19:50:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -8550,7 +8550,7 @@
         <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>78</v>

--- a/StructureDefinition-pmi-patient.xlsx
+++ b/StructureDefinition-pmi-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$91</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3329" uniqueCount="603">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T19:50:20+00:00</t>
+    <t>2022-03-30T19:52:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -466,13 +466,20 @@
 </t>
   </si>
   <si>
-    <t>An identifier for this patient</t>
+    <t>Identifiers for the patient</t>
   </si>
   <si>
     <t>An identifier for this patient.</t>
   </si>
   <si>
     <t>Patients are almost always assigned specific numerical identifiers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>id</t>
@@ -536,9 +543,6 @@
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
-    <t>official</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -571,6 +575,128 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Patient.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Patient.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Patient.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Patient.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>SSN</t>
+  </si>
+  <si>
+    <t>Social Security Number for the patient</t>
+  </si>
+  <si>
+    <t>official</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -581,120 +707,10 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Patient.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/sid/us-ssn</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>Patient.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>Patient.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Patient.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+    <t>Social Security Number</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -2204,7 +2220,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN82"/>
+  <dimension ref="A1:AN91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3401,7 +3417,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>142</v>
       </c>
@@ -3473,16 +3489,14 @@
         <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>142</v>
@@ -3500,16 +3514,16 @@
         <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>78</v>
@@ -3517,7 +3531,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3543,10 +3557,10 @@
         <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3597,7 +3611,7 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -3612,7 +3626,7 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -3629,7 +3643,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3658,7 +3672,7 @@
         <v>132</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>134</v>
@@ -3699,19 +3713,19 @@
         <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -3726,7 +3740,7 @@
         <v>136</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -3743,7 +3757,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3769,16 +3783,16 @@
         <v>105</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>78</v>
@@ -3788,7 +3802,7 @@
         <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>78</v>
@@ -3803,13 +3817,13 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>78</v>
@@ -3827,7 +3841,7 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -3842,7 +3856,7 @@
         <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -3859,7 +3873,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3882,19 +3896,19 @@
         <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>78</v>
@@ -3904,7 +3918,7 @@
         <v>78</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>78</v>
@@ -3958,7 +3972,7 @@
         <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
@@ -4020,46 +4034,46 @@
         <v>78</v>
       </c>
       <c r="R16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="S16" t="s" s="2">
+      <c r="T16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
@@ -4074,16 +4088,16 @@
         <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -4091,7 +4105,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4117,13 +4131,13 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -4137,43 +4151,43 @@
         <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -4188,16 +4202,16 @@
         <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -4205,7 +4219,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4216,7 +4230,7 @@
         <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>78</v>
@@ -4228,13 +4242,13 @@
         <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4285,7 +4299,7 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -4300,16 +4314,16 @@
         <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4317,7 +4331,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4328,7 +4342,7 @@
         <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>78</v>
@@ -4340,16 +4354,16 @@
         <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4399,7 +4413,7 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -4414,26 +4428,28 @@
         <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AN19" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4442,38 +4458,34 @@
         <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>219</v>
+        <v>143</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="P20" t="s" s="2">
-        <v>224</v>
-      </c>
+      <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4517,13 +4529,13 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>218</v>
+        <v>142</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>78</v>
@@ -4532,24 +4544,24 @@
         <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>226</v>
+        <v>151</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4563,29 +4575,25 @@
         <v>85</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4633,31 +4641,31 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>233</v>
+        <v>157</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4665,18 +4673,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
@@ -4688,15 +4696,17 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>78</v>
@@ -4733,34 +4743,34 @@
         <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
@@ -4777,41 +4787,43 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4820,7 +4832,7 @@
         <v>78</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>78</v>
@@ -4835,46 +4847,46 @@
         <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
@@ -4883,7 +4895,7 @@
         <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4891,7 +4903,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4908,25 +4920,25 @@
         <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>78</v>
@@ -4936,7 +4948,7 @@
         <v>78</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>78</v>
@@ -4951,13 +4963,13 @@
         <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>78</v>
@@ -4975,7 +4987,7 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -4990,7 +5002,7 @@
         <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
@@ -4999,7 +5011,7 @@
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -5007,7 +5019,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5015,7 +5027,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>85</v>
@@ -5030,19 +5042,19 @@
         <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>186</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>78</v>
@@ -5052,10 +5064,10 @@
         <v>78</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>78</v>
@@ -5091,7 +5103,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -5106,7 +5118,7 @@
         <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
@@ -5115,19 +5127,19 @@
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5137,7 +5149,7 @@
         <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -5149,13 +5161,13 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5169,7 +5181,7 @@
         <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>78</v>
@@ -5205,7 +5217,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -5220,7 +5232,7 @@
         <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
@@ -5229,29 +5241,29 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -5260,17 +5272,15 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>78</v>
@@ -5319,13 +5329,13 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
@@ -5334,7 +5344,7 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>270</v>
+        <v>207</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
@@ -5343,7 +5353,7 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>271</v>
+        <v>208</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -5351,7 +5361,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>272</v>
+        <v>209</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5362,7 +5372,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>78</v>
@@ -5374,15 +5384,17 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>273</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>78</v>
@@ -5431,13 +5443,13 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
@@ -5446,7 +5458,7 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>276</v>
+        <v>215</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -5455,7 +5467,7 @@
         <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>277</v>
+        <v>216</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5463,7 +5475,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5474,32 +5486,38 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>224</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="P29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="Q29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5543,13 +5561,13 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>281</v>
+        <v>223</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
@@ -5558,24 +5576,24 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>232</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5589,7 +5607,7 @@
         <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -5598,17 +5616,19 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="N30" t="s" s="2">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>78</v>
@@ -5657,13 +5677,13 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>288</v>
+        <v>232</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>78</v>
@@ -5672,24 +5692,24 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5700,32 +5720,28 @@
         <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>292</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>293</v>
+        <v>154</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5773,31 +5789,31 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>291</v>
+        <v>156</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>297</v>
+        <v>157</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>298</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>299</v>
+        <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5805,18 +5821,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>78</v>
@@ -5828,15 +5844,17 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>78</v>
@@ -5873,34 +5891,34 @@
         <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -5917,7 +5935,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>243</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5928,28 +5946,32 @@
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>302</v>
+        <v>244</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5958,7 +5980,7 @@
         <v>78</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>78</v>
@@ -5973,46 +5995,46 @@
         <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>161</v>
+        <v>250</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -6021,7 +6043,7 @@
         <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -6029,7 +6051,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6052,16 +6074,20 @@
         <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>78</v>
       </c>
@@ -6085,13 +6111,13 @@
         <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>78</v>
@@ -6109,7 +6135,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -6118,13 +6144,13 @@
         <v>85</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>311</v>
+        <v>259</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -6133,19 +6159,19 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6155,7 +6181,7 @@
         <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -6167,17 +6193,15 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>314</v>
+        <v>263</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>264</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>78</v>
       </c>
@@ -6225,7 +6249,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -6240,7 +6264,7 @@
         <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>319</v>
+        <v>267</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -6249,51 +6273,49 @@
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>269</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>323</v>
+        <v>272</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>78</v>
       </c>
@@ -6317,13 +6339,13 @@
         <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>78</v>
@@ -6341,13 +6363,13 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>78</v>
@@ -6356,7 +6378,7 @@
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -6365,7 +6387,7 @@
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6373,7 +6395,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6384,7 +6406,7 @@
         <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>78</v>
@@ -6396,17 +6418,15 @@
         <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>331</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>78</v>
@@ -6455,13 +6475,13 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>78</v>
@@ -6470,7 +6490,7 @@
         <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>155</v>
+        <v>281</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -6479,7 +6499,7 @@
         <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>155</v>
+        <v>282</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6487,7 +6507,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6498,7 +6518,7 @@
         <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>78</v>
@@ -6510,13 +6530,13 @@
         <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6567,13 +6587,13 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>78</v>
@@ -6582,24 +6602,24 @@
         <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6613,7 +6633,7 @@
         <v>85</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6622,19 +6642,17 @@
         <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>78</v>
@@ -6659,13 +6677,13 @@
         <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>345</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>346</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>78</v>
@@ -6683,7 +6701,7 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -6698,16 +6716,16 @@
         <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>347</v>
+        <v>294</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>348</v>
+        <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6715,7 +6733,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6726,7 +6744,7 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>86</v>
@@ -6738,19 +6756,19 @@
         <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>351</v>
+        <v>297</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>78</v>
@@ -6799,13 +6817,13 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>78</v>
@@ -6814,24 +6832,24 @@
         <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>359</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6845,29 +6863,25 @@
         <v>85</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>361</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>362</v>
+        <v>154</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6915,7 +6929,7 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>360</v>
+        <v>156</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -6927,27 +6941,27 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>366</v>
+        <v>157</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>368</v>
+        <v>306</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6958,32 +6972,28 @@
         <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>369</v>
+        <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>370</v>
+        <v>307</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>78</v>
       </c>
@@ -7019,19 +7029,19 @@
         <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>368</v>
+        <v>163</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -7043,19 +7053,19 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>374</v>
+        <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>375</v>
+        <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -7063,7 +7073,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>377</v>
+        <v>309</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7083,16 +7093,16 @@
         <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>152</v>
+        <v>310</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>153</v>
+        <v>311</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7119,13 +7129,13 @@
         <v>78</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>78</v>
@@ -7143,7 +7153,7 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>154</v>
+        <v>314</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -7152,13 +7162,13 @@
         <v>85</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>155</v>
+        <v>316</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
@@ -7167,7 +7177,7 @@
         <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -7175,18 +7185,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>78</v>
@@ -7195,21 +7205,23 @@
         <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>132</v>
+        <v>319</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>157</v>
+        <v>320</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7245,34 +7257,34 @@
         <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>155</v>
+        <v>324</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
@@ -7281,15 +7293,15 @@
         <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7297,13 +7309,13 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>86</v>
@@ -7315,16 +7327,16 @@
         <v>105</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>381</v>
+        <v>328</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>383</v>
+        <v>330</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>78</v>
@@ -7334,10 +7346,10 @@
         <v>78</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>384</v>
+        <v>78</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>384</v>
+        <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>78</v>
@@ -7349,13 +7361,13 @@
         <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>385</v>
+        <v>331</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>78</v>
@@ -7373,7 +7385,7 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>387</v>
+        <v>333</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -7388,7 +7400,7 @@
         <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
@@ -7397,7 +7409,7 @@
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>388</v>
+        <v>334</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7405,7 +7417,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7428,16 +7440,16 @@
         <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>105</v>
+        <v>336</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>390</v>
+        <v>337</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>391</v>
+        <v>338</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>392</v>
+        <v>339</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7451,7 +7463,7 @@
         <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>393</v>
+        <v>78</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>78</v>
@@ -7463,13 +7475,13 @@
         <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>394</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>395</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>78</v>
@@ -7487,7 +7499,7 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -7502,7 +7514,7 @@
         <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
@@ -7511,7 +7523,7 @@
         <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>397</v>
+        <v>157</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7519,7 +7531,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7530,7 +7542,7 @@
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>78</v>
@@ -7542,20 +7554,16 @@
         <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7567,7 +7575,7 @@
         <v>78</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>78</v>
@@ -7603,7 +7611,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>403</v>
+        <v>344</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7618,7 +7626,7 @@
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -7627,7 +7635,7 @@
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>404</v>
+        <v>128</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7635,7 +7643,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>405</v>
+        <v>345</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7646,7 +7654,7 @@
         <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>406</v>
+        <v>85</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>86</v>
@@ -7658,16 +7666,20 @@
         <v>86</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>407</v>
+        <v>346</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7679,7 +7691,7 @@
         <v>78</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>409</v>
+        <v>78</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>78</v>
@@ -7691,13 +7703,13 @@
         <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>78</v>
@@ -7715,13 +7727,13 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>410</v>
+        <v>345</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
@@ -7730,16 +7742,16 @@
         <v>97</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>411</v>
+        <v>352</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>412</v>
+        <v>354</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7747,11 +7759,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7770,16 +7782,20 @@
         <v>86</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>356</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>415</v>
+        <v>357</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7791,7 +7807,7 @@
         <v>78</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>417</v>
+        <v>78</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>78</v>
@@ -7827,7 +7843,7 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>418</v>
+        <v>355</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7842,28 +7858,28 @@
         <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>419</v>
+        <v>361</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>78</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>421</v>
+        <v>365</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>422</v>
+        <v>78</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7876,24 +7892,26 @@
         <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>366</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>423</v>
+        <v>367</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>424</v>
+        <v>368</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7905,7 +7923,7 @@
         <v>78</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>426</v>
+        <v>78</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>78</v>
@@ -7941,7 +7959,7 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>427</v>
+        <v>365</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7956,16 +7974,16 @@
         <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>428</v>
+        <v>371</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>429</v>
+        <v>372</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7973,18 +7991,18 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>430</v>
+        <v>373</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>431</v>
+        <v>78</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>86</v>
@@ -7996,16 +8014,20 @@
         <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>87</v>
+        <v>374</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>432</v>
+        <v>375</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>78</v>
       </c>
@@ -8053,13 +8075,13 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>434</v>
+        <v>373</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
@@ -8068,28 +8090,28 @@
         <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>435</v>
+        <v>379</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>78</v>
+        <v>380</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>436</v>
+        <v>381</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>437</v>
+        <v>382</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>438</v>
+        <v>78</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8099,22 +8121,22 @@
         <v>85</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>439</v>
+        <v>154</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>440</v>
+        <v>155</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8129,7 +8151,7 @@
         <v>78</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>441</v>
+        <v>78</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>78</v>
@@ -8165,7 +8187,7 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>442</v>
+        <v>156</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -8177,10 +8199,10 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>443</v>
+        <v>157</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
@@ -8189,47 +8211,47 @@
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>444</v>
+        <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>445</v>
+        <v>383</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>446</v>
+        <v>132</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>447</v>
+        <v>159</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>448</v>
+        <v>134</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8267,34 +8289,34 @@
         <v>78</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>449</v>
+        <v>163</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>450</v>
+        <v>157</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
@@ -8303,15 +8325,15 @@
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>452</v>
+        <v>384</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8319,32 +8341,34 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>453</v>
+        <v>385</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="N54" t="s" s="2">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>78</v>
@@ -8354,10 +8378,10 @@
         <v>78</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>78</v>
+        <v>389</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>456</v>
+        <v>389</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>78</v>
@@ -8369,13 +8393,13 @@
         <v>78</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>78</v>
+        <v>391</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>78</v>
@@ -8393,7 +8417,7 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>457</v>
+        <v>392</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -8408,7 +8432,7 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
@@ -8417,7 +8441,7 @@
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>458</v>
+        <v>393</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8425,7 +8449,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>459</v>
+        <v>394</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8436,7 +8460,7 @@
         <v>76</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>78</v>
@@ -8445,21 +8469,21 @@
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>460</v>
+        <v>395</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8471,7 +8495,7 @@
         <v>78</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>78</v>
+        <v>398</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>78</v>
@@ -8483,13 +8507,13 @@
         <v>78</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>463</v>
+        <v>399</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>464</v>
+        <v>400</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>78</v>
@@ -8507,7 +8531,7 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>459</v>
+        <v>401</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -8522,16 +8546,16 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>465</v>
+        <v>251</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>466</v>
+        <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>467</v>
+        <v>402</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8539,7 +8563,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>468</v>
+        <v>403</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8550,7 +8574,7 @@
         <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>78</v>
@@ -8559,22 +8583,22 @@
         <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>469</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>470</v>
+        <v>404</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>471</v>
+        <v>405</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>472</v>
+        <v>406</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>473</v>
+        <v>257</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>78</v>
@@ -8587,7 +8611,7 @@
         <v>78</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>78</v>
+        <v>407</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>78</v>
@@ -8623,7 +8647,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>468</v>
+        <v>408</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -8638,24 +8662,24 @@
         <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>474</v>
+        <v>259</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>475</v>
+        <v>409</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>476</v>
+        <v>410</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8666,32 +8690,28 @@
         <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>76</v>
+        <v>411</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>477</v>
+        <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8703,7 +8723,7 @@
         <v>78</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>78</v>
+        <v>414</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>78</v>
@@ -8739,7 +8759,7 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>476</v>
+        <v>415</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -8754,16 +8774,16 @@
         <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>482</v>
+        <v>416</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>483</v>
+        <v>417</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8771,18 +8791,18 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>484</v>
+        <v>418</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>78</v>
+        <v>419</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>86</v>
@@ -8791,23 +8811,19 @@
         <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>485</v>
+        <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>486</v>
+        <v>420</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>489</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8819,7 +8835,7 @@
         <v>78</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>78</v>
+        <v>422</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>78</v>
@@ -8855,43 +8871,43 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>484</v>
+        <v>423</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>490</v>
+        <v>97</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>491</v>
+        <v>424</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>78</v>
+        <v>425</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>492</v>
+        <v>426</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>78</v>
+        <v>427</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8901,24 +8917,26 @@
         <v>85</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>152</v>
+        <v>428</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>78</v>
@@ -8931,7 +8949,7 @@
         <v>78</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>78</v>
+        <v>431</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>78</v>
@@ -8967,7 +8985,7 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>154</v>
+        <v>432</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -8979,10 +8997,10 @@
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>155</v>
+        <v>433</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
@@ -8991,48 +9009,46 @@
         <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>78</v>
+        <v>434</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>493</v>
+        <v>435</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>130</v>
+        <v>436</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>132</v>
+        <v>437</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>78</v>
@@ -9081,22 +9097,22 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>161</v>
+        <v>439</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>155</v>
+        <v>440</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
@@ -9105,51 +9121,47 @@
         <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>78</v>
+        <v>441</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>494</v>
+        <v>442</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>495</v>
+        <v>443</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>496</v>
+        <v>444</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>78</v>
       </c>
@@ -9161,7 +9173,7 @@
         <v>78</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>78</v>
+        <v>446</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>78</v>
@@ -9197,22 +9209,22 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>498</v>
+        <v>447</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>128</v>
+        <v>448</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
@@ -9221,7 +9233,7 @@
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9229,7 +9241,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>499</v>
+        <v>450</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9249,21 +9261,21 @@
         <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>78</v>
       </c>
@@ -9272,7 +9284,7 @@
         <v>78</v>
       </c>
       <c r="R62" t="s" s="2">
-        <v>503</v>
+        <v>78</v>
       </c>
       <c r="S62" t="s" s="2">
         <v>78</v>
@@ -9287,13 +9299,13 @@
         <v>78</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>504</v>
+        <v>78</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>505</v>
+        <v>78</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>78</v>
@@ -9311,13 +9323,13 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>499</v>
+        <v>454</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>78</v>
@@ -9326,24 +9338,24 @@
         <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>506</v>
+        <v>455</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>507</v>
+        <v>456</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>508</v>
+        <v>457</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9351,32 +9363,32 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I63" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J63" t="s" s="2">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>509</v>
+        <v>458</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>510</v>
+        <v>459</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>511</v>
+        <v>460</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>78</v>
@@ -9389,7 +9401,7 @@
         <v>78</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>78</v>
+        <v>461</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>78</v>
@@ -9425,7 +9437,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>508</v>
+        <v>462</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -9440,16 +9452,16 @@
         <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>233</v>
+        <v>294</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>512</v>
+        <v>463</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9457,7 +9469,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>513</v>
+        <v>464</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9468,7 +9480,7 @@
         <v>76</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>78</v>
@@ -9480,19 +9492,17 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>292</v>
+        <v>175</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>514</v>
+        <v>465</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>296</v>
+        <v>467</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>78</v>
@@ -9517,13 +9527,13 @@
         <v>78</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>78</v>
+        <v>468</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>78</v>
+        <v>469</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>78</v>
@@ -9541,13 +9551,13 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>513</v>
+        <v>464</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>78</v>
@@ -9556,16 +9566,16 @@
         <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>297</v>
+        <v>470</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>155</v>
+        <v>471</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>517</v>
+        <v>472</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9573,7 +9583,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>518</v>
+        <v>473</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9584,7 +9594,7 @@
         <v>76</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>78</v>
@@ -9596,17 +9606,19 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>369</v>
+        <v>474</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="N65" t="s" s="2">
-        <v>521</v>
+        <v>478</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>78</v>
@@ -9655,7 +9667,7 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>518</v>
+        <v>473</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -9670,16 +9682,16 @@
         <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>374</v>
+        <v>479</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9687,7 +9699,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>523</v>
+        <v>481</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9698,7 +9710,7 @@
         <v>76</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>78</v>
@@ -9710,17 +9722,19 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>105</v>
+        <v>482</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>341</v>
+        <v>483</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="N66" t="s" s="2">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>78</v>
@@ -9745,13 +9759,13 @@
         <v>78</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>345</v>
+        <v>78</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>346</v>
+        <v>78</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>78</v>
@@ -9769,13 +9783,13 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>523</v>
+        <v>481</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>78</v>
@@ -9784,24 +9798,24 @@
         <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>347</v>
+        <v>487</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>526</v>
+        <v>488</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>527</v>
+        <v>489</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9812,10 +9826,10 @@
         <v>76</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -9824,17 +9838,19 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>211</v>
+        <v>490</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>528</v>
+        <v>491</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>493</v>
+      </c>
       <c r="N67" t="s" s="2">
-        <v>530</v>
+        <v>494</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>78</v>
@@ -9883,31 +9899,31 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>527</v>
+        <v>489</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>531</v>
+        <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>97</v>
+        <v>495</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>533</v>
+        <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9915,7 +9931,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>534</v>
+        <v>497</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9938,13 +9954,13 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>535</v>
+        <v>154</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>536</v>
+        <v>155</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9995,7 +10011,7 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>534</v>
+        <v>156</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
@@ -10007,13 +10023,13 @@
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>537</v>
+        <v>157</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
@@ -10027,11 +10043,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>538</v>
+        <v>498</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10050,20 +10066,18 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>485</v>
+        <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>539</v>
+        <v>132</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>540</v>
+        <v>159</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>78</v>
       </c>
@@ -10111,7 +10125,7 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>538</v>
+        <v>163</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -10123,13 +10137,13 @@
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>543</v>
+        <v>157</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>544</v>
+        <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>78</v>
@@ -10143,39 +10157,43 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>545</v>
+        <v>499</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>78</v>
+        <v>500</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>152</v>
+        <v>501</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>78</v>
       </c>
@@ -10223,22 +10241,22 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>154</v>
+        <v>503</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
@@ -10253,23 +10271,23 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>546</v>
+        <v>504</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>78</v>
@@ -10278,18 +10296,18 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>132</v>
+        <v>505</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>78</v>
       </c>
@@ -10298,7 +10316,7 @@
         <v>78</v>
       </c>
       <c r="R71" t="s" s="2">
-        <v>78</v>
+        <v>508</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>78</v>
@@ -10313,13 +10331,13 @@
         <v>78</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>78</v>
+        <v>509</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>78</v>
+        <v>510</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>78</v>
@@ -10337,7 +10355,7 @@
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>161</v>
+        <v>504</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
@@ -10349,62 +10367,60 @@
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>155</v>
+        <v>511</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>78</v>
+        <v>512</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>547</v>
+        <v>513</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>495</v>
+        <v>78</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>131</v>
+        <v>233</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>140</v>
+        <v>516</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>78</v>
@@ -10453,31 +10469,31 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>78</v>
+        <v>517</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10485,7 +10501,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>548</v>
+        <v>518</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10493,10 +10509,10 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>78</v>
@@ -10508,19 +10524,19 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>174</v>
+        <v>297</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>549</v>
+        <v>519</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>551</v>
+        <v>521</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>552</v>
+        <v>301</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>78</v>
@@ -10545,13 +10561,13 @@
         <v>78</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>78</v>
@@ -10569,13 +10585,13 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>548</v>
+        <v>518</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>78</v>
@@ -10584,16 +10600,16 @@
         <v>97</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>553</v>
+        <v>302</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>554</v>
+        <v>157</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>555</v>
+        <v>522</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10601,7 +10617,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>556</v>
+        <v>523</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10624,19 +10640,17 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>219</v>
+        <v>374</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>557</v>
+        <v>524</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>560</v>
+        <v>526</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>78</v>
@@ -10685,7 +10699,7 @@
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>556</v>
+        <v>523</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -10700,16 +10714,16 @@
         <v>97</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>561</v>
+        <v>379</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>562</v>
+        <v>157</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10717,18 +10731,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>565</v>
+        <v>78</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>78</v>
@@ -10740,18 +10754,18 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>566</v>
+        <v>105</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>567</v>
+        <v>346</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>529</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>78</v>
       </c>
@@ -10775,13 +10789,13 @@
         <v>78</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>78</v>
@@ -10799,13 +10813,13 @@
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>78</v>
@@ -10814,16 +10828,16 @@
         <v>97</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>570</v>
+        <v>352</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>571</v>
+        <v>531</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10831,7 +10845,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10842,7 +10856,7 @@
         <v>76</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>78</v>
@@ -10851,22 +10865,20 @@
         <v>78</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>573</v>
+        <v>533</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>576</v>
+        <v>535</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>78</v>
@@ -10915,7 +10927,7 @@
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
@@ -10924,22 +10936,22 @@
         <v>85</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>78</v>
+        <v>536</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>577</v>
+        <v>157</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>78</v>
+        <v>538</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10947,7 +10959,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>578</v>
+        <v>539</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10958,32 +10970,28 @@
         <v>76</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>485</v>
+        <v>203</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>579</v>
+        <v>540</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>582</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>78</v>
       </c>
@@ -11031,13 +11039,13 @@
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>578</v>
+        <v>539</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>78</v>
@@ -11046,10 +11054,10 @@
         <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>583</v>
+        <v>542</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>78</v>
@@ -11063,7 +11071,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>584</v>
+        <v>543</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11074,7 +11082,7 @@
         <v>76</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>78</v>
@@ -11086,16 +11094,20 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>87</v>
+        <v>490</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>152</v>
+        <v>544</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>78</v>
       </c>
@@ -11143,25 +11155,25 @@
         <v>78</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>154</v>
+        <v>543</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>155</v>
+        <v>548</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>78</v>
+        <v>549</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>78</v>
@@ -11175,18 +11187,18 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>585</v>
+        <v>550</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>78</v>
@@ -11198,17 +11210,15 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>78</v>
@@ -11257,22 +11267,22 @@
         <v>78</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
@@ -11289,11 +11299,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>586</v>
+        <v>551</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>495</v>
+        <v>130</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11306,26 +11316,24 @@
         <v>78</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>496</v>
+        <v>132</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>497</v>
+        <v>159</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="N80" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>78</v>
       </c>
@@ -11373,7 +11381,7 @@
         <v>78</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>498</v>
+        <v>163</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>76</v>
@@ -11388,7 +11396,7 @@
         <v>136</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
@@ -11405,41 +11413,43 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>587</v>
+        <v>552</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>78</v>
+        <v>500</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>588</v>
+        <v>131</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>589</v>
+        <v>501</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>590</v>
+        <v>502</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11487,31 +11497,31 @@
         <v>78</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>587</v>
+        <v>503</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>592</v>
+        <v>78</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11519,7 +11529,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>593</v>
+        <v>553</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11539,19 +11549,23 @@
         <v>78</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>594</v>
+        <v>554</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+        <v>555</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>78</v>
       </c>
@@ -11575,13 +11589,13 @@
         <v>78</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>595</v>
+        <v>110</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>596</v>
+        <v>111</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>78</v>
@@ -11599,7 +11613,7 @@
         <v>78</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>593</v>
+        <v>553</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>85</v>
@@ -11614,23 +11628,1053 @@
         <v>97</v>
       </c>
       <c r="AJ82" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM90" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="AK82" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN82" t="s" s="2">
+      <c r="AN90" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN82">
+  <autoFilter ref="A1:AN91">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11640,7 +12684,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI81">
+  <conditionalFormatting sqref="A2:AI90">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pmi-patient.xlsx
+++ b/StructureDefinition-pmi-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T19:52:30+00:00</t>
+    <t>2022-03-30T19:57:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -10742,7 +10742,7 @@
         <v>76</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>78</v>
@@ -10970,7 +10970,7 @@
         <v>76</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>78</v>
@@ -11886,7 +11886,7 @@
         <v>76</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>78</v>
@@ -12002,7 +12002,7 @@
         <v>76</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>78</v>

--- a/StructureDefinition-pmi-patient.xlsx
+++ b/StructureDefinition-pmi-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$93</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3329" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="608">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T19:57:14+00:00</t>
+    <t>2022-03-30T19:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -979,6 +979,19 @@
     <t>An Extension</t>
   </si>
   <si>
+    <t>verifiedPhoneNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://pmi-ops.org/fhir/StructureDefinition/pmi-verified}
+</t>
+  </si>
+  <si>
+    <t>PMI Verified</t>
+  </si>
+  <si>
+    <t>Flag to indicate verified information</t>
+  </si>
+  <si>
     <t>Patient.telecom.system</t>
   </si>
   <si>
@@ -1207,6 +1220,9 @@
   </si>
   <si>
     <t>Patient.address.extension</t>
+  </si>
+  <si>
+    <t>verifiedAddress</t>
   </si>
   <si>
     <t>Patient.address.use</t>
@@ -2220,7 +2236,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN91"/>
+  <dimension ref="A1:AN93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2230,7 +2246,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.0078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -6972,7 +6988,7 @@
         <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>78</v>
@@ -7071,11 +7087,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B43" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>78</v>
       </c>
@@ -7087,22 +7105,22 @@
         <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>105</v>
+        <v>310</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7129,13 +7147,13 @@
         <v>78</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>312</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>78</v>
@@ -7153,22 +7171,22 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>314</v>
+        <v>163</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
@@ -7177,7 +7195,7 @@
         <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>317</v>
+        <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -7185,7 +7203,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7208,20 +7226,16 @@
         <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7245,13 +7259,13 @@
         <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>78</v>
@@ -7269,7 +7283,7 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -7278,13 +7292,13 @@
         <v>85</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
@@ -7293,7 +7307,7 @@
         <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7301,7 +7315,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7318,25 +7332,25 @@
         <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>78</v>
@@ -7361,13 +7375,13 @@
         <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>78</v>
@@ -7385,7 +7399,7 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -7400,7 +7414,7 @@
         <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>251</v>
+        <v>328</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
@@ -7409,7 +7423,7 @@
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7417,7 +7431,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7434,24 +7448,26 @@
         <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>336</v>
+        <v>105</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7475,13 +7491,13 @@
         <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>78</v>
@@ -7499,7 +7515,7 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -7514,7 +7530,7 @@
         <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>157</v>
+        <v>251</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
@@ -7523,7 +7539,7 @@
         <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>157</v>
+        <v>338</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7531,7 +7547,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7542,7 +7558,7 @@
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>78</v>
@@ -7554,15 +7570,17 @@
         <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>203</v>
+        <v>340</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>78</v>
@@ -7626,7 +7644,7 @@
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>294</v>
+        <v>157</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -7635,13 +7653,13 @@
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>345</v>
       </c>
@@ -7654,10 +7672,10 @@
         <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7666,7 +7684,7 @@
         <v>86</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>346</v>
@@ -7674,12 +7692,8 @@
       <c r="L48" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>349</v>
-      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7703,13 +7717,13 @@
         <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>350</v>
+        <v>78</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>78</v>
@@ -7727,7 +7741,7 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -7742,16 +7756,16 @@
         <v>97</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>353</v>
+        <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>354</v>
+        <v>128</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7759,7 +7773,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7782,19 +7796,19 @@
         <v>86</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>356</v>
+        <v>105</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>78</v>
@@ -7819,13 +7833,13 @@
         <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>78</v>
+        <v>354</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>78</v>
+        <v>355</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>78</v>
@@ -7843,7 +7857,7 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7858,24 +7872,24 @@
         <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>364</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7892,25 +7906,25 @@
         <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>78</v>
@@ -7959,7 +7973,7 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7974,24 +7988,24 @@
         <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>157</v>
+        <v>366</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>78</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8002,31 +8016,31 @@
         <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>78</v>
@@ -8075,13 +8089,13 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
@@ -8090,24 +8104,24 @@
         <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>380</v>
+        <v>157</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8118,28 +8132,32 @@
         <v>76</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>378</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>154</v>
+        <v>379</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>78</v>
       </c>
@@ -8187,31 +8205,31 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>156</v>
+        <v>377</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>78</v>
+        <v>384</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -8219,18 +8237,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>78</v>
@@ -8242,17 +8260,15 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>78</v>
@@ -8289,31 +8305,31 @@
         <v>78</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>157</v>
@@ -8331,9 +8347,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8341,35 +8357,31 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>385</v>
+        <v>307</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8378,10 +8390,10 @@
         <v>78</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>389</v>
+        <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>389</v>
+        <v>78</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>78</v>
@@ -8393,46 +8405,46 @@
         <v>78</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>390</v>
+        <v>78</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>391</v>
+        <v>78</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>392</v>
+        <v>163</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
@@ -8441,17 +8453,19 @@
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>393</v>
+        <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="C55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8463,26 +8477,24 @@
         <v>85</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>105</v>
+        <v>310</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>395</v>
+        <v>311</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>78</v>
@@ -8495,7 +8507,7 @@
         <v>78</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>398</v>
+        <v>78</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>78</v>
@@ -8507,13 +8519,13 @@
         <v>78</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>399</v>
+        <v>78</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>400</v>
+        <v>78</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>78</v>
@@ -8531,22 +8543,22 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>401</v>
+        <v>163</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
@@ -8555,15 +8567,15 @@
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8571,34 +8583,34 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>257</v>
+        <v>393</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>78</v>
@@ -8608,10 +8620,10 @@
         <v>78</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>78</v>
+        <v>394</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>78</v>
@@ -8623,13 +8635,13 @@
         <v>78</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>78</v>
+        <v>396</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>78</v>
@@ -8647,7 +8659,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -8662,7 +8674,7 @@
         <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
@@ -8671,15 +8683,15 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8690,10 +8702,10 @@
         <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>411</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8702,15 +8714,17 @@
         <v>86</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>78</v>
@@ -8723,7 +8737,7 @@
         <v>78</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>78</v>
@@ -8735,13 +8749,13 @@
         <v>78</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>78</v>
+        <v>405</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>78</v>
@@ -8759,13 +8773,13 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>78</v>
@@ -8774,7 +8788,7 @@
         <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>416</v>
+        <v>251</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
@@ -8783,19 +8797,19 @@
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>419</v>
+        <v>78</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8805,7 +8819,7 @@
         <v>85</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8817,13 +8831,17 @@
         <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8835,7 +8853,7 @@
         <v>78</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>78</v>
@@ -8871,7 +8889,7 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -8886,7 +8904,7 @@
         <v>97</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>424</v>
+        <v>259</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
@@ -8895,7 +8913,7 @@
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8903,18 +8921,18 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>427</v>
+        <v>78</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>85</v>
+        <v>416</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>86</v>
@@ -8929,14 +8947,12 @@
         <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>78</v>
@@ -8949,7 +8965,7 @@
         <v>78</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>78</v>
@@ -8985,13 +9001,13 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>78</v>
@@ -9000,7 +9016,7 @@
         <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
@@ -9009,7 +9025,7 @@
         <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -9017,11 +9033,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -9043,10 +9059,10 @@
         <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9061,7 +9077,7 @@
         <v>78</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>78</v>
+        <v>427</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>78</v>
@@ -9097,7 +9113,7 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
@@ -9112,7 +9128,7 @@
         <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
@@ -9121,7 +9137,7 @@
         <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -9129,11 +9145,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9155,12 +9171,14 @@
         <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>78</v>
@@ -9173,7 +9191,7 @@
         <v>78</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>78</v>
@@ -9209,7 +9227,7 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
@@ -9224,7 +9242,7 @@
         <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
@@ -9233,7 +9251,7 @@
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9241,11 +9259,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>78</v>
+        <v>441</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9267,14 +9285,12 @@
         <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>78</v>
@@ -9323,7 +9339,7 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -9338,7 +9354,7 @@
         <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
@@ -9347,19 +9363,19 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>78</v>
+        <v>448</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9369,7 +9385,7 @@
         <v>85</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
@@ -9378,18 +9394,16 @@
         <v>86</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>460</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9401,7 +9415,7 @@
         <v>78</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>78</v>
@@ -9437,7 +9451,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -9452,7 +9466,7 @@
         <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
@@ -9461,15 +9475,15 @@
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9480,30 +9494,30 @@
         <v>76</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9527,13 +9541,13 @@
         <v>78</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>468</v>
+        <v>78</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>469</v>
+        <v>78</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>78</v>
@@ -9551,7 +9565,7 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -9566,16 +9580,16 @@
         <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>471</v>
+        <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9583,7 +9597,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9594,7 +9608,7 @@
         <v>76</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>78</v>
@@ -9603,22 +9617,20 @@
         <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>474</v>
+        <v>203</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>78</v>
@@ -9631,7 +9643,7 @@
         <v>78</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>78</v>
+        <v>466</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>78</v>
@@ -9667,7 +9679,7 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -9682,16 +9694,16 @@
         <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>479</v>
+        <v>294</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9699,7 +9711,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9722,19 +9734,17 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>482</v>
+        <v>175</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>78</v>
@@ -9759,13 +9769,13 @@
         <v>78</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>78</v>
+        <v>473</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>78</v>
+        <v>474</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>78</v>
@@ -9783,13 +9793,13 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>78</v>
@@ -9798,24 +9808,24 @@
         <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>157</v>
+        <v>476</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9826,10 +9836,10 @@
         <v>76</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -9838,19 +9848,19 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>78</v>
@@ -9899,22 +9909,22 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>495</v>
+        <v>97</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>157</v>
@@ -9923,7 +9933,7 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>78</v>
+        <v>485</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9931,7 +9941,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9942,7 +9952,7 @@
         <v>76</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>78</v>
@@ -9954,16 +9964,20 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>87</v>
+        <v>487</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>154</v>
+        <v>488</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>78</v>
       </c>
@@ -10011,43 +10025,43 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>156</v>
+        <v>486</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ68" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AK68" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>78</v>
+        <v>493</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10057,7 +10071,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -10066,18 +10080,20 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>131</v>
+        <v>495</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>132</v>
+        <v>496</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>159</v>
+        <v>497</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>78</v>
       </c>
@@ -10125,7 +10141,7 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>163</v>
+        <v>494</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -10137,13 +10153,13 @@
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>136</v>
+        <v>500</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>78</v>
@@ -10157,43 +10173,39 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>500</v>
+        <v>78</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>501</v>
+        <v>154</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>78</v>
       </c>
@@ -10241,53 +10253,53 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>78</v>
@@ -10296,18 +10308,18 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>505</v>
+        <v>132</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>78</v>
       </c>
@@ -10316,7 +10328,7 @@
         <v>78</v>
       </c>
       <c r="R71" t="s" s="2">
-        <v>508</v>
+        <v>78</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>78</v>
@@ -10331,13 +10343,13 @@
         <v>78</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>509</v>
+        <v>78</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>510</v>
+        <v>78</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>78</v>
@@ -10355,7 +10367,7 @@
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>504</v>
+        <v>163</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
@@ -10367,60 +10379,62 @@
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>511</v>
+        <v>157</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>512</v>
+        <v>78</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>78</v>
+        <v>505</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H72" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H72" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="I72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>233</v>
+        <v>131</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N72" t="s" s="2">
-        <v>516</v>
+        <v>140</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>78</v>
@@ -10469,39 +10483,39 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>238</v>
+        <v>128</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>517</v>
+        <v>78</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10512,10 +10526,10 @@
         <v>76</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
@@ -10524,19 +10538,17 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>301</v>
+        <v>512</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>78</v>
@@ -10546,7 +10558,7 @@
         <v>78</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>78</v>
+        <v>513</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>78</v>
@@ -10561,13 +10573,13 @@
         <v>78</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>78</v>
+        <v>514</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>78</v>
+        <v>515</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>78</v>
@@ -10585,7 +10597,7 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
@@ -10600,7 +10612,7 @@
         <v>97</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>302</v>
+        <v>516</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>157</v>
@@ -10609,15 +10621,15 @@
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10625,13 +10637,13 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10640,17 +10652,17 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>374</v>
+        <v>233</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>78</v>
@@ -10699,7 +10711,7 @@
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -10714,7 +10726,7 @@
         <v>97</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>379</v>
+        <v>238</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>157</v>
@@ -10723,7 +10735,7 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10731,7 +10743,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10742,7 +10754,7 @@
         <v>76</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>78</v>
@@ -10754,17 +10766,19 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>105</v>
+        <v>297</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>346</v>
+        <v>524</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="N75" t="s" s="2">
-        <v>530</v>
+        <v>301</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>78</v>
@@ -10789,13 +10803,13 @@
         <v>78</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>350</v>
+        <v>78</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>78</v>
@@ -10813,13 +10827,13 @@
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>78</v>
@@ -10828,7 +10842,7 @@
         <v>97</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>157</v>
@@ -10837,7 +10851,7 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10845,7 +10859,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10856,7 +10870,7 @@
         <v>76</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>78</v>
@@ -10868,17 +10882,17 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>210</v>
+        <v>378</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>78</v>
@@ -10927,7 +10941,7 @@
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
@@ -10936,13 +10950,13 @@
         <v>85</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>536</v>
+        <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>537</v>
+        <v>383</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>157</v>
@@ -10951,7 +10965,7 @@
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10959,7 +10973,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10982,16 +10996,18 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>540</v>
+        <v>350</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>78</v>
       </c>
@@ -11015,13 +11031,13 @@
         <v>78</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>78</v>
+        <v>354</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>78</v>
+        <v>355</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>78</v>
@@ -11039,7 +11055,7 @@
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
@@ -11054,7 +11070,7 @@
         <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>542</v>
+        <v>356</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>157</v>
@@ -11063,7 +11079,7 @@
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>78</v>
+        <v>536</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -11071,7 +11087,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11082,7 +11098,7 @@
         <v>76</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>78</v>
@@ -11094,19 +11110,17 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>490</v>
+        <v>210</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>546</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>78</v>
@@ -11155,31 +11169,31 @@
         <v>78</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>78</v>
+        <v>541</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>549</v>
+        <v>157</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>78</v>
+        <v>543</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11187,7 +11201,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11198,7 +11212,7 @@
         <v>76</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>78</v>
@@ -11210,13 +11224,13 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>154</v>
+        <v>545</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>155</v>
+        <v>546</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11267,7 +11281,7 @@
         <v>78</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>156</v>
+        <v>544</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
@@ -11279,13 +11293,13 @@
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ79" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>78</v>
@@ -11299,11 +11313,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11322,18 +11336,20 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>131</v>
+        <v>495</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>132</v>
+        <v>549</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>159</v>
+        <v>550</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>78</v>
       </c>
@@ -11381,7 +11397,7 @@
         <v>78</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>163</v>
+        <v>548</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>76</v>
@@ -11393,13 +11409,13 @@
         <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>157</v>
+        <v>553</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>78</v>
+        <v>554</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>78</v>
@@ -11413,43 +11429,39 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>500</v>
+        <v>78</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>501</v>
+        <v>154</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11497,22 +11509,22 @@
         <v>78</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>503</v>
+        <v>156</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
@@ -11529,18 +11541,18 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>78</v>
@@ -11552,20 +11564,18 @@
         <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>554</v>
+        <v>132</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>555</v>
+        <v>159</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>557</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>78</v>
       </c>
@@ -11589,13 +11599,13 @@
         <v>78</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>78</v>
@@ -11613,31 +11623,31 @@
         <v>78</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>553</v>
+        <v>163</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>558</v>
+        <v>157</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>559</v>
+        <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>560</v>
+        <v>78</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11645,42 +11655,42 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>78</v>
+        <v>505</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>562</v>
+        <v>506</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>563</v>
+        <v>507</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>564</v>
+        <v>134</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>565</v>
+        <v>140</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>78</v>
@@ -11729,31 +11739,31 @@
         <v>78</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>561</v>
+        <v>508</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>566</v>
+        <v>128</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>567</v>
+        <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>568</v>
+        <v>78</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -11761,18 +11771,18 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>570</v>
+        <v>78</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>78</v>
@@ -11784,18 +11794,20 @@
         <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>571</v>
+        <v>175</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>78</v>
       </c>
@@ -11819,13 +11831,13 @@
         <v>78</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>78</v>
@@ -11843,13 +11855,13 @@
         <v>78</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>78</v>
@@ -11858,16 +11870,16 @@
         <v>97</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>157</v>
+        <v>564</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -11875,7 +11887,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11886,7 +11898,7 @@
         <v>76</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>78</v>
@@ -11895,22 +11907,22 @@
         <v>78</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>78</v>
@@ -11959,7 +11971,7 @@
         <v>78</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>76</v>
@@ -11974,16 +11986,16 @@
         <v>97</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>78</v>
+        <v>573</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -11991,11 +12003,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>78</v>
+        <v>575</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12008,26 +12020,24 @@
         <v>78</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>490</v>
+        <v>576</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>587</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>78</v>
       </c>
@@ -12075,7 +12085,7 @@
         <v>78</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
@@ -12090,7 +12100,7 @@
         <v>97</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>157</v>
@@ -12099,7 +12109,7 @@
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>78</v>
+        <v>581</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12107,7 +12117,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12118,7 +12128,7 @@
         <v>76</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>78</v>
@@ -12127,19 +12137,23 @@
         <v>78</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>87</v>
+        <v>210</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>154</v>
+        <v>583</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+        <v>584</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>78</v>
       </c>
@@ -12187,7 +12201,7 @@
         <v>78</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>156</v>
+        <v>582</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
@@ -12199,13 +12213,13 @@
         <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>157</v>
+        <v>542</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>78</v>
+        <v>587</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>78</v>
@@ -12219,41 +12233,43 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>131</v>
+        <v>495</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>132</v>
+        <v>589</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>159</v>
+        <v>590</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>591</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>592</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>78</v>
       </c>
@@ -12301,7 +12317,7 @@
         <v>78</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>163</v>
+        <v>588</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>76</v>
@@ -12313,13 +12329,13 @@
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ88" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AK88" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>78</v>
@@ -12333,43 +12349,39 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>500</v>
+        <v>78</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>501</v>
+        <v>154</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>78</v>
       </c>
@@ -12417,22 +12429,22 @@
         <v>78</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>503</v>
+        <v>156</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
@@ -12449,18 +12461,18 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>78</v>
@@ -12469,19 +12481,19 @@
         <v>78</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>593</v>
+        <v>131</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>594</v>
+        <v>132</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>595</v>
+        <v>159</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>596</v>
+        <v>134</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12531,31 +12543,31 @@
         <v>78</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>592</v>
+        <v>163</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>597</v>
+        <v>78</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
@@ -12563,39 +12575,43 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>78</v>
+        <v>505</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>599</v>
+        <v>506</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>78</v>
       </c>
@@ -12619,62 +12635,288 @@
         <v>78</v>
       </c>
       <c r="W91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W93" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="X91" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="AF91" t="s" s="2">
+      <c r="X93" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AF93" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AG91" t="s" s="2">
+      <c r="AG93" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AH91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI91" t="s" s="2">
+      <c r="AH93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI93" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ91" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="AK91" t="s" s="2">
+      <c r="AJ93" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AK93" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AL91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN91" t="s" s="2">
+      <c r="AL93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN93" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN91">
+  <autoFilter ref="A1:AN93">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12684,7 +12926,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI90">
+  <conditionalFormatting sqref="A2:AI92">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pmi-patient.xlsx
+++ b/StructureDefinition-pmi-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T19:59:56+00:00</t>
+    <t>2022-03-30T20:37:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pmi-patient.xlsx
+++ b/StructureDefinition-pmi-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$94</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3434" uniqueCount="612">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T20:37:56+00:00</t>
+    <t>2022-03-30T20:40:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -419,33 +419,54 @@
     <t>Patient.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>timezone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://pmi-ops.org/fhir/StructureDefinition/pmi-timezone}
+</t>
+  </si>
+  <si>
+    <t>PMI Timezone</t>
+  </si>
+  <si>
+    <t>Timezone associated with the participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Patient.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Patient.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -453,6 +474,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -512,17 +536,13 @@
     <t>Patient.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -971,12 +991,6 @@
   </si>
   <si>
     <t>Patient.telecom.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
   </si>
   <si>
     <t>verifiedPhoneNumber</t>
@@ -2236,7 +2250,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN93"/>
+  <dimension ref="A1:AN94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3209,14 +3223,14 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>78</v>
@@ -3228,17 +3242,15 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>78</v>
@@ -3275,16 +3287,14 @@
         <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>135</v>
@@ -3302,7 +3312,7 @@
         <v>136</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -3317,45 +3327,43 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N10" t="s" s="2">
         <v>140</v>
       </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>78</v>
       </c>
@@ -3403,7 +3411,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -3412,13 +3420,13 @@
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -3439,26 +3447,26 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="I11" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>144</v>
@@ -3466,9 +3474,11 @@
       <c r="L11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="N11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -3505,17 +3515,19 @@
         <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AB11" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AC11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -3527,19 +3539,19 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>78</v>
@@ -3547,7 +3559,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3561,25 +3573,27 @@
         <v>85</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>78</v>
       </c>
@@ -3615,43 +3629,41 @@
         <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="AE12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AF12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
+      <c r="AK12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AK12" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AL12" t="s" s="2">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3659,18 +3671,18 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>78</v>
@@ -3682,17 +3694,15 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>78</v>
@@ -3729,16 +3739,16 @@
         <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>163</v>
@@ -3747,16 +3757,16 @@
         <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -3773,43 +3783,41 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3833,46 +3841,46 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -3881,7 +3889,7 @@
         <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3889,7 +3897,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3906,25 +3914,25 @@
         <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>78</v>
@@ -3949,13 +3957,13 @@
         <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>78</v>
@@ -3973,7 +3981,7 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>76</v>
@@ -3988,7 +3996,7 @@
         <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
@@ -3997,7 +4005,7 @@
         <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -4005,7 +4013,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4028,19 +4036,19 @@
         <v>86</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -4053,7 +4061,7 @@
         <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>78</v>
@@ -4065,13 +4073,13 @@
         <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>78</v>
@@ -4089,7 +4097,7 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
@@ -4104,7 +4112,7 @@
         <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
@@ -4113,7 +4121,7 @@
         <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -4121,7 +4129,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4144,18 +4152,20 @@
         <v>86</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>78</v>
       </c>
@@ -4167,7 +4177,7 @@
         <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>78</v>
@@ -4203,7 +4213,7 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -4218,7 +4228,7 @@
         <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
@@ -4227,7 +4237,7 @@
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -4235,7 +4245,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4246,7 +4256,7 @@
         <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>78</v>
@@ -4258,15 +4268,17 @@
         <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>78</v>
@@ -4279,7 +4291,7 @@
         <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>78</v>
@@ -4315,7 +4327,7 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -4330,16 +4342,16 @@
         <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4347,7 +4359,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4370,17 +4382,15 @@
         <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>78</v>
@@ -4429,7 +4439,7 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -4444,28 +4454,26 @@
         <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>217</v>
-      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4474,10 +4482,10 @@
         <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -4486,18 +4494,18 @@
         <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>143</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="M20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4545,13 +4553,13 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>78</v>
@@ -4560,26 +4568,28 @@
         <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" hidden="true">
-      <c r="A21" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="B21" s="2"/>
+      <c r="B21" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4591,25 +4601,27 @@
         <v>85</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4657,31 +4669,31 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AK21" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AL21" t="s" s="2">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4689,18 +4701,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
@@ -4712,17 +4724,15 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>78</v>
@@ -4759,16 +4769,16 @@
         <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>163</v>
@@ -4777,16 +4787,16 @@
         <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
@@ -4803,43 +4813,41 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4848,7 +4856,7 @@
         <v>78</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>78</v>
@@ -4863,46 +4871,46 @@
         <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="X23" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
@@ -4911,7 +4919,7 @@
         <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4919,7 +4927,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4936,25 +4944,25 @@
         <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>78</v>
@@ -4964,7 +4972,7 @@
         <v>78</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>78</v>
@@ -4979,13 +4987,13 @@
         <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>78</v>
@@ -5003,7 +5011,7 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -5018,7 +5026,7 @@
         <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
@@ -5027,7 +5035,7 @@
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -5035,7 +5043,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5043,7 +5051,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>85</v>
@@ -5058,19 +5066,19 @@
         <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>78</v>
@@ -5080,10 +5088,10 @@
         <v>78</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>78</v>
@@ -5095,13 +5103,13 @@
         <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>78</v>
@@ -5119,7 +5127,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -5134,7 +5142,7 @@
         <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
@@ -5143,7 +5151,7 @@
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -5151,7 +5159,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5159,7 +5167,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>85</v>
@@ -5174,18 +5182,20 @@
         <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>78</v>
       </c>
@@ -5194,10 +5204,10 @@
         <v>78</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>78</v>
@@ -5233,7 +5243,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -5248,7 +5258,7 @@
         <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
@@ -5257,7 +5267,7 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -5265,7 +5275,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5288,15 +5298,17 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K27" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>78</v>
@@ -5309,7 +5321,7 @@
         <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>78</v>
@@ -5345,7 +5357,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -5360,16 +5372,16 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -5377,7 +5389,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5400,17 +5412,15 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>78</v>
@@ -5459,7 +5469,7 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -5474,7 +5484,7 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -5483,7 +5493,7 @@
         <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5491,7 +5501,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5502,38 +5512,34 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="P29" t="s" s="2">
-        <v>229</v>
-      </c>
+      <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5577,7 +5583,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -5592,24 +5598,24 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5620,36 +5626,38 @@
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="O30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P30" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
         <v>78</v>
       </c>
@@ -5693,13 +5701,13 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>78</v>
@@ -5708,24 +5716,24 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" hidden="true">
-      <c r="A31" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5739,25 +5747,29 @@
         <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>239</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5805,31 +5817,31 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>156</v>
+        <v>238</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>157</v>
+        <v>244</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5837,18 +5849,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>78</v>
@@ -5860,17 +5872,15 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>78</v>
@@ -5907,16 +5917,16 @@
         <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>163</v>
@@ -5925,16 +5935,16 @@
         <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -5951,43 +5961,41 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5996,7 +6004,7 @@
         <v>78</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>78</v>
@@ -6011,46 +6019,46 @@
         <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="X33" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -6059,7 +6067,7 @@
         <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -6067,7 +6075,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6084,25 +6092,25 @@
         <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>78</v>
@@ -6112,7 +6120,7 @@
         <v>78</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>78</v>
@@ -6127,13 +6135,13 @@
         <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>78</v>
@@ -6151,7 +6159,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -6166,28 +6174,28 @@
         <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>262</v>
+        <v>78</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6197,7 +6205,7 @@
         <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -6209,15 +6217,17 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>78</v>
       </c>
@@ -6265,7 +6275,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -6280,7 +6290,7 @@
         <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -6289,7 +6299,7 @@
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -6297,18 +6307,18 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>86</v>
@@ -6323,13 +6333,13 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6379,13 +6389,13 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>78</v>
@@ -6394,28 +6404,28 @@
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6425,7 +6435,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6437,12 +6447,14 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>78</v>
@@ -6646,7 +6658,7 @@
         <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -6658,7 +6670,7 @@
         <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>290</v>
@@ -6667,9 +6679,7 @@
         <v>291</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>292</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6717,13 +6727,13 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>78</v>
@@ -6732,24 +6742,24 @@
         <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6760,10 +6770,10 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6772,19 +6782,17 @@
         <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>78</v>
@@ -6833,13 +6841,13 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>78</v>
@@ -6848,24 +6856,24 @@
         <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" hidden="true">
-      <c r="A41" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6876,28 +6884,32 @@
         <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>303</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>154</v>
+        <v>304</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6945,31 +6957,31 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>156</v>
+        <v>302</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>157</v>
+        <v>308</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6977,7 +6989,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7000,13 +7012,13 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>307</v>
+        <v>161</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>308</v>
+        <v>162</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -7045,16 +7057,16 @@
         <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>163</v>
@@ -7063,16 +7075,16 @@
         <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
@@ -7087,13 +7099,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>78</v>
       </c>
@@ -7105,7 +7115,7 @@
         <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -7114,13 +7124,13 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>310</v>
+        <v>130</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>311</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>312</v>
+        <v>132</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7159,19 +7169,19 @@
         <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -7201,11 +7211,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7217,22 +7229,22 @@
         <v>85</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>105</v>
+        <v>314</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7259,46 +7271,46 @@
         <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="X44" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>319</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
@@ -7307,7 +7319,7 @@
         <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7315,7 +7327,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7338,20 +7350,16 @@
         <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7375,13 +7383,13 @@
         <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>78</v>
@@ -7399,7 +7407,7 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -7408,13 +7416,13 @@
         <v>85</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>323</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
@@ -7423,7 +7431,7 @@
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7431,7 +7439,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7448,25 +7456,25 @@
         <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>78</v>
@@ -7491,13 +7499,13 @@
         <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>78</v>
@@ -7515,7 +7523,7 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -7530,7 +7538,7 @@
         <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>251</v>
+        <v>332</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
@@ -7539,7 +7547,7 @@
         <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7547,7 +7555,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7564,24 +7572,26 @@
         <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>340</v>
+        <v>105</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7605,13 +7615,13 @@
         <v>78</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
+        <v>339</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>78</v>
@@ -7629,7 +7639,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7644,7 +7654,7 @@
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -7653,7 +7663,7 @@
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>157</v>
+        <v>342</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7661,7 +7671,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7672,7 +7682,7 @@
         <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -7684,15 +7694,17 @@
         <v>86</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>203</v>
+        <v>344</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>78</v>
@@ -7756,7 +7768,7 @@
         <v>97</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>294</v>
+        <v>164</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
@@ -7765,13 +7777,13 @@
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>349</v>
       </c>
@@ -7784,10 +7796,10 @@
         <v>76</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7796,7 +7808,7 @@
         <v>86</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>105</v>
+        <v>209</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>350</v>
@@ -7804,12 +7816,8 @@
       <c r="L49" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>353</v>
-      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7833,13 +7841,13 @@
         <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>354</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>355</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>78</v>
@@ -7857,7 +7865,7 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7872,16 +7880,16 @@
         <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>358</v>
+        <v>128</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7889,7 +7897,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7912,19 +7920,19 @@
         <v>86</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>360</v>
+        <v>105</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>78</v>
@@ -7949,13 +7957,13 @@
         <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>78</v>
+        <v>358</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>78</v>
@@ -7973,7 +7981,7 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7988,24 +7996,24 @@
         <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>368</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8022,25 +8030,25 @@
         <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>78</v>
@@ -8089,7 +8097,7 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
@@ -8104,24 +8112,24 @@
         <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>157</v>
+        <v>370</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>78</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8132,31 +8140,31 @@
         <v>76</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>78</v>
@@ -8205,13 +8213,13 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
@@ -8220,24 +8228,24 @@
         <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>384</v>
+        <v>164</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8248,28 +8256,32 @@
         <v>76</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>382</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>154</v>
+        <v>383</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8317,31 +8329,31 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>156</v>
+        <v>381</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>157</v>
+        <v>387</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>78</v>
+        <v>388</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>78</v>
+        <v>389</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8349,7 +8361,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8372,13 +8384,13 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>307</v>
+        <v>161</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>308</v>
+        <v>162</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8417,16 +8429,16 @@
         <v>78</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>163</v>
@@ -8435,16 +8447,16 @@
         <v>76</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
@@ -8459,13 +8471,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8477,7 +8487,7 @@
         <v>85</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8486,13 +8496,13 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>310</v>
+        <v>130</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>311</v>
+        <v>131</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>312</v>
+        <v>132</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8531,19 +8541,19 @@
         <v>78</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -8575,15 +8585,17 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B56" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="C56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>85</v>
@@ -8592,26 +8604,22 @@
         <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>105</v>
+        <v>314</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>390</v>
+        <v>315</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8620,10 +8628,10 @@
         <v>78</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>394</v>
+        <v>78</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>394</v>
+        <v>78</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>78</v>
@@ -8635,46 +8643,46 @@
         <v>78</v>
       </c>
       <c r="W56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="X56" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>251</v>
+        <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
@@ -8683,15 +8691,15 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>398</v>
+        <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8699,16 +8707,16 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>86</v>
@@ -8717,15 +8725,17 @@
         <v>105</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8734,10 +8744,10 @@
         <v>78</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>78</v>
+        <v>398</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>78</v>
@@ -8749,13 +8759,13 @@
         <v>78</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>78</v>
@@ -8773,7 +8783,7 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -8788,7 +8798,7 @@
         <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
@@ -8797,7 +8807,7 @@
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8805,7 +8815,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8828,20 +8838,18 @@
         <v>86</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8853,7 +8861,7 @@
         <v>78</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>78</v>
@@ -8865,13 +8873,13 @@
         <v>78</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>78</v>
+        <v>408</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>78</v>
+        <v>409</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>78</v>
@@ -8889,7 +8897,7 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -8904,7 +8912,7 @@
         <v>97</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
@@ -8913,15 +8921,15 @@
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8932,10 +8940,10 @@
         <v>76</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>416</v>
+        <v>85</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -8947,13 +8955,17 @@
         <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>78</v>
       </c>
@@ -8965,7 +8977,7 @@
         <v>78</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>78</v>
@@ -9001,13 +9013,13 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>78</v>
@@ -9016,7 +9028,7 @@
         <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>421</v>
+        <v>265</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
@@ -9025,7 +9037,7 @@
         <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -9033,18 +9045,18 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>424</v>
+        <v>78</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>85</v>
+        <v>420</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>86</v>
@@ -9059,10 +9071,10 @@
         <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9077,7 +9089,7 @@
         <v>78</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>78</v>
@@ -9113,13 +9125,13 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>78</v>
@@ -9128,7 +9140,7 @@
         <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
@@ -9137,7 +9149,7 @@
         <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -9145,11 +9157,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9171,14 +9183,12 @@
         <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>78</v>
@@ -9191,7 +9201,7 @@
         <v>78</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>78</v>
@@ -9227,7 +9237,7 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
@@ -9242,7 +9252,7 @@
         <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
@@ -9251,7 +9261,7 @@
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9259,11 +9269,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9285,12 +9295,14 @@
         <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>78</v>
@@ -9303,7 +9315,7 @@
         <v>78</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>78</v>
+        <v>440</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>78</v>
@@ -9339,7 +9351,7 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -9354,7 +9366,7 @@
         <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
@@ -9363,7 +9375,7 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9371,11 +9383,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9397,10 +9409,10 @@
         <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9415,7 +9427,7 @@
         <v>78</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>78</v>
@@ -9451,7 +9463,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -9466,7 +9478,7 @@
         <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
@@ -9475,7 +9487,7 @@
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9483,11 +9495,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9509,14 +9521,12 @@
         <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>78</v>
@@ -9529,7 +9539,7 @@
         <v>78</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>78</v>
+        <v>455</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>78</v>
@@ -9565,7 +9575,7 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -9580,7 +9590,7 @@
         <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
@@ -9589,15 +9599,15 @@
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9611,7 +9621,7 @@
         <v>85</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9620,18 +9630,18 @@
         <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9643,7 +9653,7 @@
         <v>78</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>466</v>
+        <v>78</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>78</v>
@@ -9679,7 +9689,7 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -9694,7 +9704,7 @@
         <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>294</v>
+        <v>464</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
@@ -9703,7 +9713,7 @@
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9711,7 +9721,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9722,7 +9732,7 @@
         <v>76</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>78</v>
@@ -9731,20 +9741,20 @@
         <v>78</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>78</v>
@@ -9757,7 +9767,7 @@
         <v>78</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>78</v>
+        <v>470</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>78</v>
@@ -9769,13 +9779,13 @@
         <v>78</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>473</v>
+        <v>78</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>474</v>
+        <v>78</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>78</v>
@@ -9793,7 +9803,7 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -9808,16 +9818,16 @@
         <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>475</v>
+        <v>300</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>476</v>
+        <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9825,7 +9835,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9848,19 +9858,17 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>479</v>
+        <v>181</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>78</v>
@@ -9885,13 +9893,13 @@
         <v>78</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>78</v>
+        <v>477</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>78</v>
+        <v>478</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>78</v>
@@ -9909,7 +9917,7 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
@@ -9924,16 +9932,16 @@
         <v>97</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>157</v>
+        <v>480</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9941,7 +9949,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9964,19 +9972,19 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>78</v>
@@ -10025,13 +10033,13 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>78</v>
@@ -10040,24 +10048,24 @@
         <v>97</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10068,10 +10076,10 @@
         <v>76</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -10080,19 +10088,19 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>78</v>
@@ -10141,7 +10149,7 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -10153,27 +10161,27 @@
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>500</v>
+        <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>78</v>
+        <v>497</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10184,10 +10192,10 @@
         <v>76</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -10196,16 +10204,20 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>87</v>
+        <v>499</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>154</v>
+        <v>500</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>78</v>
       </c>
@@ -10253,25 +10265,25 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>156</v>
+        <v>498</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>78</v>
+        <v>504</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>157</v>
+        <v>505</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>78</v>
@@ -10285,18 +10297,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>78</v>
@@ -10308,17 +10320,15 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>78</v>
@@ -10373,16 +10383,16 @@
         <v>76</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
@@ -10399,11 +10409,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>505</v>
+        <v>143</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10416,26 +10426,24 @@
         <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>506</v>
+        <v>166</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>507</v>
+        <v>167</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10483,7 +10491,7 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>508</v>
+        <v>169</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
@@ -10498,7 +10506,7 @@
         <v>136</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
@@ -10513,32 +10521,32 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>78</v>
+        <v>509</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H73" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H73" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="I73" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>510</v>
@@ -10546,9 +10554,11 @@
       <c r="L73" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M73" s="2"/>
+      <c r="M73" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="N73" t="s" s="2">
-        <v>512</v>
+        <v>147</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>78</v>
@@ -10558,7 +10568,7 @@
         <v>78</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>513</v>
+        <v>78</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>78</v>
@@ -10573,13 +10583,13 @@
         <v>78</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>514</v>
+        <v>78</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>515</v>
+        <v>78</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>78</v>
@@ -10597,7 +10607,7 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
@@ -10609,19 +10619,19 @@
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>516</v>
+        <v>128</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>517</v>
+        <v>78</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10629,7 +10639,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10637,7 +10647,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>85</v>
@@ -10652,17 +10662,17 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>233</v>
+        <v>181</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>78</v>
@@ -10672,7 +10682,7 @@
         <v>78</v>
       </c>
       <c r="R74" t="s" s="2">
-        <v>78</v>
+        <v>517</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>78</v>
@@ -10687,13 +10697,13 @@
         <v>78</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>78</v>
+        <v>518</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>78</v>
+        <v>519</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>78</v>
@@ -10711,13 +10721,13 @@
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>78</v>
@@ -10726,24 +10736,24 @@
         <v>97</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>238</v>
+        <v>520</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10751,13 +10761,13 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
@@ -10766,19 +10776,17 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" s="2"/>
+      <c r="N75" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>78</v>
@@ -10827,13 +10835,13 @@
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>78</v>
@@ -10842,16 +10850,16 @@
         <v>97</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>302</v>
+        <v>244</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10859,7 +10867,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10870,7 +10878,7 @@
         <v>76</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>78</v>
@@ -10882,17 +10890,19 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>378</v>
+        <v>303</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>531</v>
+        <v>307</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>78</v>
@@ -10941,13 +10951,13 @@
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>78</v>
@@ -10956,16 +10966,16 @@
         <v>97</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>383</v>
+        <v>308</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10973,7 +10983,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10984,7 +10994,7 @@
         <v>76</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>78</v>
@@ -10996,10 +11006,10 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>105</v>
+        <v>382</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>350</v>
+        <v>533</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>534</v>
@@ -11031,13 +11041,13 @@
         <v>78</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>354</v>
+        <v>78</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>355</v>
+        <v>78</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>78</v>
@@ -11055,7 +11065,7 @@
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
@@ -11070,10 +11080,10 @@
         <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>78</v>
@@ -11110,17 +11120,17 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>78</v>
@@ -11145,13 +11155,13 @@
         <v>78</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>78</v>
+        <v>358</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>78</v>
@@ -11178,22 +11188,22 @@
         <v>85</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>541</v>
+        <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>542</v>
+        <v>360</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11201,7 +11211,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11224,16 +11234,18 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>78</v>
       </c>
@@ -11281,7 +11293,7 @@
         <v>78</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
@@ -11290,22 +11302,22 @@
         <v>85</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>78</v>
+        <v>545</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ79" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11324,7 +11336,7 @@
         <v>76</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>78</v>
@@ -11336,7 +11348,7 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>495</v>
+        <v>209</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>549</v>
@@ -11344,12 +11356,8 @@
       <c r="L80" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="M80" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>552</v>
-      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>78</v>
       </c>
@@ -11403,7 +11411,7 @@
         <v>76</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>78</v>
@@ -11412,10 +11420,10 @@
         <v>97</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>554</v>
+        <v>164</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>78</v>
@@ -11429,7 +11437,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11440,7 +11448,7 @@
         <v>76</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>78</v>
@@ -11452,16 +11460,20 @@
         <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>87</v>
+        <v>499</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>154</v>
+        <v>553</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+        <v>554</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>556</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11509,25 +11521,25 @@
         <v>78</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>156</v>
+        <v>552</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>157</v>
+        <v>557</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>78</v>
+        <v>558</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>78</v>
@@ -11541,18 +11553,18 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>78</v>
@@ -11564,17 +11576,15 @@
         <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>78</v>
@@ -11629,16 +11639,16 @@
         <v>76</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
@@ -11655,11 +11665,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>505</v>
+        <v>143</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11672,26 +11682,24 @@
         <v>78</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>506</v>
+        <v>166</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>507</v>
+        <v>167</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>78</v>
       </c>
@@ -11739,7 +11747,7 @@
         <v>78</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>508</v>
+        <v>169</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>76</v>
@@ -11754,7 +11762,7 @@
         <v>136</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
@@ -11771,42 +11779,42 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>78</v>
+        <v>509</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>559</v>
+        <v>510</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>560</v>
+        <v>511</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>561</v>
+        <v>146</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>562</v>
+        <v>147</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>78</v>
@@ -11831,13 +11839,13 @@
         <v>78</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>78</v>
@@ -11855,31 +11863,31 @@
         <v>78</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>558</v>
+        <v>512</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>563</v>
+        <v>128</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>564</v>
+        <v>78</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>565</v>
+        <v>78</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -11887,7 +11895,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11895,7 +11903,7 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>85</v>
@@ -11910,19 +11918,19 @@
         <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>78</v>
@@ -11947,13 +11955,13 @@
         <v>78</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>78</v>
@@ -11971,10 +11979,10 @@
         <v>78</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>85</v>
@@ -11986,16 +11994,16 @@
         <v>97</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -12003,18 +12011,18 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>575</v>
+        <v>78</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>78</v>
@@ -12026,18 +12034,20 @@
         <v>78</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>576</v>
+        <v>230</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>78</v>
       </c>
@@ -12085,13 +12095,13 @@
         <v>78</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>78</v>
@@ -12100,16 +12110,16 @@
         <v>97</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>157</v>
+        <v>576</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12117,11 +12127,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>78</v>
+        <v>579</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12137,23 +12147,21 @@
         <v>78</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>210</v>
+        <v>580</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="L87" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>586</v>
-      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>78</v>
       </c>
@@ -12201,13 +12209,13 @@
         <v>78</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>78</v>
@@ -12216,16 +12224,16 @@
         <v>97</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>542</v>
+        <v>584</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>587</v>
+        <v>164</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>78</v>
+        <v>585</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12233,7 +12241,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12250,25 +12258,25 @@
         <v>78</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>495</v>
+        <v>216</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>78</v>
@@ -12317,13 +12325,13 @@
         <v>78</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>78</v>
@@ -12332,10 +12340,10 @@
         <v>97</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>593</v>
+        <v>546</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>157</v>
+        <v>591</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>78</v>
@@ -12349,7 +12357,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12360,28 +12368,32 @@
         <v>76</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>87</v>
+        <v>499</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>154</v>
+        <v>593</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>596</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>78</v>
       </c>
@@ -12429,25 +12441,25 @@
         <v>78</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>156</v>
+        <v>592</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>157</v>
+        <v>597</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>78</v>
@@ -12461,18 +12473,18 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>78</v>
@@ -12484,17 +12496,15 @@
         <v>78</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>78</v>
@@ -12549,16 +12559,16 @@
         <v>76</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
@@ -12575,11 +12585,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>505</v>
+        <v>143</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12592,26 +12602,24 @@
         <v>78</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>506</v>
+        <v>166</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>507</v>
+        <v>167</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>78</v>
       </c>
@@ -12659,7 +12667,7 @@
         <v>78</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>508</v>
+        <v>169</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>76</v>
@@ -12674,7 +12682,7 @@
         <v>136</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
@@ -12691,41 +12699,43 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>78</v>
+        <v>509</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>598</v>
+        <v>130</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>599</v>
+        <v>510</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>600</v>
+        <v>511</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>78</v>
       </c>
@@ -12773,31 +12783,31 @@
         <v>78</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>597</v>
+        <v>512</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>602</v>
+        <v>78</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -12805,7 +12815,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12828,15 +12838,17 @@
         <v>86</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>105</v>
+        <v>602</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>78</v>
@@ -12861,13 +12873,13 @@
         <v>78</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>605</v>
+        <v>78</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>606</v>
+        <v>78</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>78</v>
@@ -12885,7 +12897,7 @@
         <v>78</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>85</v>
@@ -12900,23 +12912,135 @@
         <v>97</v>
       </c>
       <c r="AJ93" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="AK93" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN93" t="s" s="2">
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN94" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN93">
+  <autoFilter ref="A1:AN94">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12926,7 +13050,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI92">
+  <conditionalFormatting sqref="A2:AI93">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pmi-patient.xlsx
+++ b/StructureDefinition-pmi-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$93</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3434" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="608">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T20:40:12+00:00</t>
+    <t>2022-11-18T03:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -262,10 +262,6 @@
     <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Patient[classCode=PAT]</t>
   </si>
   <si>
@@ -279,270 +275,254 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Participant ID e.g. P12345678</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Patient.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Patient.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Patient.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Patient.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Patient.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provenance
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Patient.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Patient.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Patient.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifiers for the patient</t>
+  </si>
+  <si>
+    <t>An identifier for this patient.</t>
+  </si>
+  <si>
+    <t>Patients are almost always assigned specific numerical identifiers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>Patient.identifier.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Patient.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Patient.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Patient.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Patient.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Patient.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Patient.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Patient.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>timezone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://pmi-ops.org/fhir/StructureDefinition/pmi-timezone}
-</t>
-  </si>
-  <si>
-    <t>PMI Timezone</t>
-  </si>
-  <si>
-    <t>Timezone associated with the participant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Patient.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Patient.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifiers for the patient</t>
-  </si>
-  <si>
-    <t>An identifier for this patient.</t>
-  </si>
-  <si>
-    <t>Patients are almost always assigned specific numerical identifiers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>Patient.identifier.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Patient.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -993,7 +973,13 @@
     <t>Patient.telecom.extension</t>
   </si>
   <si>
-    <t>verifiedPhoneNumber</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>verified</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://pmi-ops.org/fhir/StructureDefinition/pmi-verified}
@@ -1184,7 +1170,7 @@
 dateTime</t>
   </si>
   <si>
-    <t>Indicates if the individual is deceased or not</t>
+    <t>Indicates whether the participant is deceased or not. If the date is known, use deceasedDateTime, else use deceasedBoolean</t>
   </si>
   <si>
     <t>Indicates if the individual is deceased or not.</t>
@@ -2250,7 +2236,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN94"/>
+  <dimension ref="A1:AN93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2259,45 +2245,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.0078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.33984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.16796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="116.6171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.91796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="156.82421875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="40.80859375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="40.8125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.39453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.3984375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2517,13 +2503,13 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>78</v>
@@ -2537,7 +2523,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2548,28 +2534,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2619,13 +2605,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2651,7 +2637,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2662,25 +2648,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2731,19 +2717,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2763,7 +2749,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2774,28 +2760,28 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2845,19 +2831,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2877,7 +2863,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2888,7 +2874,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2900,16 +2886,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2935,43 +2921,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2991,18 +2977,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -3014,16 +3000,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3073,53 +3059,53 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AF7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
+      <c r="AK7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" hidden="true">
-      <c r="A8" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>78</v>
@@ -3128,16 +3114,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3187,7 +3173,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
@@ -3202,7 +3188,7 @@
         <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
@@ -3219,18 +3205,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>78</v>
@@ -3250,7 +3236,9 @@
       <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>78</v>
@@ -3287,17 +3275,19 @@
         <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -3309,61 +3299,63 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" hidden="true">
+      <c r="A10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN9" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="I10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>78</v>
       </c>
@@ -3411,7 +3403,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -3420,13 +3412,13 @@
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -3443,42 +3435,40 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" s="2"/>
+      <c r="N11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -3515,19 +3505,17 @@
         <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -3539,19 +3527,19 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>78</v>
@@ -3559,7 +3547,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3570,30 +3558,28 @@
         <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>78</v>
       </c>
@@ -3629,41 +3615,43 @@
         <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AB12" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AC12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3671,18 +3659,18 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>78</v>
@@ -3694,15 +3682,17 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>78</v>
@@ -3739,16 +3729,16 @@
         <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>163</v>
@@ -3757,16 +3747,16 @@
         <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -3783,41 +3773,43 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3841,46 +3833,46 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -3889,7 +3881,7 @@
         <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3897,7 +3889,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3908,31 +3900,31 @@
         <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>78</v>
@@ -3957,13 +3949,13 @@
         <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>78</v>
@@ -3981,22 +3973,22 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
@@ -4005,7 +3997,7 @@
         <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -4013,7 +4005,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4024,31 +4016,31 @@
         <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -4061,7 +4053,7 @@
         <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>78</v>
@@ -4073,13 +4065,13 @@
         <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>78</v>
@@ -4097,22 +4089,22 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
@@ -4121,7 +4113,7 @@
         <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -4129,7 +4121,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4140,32 +4132,30 @@
         <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>78</v>
       </c>
@@ -4177,7 +4167,7 @@
         <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>78</v>
@@ -4213,22 +4203,22 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
@@ -4237,7 +4227,7 @@
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -4245,7 +4235,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4256,29 +4246,27 @@
         <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>78</v>
@@ -4291,7 +4279,7 @@
         <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>78</v>
@@ -4327,22 +4315,22 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
@@ -4351,7 +4339,7 @@
         <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4359,7 +4347,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4379,18 +4367,20 @@
         <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>78</v>
@@ -4439,22 +4429,22 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
@@ -4463,17 +4453,19 @@
         <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4482,30 +4474,30 @@
         <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4553,43 +4545,41 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>220</v>
+        <v>141</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4598,30 +4588,28 @@
         <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4669,31 +4657,31 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4701,18 +4689,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
@@ -4724,15 +4712,17 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>78</v>
@@ -4769,16 +4759,16 @@
         <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>163</v>
@@ -4787,16 +4777,16 @@
         <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
@@ -4813,41 +4803,43 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4856,7 +4848,7 @@
         <v>78</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>78</v>
@@ -4871,46 +4863,46 @@
         <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
@@ -4919,7 +4911,7 @@
         <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4927,7 +4919,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4938,31 +4930,31 @@
         <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>78</v>
@@ -4972,7 +4964,7 @@
         <v>78</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>78</v>
@@ -4987,13 +4979,13 @@
         <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>78</v>
@@ -5011,22 +5003,22 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
@@ -5035,7 +5027,7 @@
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -5043,7 +5035,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5051,34 +5043,34 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>78</v>
@@ -5088,10 +5080,10 @@
         <v>78</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>78</v>
@@ -5103,13 +5095,13 @@
         <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>78</v>
@@ -5127,22 +5119,22 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
@@ -5151,7 +5143,7 @@
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -5159,7 +5151,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5167,35 +5159,33 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F26" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>78</v>
       </c>
@@ -5204,10 +5194,10 @@
         <v>78</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>78</v>
@@ -5243,22 +5233,22 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
@@ -5267,7 +5257,7 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -5275,7 +5265,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5286,29 +5276,27 @@
         <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>78</v>
@@ -5321,7 +5309,7 @@
         <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>78</v>
@@ -5357,22 +5345,22 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
@@ -5381,7 +5369,7 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -5389,7 +5377,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5400,27 +5388,29 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>78</v>
@@ -5469,22 +5459,22 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -5493,7 +5483,7 @@
         <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5501,7 +5491,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5512,34 +5502,38 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="I29" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="P29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="Q29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5583,39 +5577,39 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5626,114 +5620,112 @@
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>164</v>
+        <v>239</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5744,32 +5736,28 @@
         <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5817,31 +5805,31 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>238</v>
+        <v>156</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>244</v>
+        <v>157</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5849,18 +5837,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>78</v>
@@ -5872,15 +5860,17 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>78</v>
@@ -5917,16 +5907,16 @@
         <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>163</v>
@@ -5935,16 +5925,16 @@
         <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -5961,41 +5951,43 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>78</v>
       </c>
@@ -6004,7 +5996,7 @@
         <v>78</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>78</v>
@@ -6019,46 +6011,46 @@
         <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>169</v>
+        <v>250</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>164</v>
+        <v>251</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -6067,7 +6059,7 @@
         <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -6075,7 +6067,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6086,31 +6078,31 @@
         <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>78</v>
@@ -6120,7 +6112,7 @@
         <v>78</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>78</v>
@@ -6135,13 +6127,13 @@
         <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>78</v>
@@ -6159,22 +6151,22 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -6183,51 +6175,49 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>78</v>
       </c>
@@ -6275,22 +6265,22 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -6299,7 +6289,7 @@
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -6307,39 +6297,39 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6389,22 +6379,22 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -6413,19 +6403,19 @@
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6435,26 +6425,24 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M37" t="s" s="2">
         <v>279</v>
       </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>78</v>
@@ -6515,7 +6503,7 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>281</v>
@@ -6555,10 +6543,10 @@
         <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>284</v>
@@ -6627,7 +6615,7 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>287</v>
@@ -6658,7 +6646,7 @@
         <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -6667,10 +6655,10 @@
         <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>290</v>
@@ -6679,7 +6667,9 @@
         <v>291</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6727,22 +6717,22 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
@@ -6751,15 +6741,15 @@
         <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6770,29 +6760,31 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G40" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>209</v>
+        <v>297</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="N40" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>78</v>
@@ -6841,39 +6833,39 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6884,32 +6876,28 @@
         <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>303</v>
+        <v>153</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>304</v>
+        <v>154</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6957,31 +6945,31 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>308</v>
+        <v>157</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6989,7 +6977,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7000,7 +6988,7 @@
         <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>78</v>
@@ -7012,13 +7000,13 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>161</v>
+        <v>307</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>162</v>
+        <v>308</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -7057,16 +7045,16 @@
         <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>163</v>
@@ -7075,16 +7063,16 @@
         <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
@@ -7099,11 +7087,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>78</v>
       </c>
@@ -7112,11 +7102,11 @@
         <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G43" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
       </c>
@@ -7124,13 +7114,13 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>130</v>
+        <v>310</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>131</v>
+        <v>311</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7169,19 +7159,19 @@
         <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -7193,7 +7183,7 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>78</v>
@@ -7211,13 +7201,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B44" t="s" s="2">
         <v>313</v>
       </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7226,25 +7214,25 @@
         <v>76</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J44" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7271,13 +7259,13 @@
         <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>78</v>
@@ -7295,22 +7283,22 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>169</v>
+        <v>318</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
@@ -7319,7 +7307,7 @@
         <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7327,7 +7315,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7338,28 +7326,32 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7383,13 +7375,13 @@
         <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>78</v>
@@ -7407,22 +7399,22 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
@@ -7431,7 +7423,7 @@
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7439,7 +7431,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7450,31 +7442,31 @@
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H46" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="I46" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>78</v>
@@ -7499,13 +7491,13 @@
         <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>78</v>
@@ -7523,22 +7515,22 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>332</v>
+        <v>251</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
@@ -7547,7 +7539,7 @@
         <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7555,7 +7547,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7566,32 +7558,30 @@
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>105</v>
+        <v>340</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7615,13 +7605,13 @@
         <v>78</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>339</v>
+        <v>78</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>78</v>
@@ -7639,22 +7629,22 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>257</v>
+        <v>157</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -7663,7 +7653,7 @@
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>342</v>
+        <v>157</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7671,7 +7661,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7682,29 +7672,27 @@
         <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>344</v>
+        <v>203</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M48" t="s" s="2">
         <v>347</v>
       </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>78</v>
@@ -7759,16 +7747,16 @@
         <v>76</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>164</v>
+        <v>294</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
@@ -7777,7 +7765,7 @@
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7805,10 +7793,10 @@
         <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>350</v>
@@ -7816,8 +7804,12 @@
       <c r="L49" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="M49" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7841,13 +7833,13 @@
         <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>78</v>
+        <v>354</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>78</v>
+        <v>355</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>78</v>
@@ -7865,31 +7857,31 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>300</v>
+        <v>356</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>128</v>
+        <v>358</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7897,7 +7889,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7908,31 +7900,31 @@
         <v>76</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G50" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>105</v>
+        <v>360</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>78</v>
@@ -7957,63 +7949,63 @@
         <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>358</v>
+        <v>78</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE50" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>353</v>
-      </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>78</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8024,31 +8016,31 @@
         <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G51" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H51" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>78</v>
@@ -8097,39 +8089,39 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>370</v>
+        <v>157</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>372</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8140,31 +8132,31 @@
         <v>76</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G52" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>78</v>
@@ -8213,39 +8205,39 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>164</v>
+        <v>384</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8256,32 +8248,28 @@
         <v>76</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>382</v>
+        <v>153</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>383</v>
+        <v>154</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8329,31 +8317,31 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>381</v>
+        <v>156</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>387</v>
+        <v>157</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>388</v>
+        <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>389</v>
+        <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8361,7 +8349,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8372,7 +8360,7 @@
         <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>78</v>
@@ -8384,13 +8372,13 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>161</v>
+        <v>307</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>162</v>
+        <v>308</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8429,16 +8417,16 @@
         <v>78</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>163</v>
@@ -8447,16 +8435,16 @@
         <v>76</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
@@ -8471,11 +8459,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="C55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8484,11 +8474,11 @@
         <v>76</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G55" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8496,13 +8486,13 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>130</v>
+        <v>310</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>131</v>
+        <v>311</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8541,19 +8531,19 @@
         <v>78</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -8565,7 +8555,7 @@
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>78</v>
@@ -8585,41 +8575,43 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G56" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H56" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>314</v>
+        <v>104</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>315</v>
+        <v>390</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8628,10 +8620,10 @@
         <v>78</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>78</v>
+        <v>394</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>78</v>
+        <v>394</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>78</v>
@@ -8643,13 +8635,13 @@
         <v>78</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>78</v>
+        <v>396</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>78</v>
@@ -8667,22 +8659,22 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>169</v>
+        <v>397</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
@@ -8691,15 +8683,15 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>78</v>
+        <v>398</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8707,35 +8699,33 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J57" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8744,10 +8734,10 @@
         <v>78</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>398</v>
+        <v>78</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>78</v>
@@ -8759,13 +8749,13 @@
         <v>78</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>78</v>
@@ -8783,22 +8773,22 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
@@ -8807,7 +8797,7 @@
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8815,7 +8805,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8826,30 +8816,32 @@
         <v>76</v>
       </c>
       <c r="F58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J58" t="s" s="2">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8861,7 +8853,7 @@
         <v>78</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>78</v>
@@ -8873,13 +8865,13 @@
         <v>78</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>408</v>
+        <v>78</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>409</v>
+        <v>78</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>78</v>
@@ -8897,22 +8889,22 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
@@ -8921,15 +8913,15 @@
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8940,32 +8932,28 @@
         <v>76</v>
       </c>
       <c r="F59" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="G59" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>78</v>
       </c>
@@ -8977,7 +8965,7 @@
         <v>78</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>78</v>
@@ -9013,22 +9001,22 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>265</v>
+        <v>421</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
@@ -9037,7 +9025,7 @@
         <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -9045,36 +9033,36 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>78</v>
+        <v>424</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>420</v>
+        <v>84</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9089,7 +9077,7 @@
         <v>78</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>78</v>
@@ -9125,22 +9113,22 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
@@ -9149,7 +9137,7 @@
         <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -9157,38 +9145,40 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G61" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>78</v>
@@ -9201,7 +9191,7 @@
         <v>78</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>78</v>
@@ -9237,22 +9227,22 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
@@ -9261,7 +9251,7 @@
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9269,40 +9259,38 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G62" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>78</v>
@@ -9315,7 +9303,7 @@
         <v>78</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>440</v>
+        <v>78</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>78</v>
@@ -9351,22 +9339,22 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
@@ -9375,7 +9363,7 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9383,36 +9371,36 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G63" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9427,7 +9415,7 @@
         <v>78</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>78</v>
+        <v>451</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>78</v>
@@ -9463,22 +9451,22 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
@@ -9487,7 +9475,7 @@
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9495,38 +9483,40 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>452</v>
+        <v>78</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G64" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G64" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>78</v>
@@ -9539,7 +9529,7 @@
         <v>78</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>455</v>
+        <v>78</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>78</v>
@@ -9575,22 +9565,22 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
@@ -9599,15 +9589,15 @@
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9618,30 +9608,30 @@
         <v>76</v>
       </c>
       <c r="F65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G65" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9653,7 +9643,7 @@
         <v>78</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>78</v>
+        <v>466</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>78</v>
@@ -9689,22 +9679,22 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>464</v>
+        <v>294</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
@@ -9713,7 +9703,7 @@
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9721,7 +9711,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9732,7 +9722,7 @@
         <v>76</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>78</v>
@@ -9741,20 +9731,20 @@
         <v>78</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>78</v>
@@ -9767,7 +9757,7 @@
         <v>78</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>470</v>
+        <v>78</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>78</v>
@@ -9779,13 +9769,13 @@
         <v>78</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>78</v>
+        <v>473</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>78</v>
+        <v>474</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>78</v>
@@ -9803,31 +9793,31 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>300</v>
+        <v>475</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>78</v>
+        <v>476</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9835,7 +9825,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9858,17 +9848,19 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>181</v>
+        <v>479</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="N67" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>78</v>
@@ -9893,55 +9885,55 @@
         <v>78</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>477</v>
+        <v>78</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE67" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>480</v>
+        <v>157</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9949,7 +9941,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9972,19 +9964,19 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>78</v>
@@ -10033,39 +10025,39 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10076,10 +10068,10 @@
         <v>76</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -10088,19 +10080,19 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>78</v>
@@ -10149,7 +10141,7 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -10161,27 +10153,27 @@
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>97</v>
+        <v>500</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>497</v>
+        <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10192,10 +10184,10 @@
         <v>76</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -10204,20 +10196,16 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>499</v>
+        <v>153</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>500</v>
+        <v>154</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>78</v>
       </c>
@@ -10265,25 +10253,25 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>498</v>
+        <v>156</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>504</v>
+        <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>505</v>
+        <v>157</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>78</v>
@@ -10297,18 +10285,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>78</v>
@@ -10320,15 +10308,17 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>78</v>
@@ -10383,16 +10373,16 @@
         <v>76</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
@@ -10409,11 +10399,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>143</v>
+        <v>505</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10426,24 +10416,26 @@
         <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>166</v>
+        <v>506</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>167</v>
+        <v>507</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10491,7 +10483,7 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>169</v>
+        <v>508</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
@@ -10503,10 +10495,10 @@
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
@@ -10521,32 +10513,32 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>509</v>
+        <v>78</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>510</v>
@@ -10554,11 +10546,9 @@
       <c r="L73" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M73" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>147</v>
+        <v>512</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>78</v>
@@ -10568,7 +10558,7 @@
         <v>78</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>78</v>
+        <v>513</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>78</v>
@@ -10583,13 +10573,13 @@
         <v>78</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>78</v>
+        <v>514</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>78</v>
+        <v>515</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>78</v>
@@ -10607,7 +10597,7 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
@@ -10619,19 +10609,19 @@
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>128</v>
+        <v>516</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>78</v>
+        <v>517</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10639,7 +10629,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10647,14 +10637,14 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G74" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G74" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
       </c>
@@ -10662,17 +10652,17 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>78</v>
@@ -10682,7 +10672,7 @@
         <v>78</v>
       </c>
       <c r="R74" t="s" s="2">
-        <v>517</v>
+        <v>78</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>78</v>
@@ -10697,63 +10687,63 @@
         <v>78</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE74" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="Y74" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>513</v>
-      </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>520</v>
+        <v>238</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10761,13 +10751,13 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
@@ -10776,17 +10766,19 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>239</v>
+        <v>297</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>525</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="N75" t="s" s="2">
-        <v>525</v>
+        <v>301</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>78</v>
@@ -10835,31 +10827,31 @@
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>244</v>
+        <v>302</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10867,7 +10859,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10878,7 +10870,7 @@
         <v>76</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>78</v>
@@ -10890,19 +10882,17 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>303</v>
+        <v>378</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="M76" t="s" s="2">
         <v>530</v>
       </c>
+      <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>307</v>
+        <v>531</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>78</v>
@@ -10951,31 +10941,31 @@
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>308</v>
+        <v>383</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10983,7 +10973,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10994,7 +10984,7 @@
         <v>76</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>78</v>
@@ -11006,10 +10996,10 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>382</v>
+        <v>104</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>533</v>
+        <v>350</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>534</v>
@@ -11041,13 +11031,13 @@
         <v>78</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>78</v>
+        <v>354</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>78</v>
+        <v>355</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>78</v>
@@ -11065,25 +11055,25 @@
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>78</v>
@@ -11120,17 +11110,17 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>354</v>
+        <v>538</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>78</v>
@@ -11155,13 +11145,13 @@
         <v>78</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>358</v>
+        <v>78</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>359</v>
+        <v>78</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>78</v>
@@ -11185,25 +11175,25 @@
         <v>76</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>78</v>
+        <v>541</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>360</v>
+        <v>542</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11211,7 +11201,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11234,18 +11224,16 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="M79" s="2"/>
-      <c r="N79" t="s" s="2">
-        <v>544</v>
-      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>78</v>
       </c>
@@ -11293,31 +11281,31 @@
         <v>78</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>545</v>
+        <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>547</v>
+        <v>78</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11336,7 +11324,7 @@
         <v>76</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>78</v>
@@ -11348,7 +11336,7 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>209</v>
+        <v>495</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>549</v>
@@ -11356,8 +11344,12 @@
       <c r="L80" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+      <c r="M80" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>78</v>
       </c>
@@ -11411,19 +11403,19 @@
         <v>76</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>164</v>
+        <v>554</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>78</v>
@@ -11437,7 +11429,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11448,7 +11440,7 @@
         <v>76</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>78</v>
@@ -11460,20 +11452,16 @@
         <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>499</v>
+        <v>153</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>553</v>
+        <v>154</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>556</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11521,25 +11509,25 @@
         <v>78</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>552</v>
+        <v>156</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>557</v>
+        <v>157</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>558</v>
+        <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>78</v>
@@ -11553,18 +11541,18 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>78</v>
@@ -11576,15 +11564,17 @@
         <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>78</v>
@@ -11639,16 +11629,16 @@
         <v>76</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
@@ -11665,11 +11655,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>143</v>
+        <v>505</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11682,24 +11672,26 @@
         <v>78</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>166</v>
+        <v>506</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>167</v>
+        <v>507</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>78</v>
       </c>
@@ -11747,7 +11739,7 @@
         <v>78</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>169</v>
+        <v>508</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>76</v>
@@ -11759,10 +11751,10 @@
         <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
@@ -11779,42 +11771,42 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>509</v>
+        <v>78</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>510</v>
+        <v>559</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>146</v>
+        <v>561</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>147</v>
+        <v>562</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>78</v>
@@ -11839,13 +11831,13 @@
         <v>78</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>78</v>
@@ -11863,31 +11855,31 @@
         <v>78</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>512</v>
+        <v>558</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>128</v>
+        <v>563</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>78</v>
+        <v>564</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>78</v>
+        <v>565</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -11895,7 +11887,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11903,10 +11895,10 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>78</v>
@@ -11918,19 +11910,19 @@
         <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>78</v>
@@ -11955,13 +11947,13 @@
         <v>78</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>78</v>
@@ -11979,31 +11971,31 @@
         <v>78</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -12011,18 +12003,18 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>78</v>
+        <v>575</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>78</v>
@@ -12034,20 +12026,18 @@
         <v>78</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>230</v>
+        <v>576</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>78</v>
       </c>
@@ -12095,31 +12085,31 @@
         <v>78</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>576</v>
+        <v>157</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12127,11 +12117,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>579</v>
+        <v>78</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12147,21 +12137,23 @@
         <v>78</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>580</v>
+        <v>210</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>78</v>
       </c>
@@ -12209,31 +12201,31 @@
         <v>78</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>584</v>
+        <v>542</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>164</v>
+        <v>587</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>585</v>
+        <v>78</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12241,7 +12233,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12258,25 +12250,25 @@
         <v>78</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>216</v>
+        <v>495</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>78</v>
@@ -12325,25 +12317,25 @@
         <v>78</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>546</v>
+        <v>593</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>591</v>
+        <v>157</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>78</v>
@@ -12357,7 +12349,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12368,32 +12360,28 @@
         <v>76</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>499</v>
+        <v>153</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>593</v>
+        <v>154</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>596</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>78</v>
       </c>
@@ -12441,25 +12429,25 @@
         <v>78</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>592</v>
+        <v>156</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>597</v>
+        <v>157</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>78</v>
@@ -12473,18 +12461,18 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>78</v>
@@ -12496,15 +12484,17 @@
         <v>78</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>78</v>
@@ -12559,16 +12549,16 @@
         <v>76</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
@@ -12585,11 +12575,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>143</v>
+        <v>505</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12602,24 +12592,26 @@
         <v>78</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>166</v>
+        <v>506</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>167</v>
+        <v>507</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>78</v>
       </c>
@@ -12667,7 +12659,7 @@
         <v>78</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>169</v>
+        <v>508</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>76</v>
@@ -12679,10 +12671,10 @@
         <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
@@ -12699,43 +12691,41 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>509</v>
+        <v>78</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>130</v>
+        <v>598</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>510</v>
+        <v>599</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>511</v>
+        <v>600</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>78</v>
       </c>
@@ -12783,31 +12773,31 @@
         <v>78</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>512</v>
+        <v>597</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>78</v>
+        <v>602</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -12815,7 +12805,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12823,32 +12813,30 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I93" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F93" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J93" t="s" s="2">
-        <v>602</v>
+        <v>104</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="M93" t="s" s="2">
         <v>605</v>
       </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>78</v>
@@ -12873,13 +12861,13 @@
         <v>78</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>78</v>
+        <v>605</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>78</v>
+        <v>606</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>78</v>
@@ -12897,150 +12885,38 @@
         <v>78</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>156</v>
+        <v>607</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>606</v>
+        <v>78</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN94" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN94">
+  <autoFilter ref="A1:AN93">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13050,7 +12926,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI93">
+  <conditionalFormatting sqref="A2:AI92">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pmi-patient.xlsx
+++ b/StructureDefinition-pmi-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$101</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3686" uniqueCount="649">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T03:28:19+00:00</t>
+    <t>2022-11-18T05:07:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -309,17 +309,194 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t>Patient.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Patient.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Patient.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>Patient.implicitRules</t>
+    <t>Patient.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Patient.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Reference to the contained Provenance</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Patient.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Patient.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Patient.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Patient.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -393,17 +570,24 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Provenance
+    <t>Provenance
+Organization</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profile:type}
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>closed</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -415,28 +599,10 @@
     <t>Patient.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -475,9 +641,6 @@
 </t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -493,39 +656,7 @@
     <t>Patient.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Patient.identifier.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Patient.identifier.use</t>
@@ -575,9 +706,6 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
@@ -2236,7 +2364,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN93"/>
+  <dimension ref="A1:AN101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2268,7 +2396,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -2729,7 +2857,7 @@
         <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2749,7 +2877,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2766,23 +2894,21 @@
         <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>78</v>
@@ -2831,7 +2957,7 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
@@ -2843,10 +2969,10 @@
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>78</v>
@@ -2863,18 +2989,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2921,28 +3047,28 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>111</v>
@@ -2951,16 +3077,16 @@
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -2977,11 +3103,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2997,19 +3123,19 @@
         <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3059,7 +3185,7 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
@@ -3071,31 +3197,31 @@
         <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" hidden="true">
+      <c r="A8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3105,25 +3231,25 @@
         <v>84</v>
       </c>
       <c r="G8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3173,22 +3299,22 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
@@ -3203,41 +3329,41 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3287,22 +3413,22 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -3319,11 +3445,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3336,26 +3462,24 @@
         <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="I10" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>78</v>
       </c>
@@ -3403,7 +3527,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -3415,10 +3539,10 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -3435,7 +3559,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3446,10 +3570,10 @@
         <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
@@ -3458,18 +3582,18 @@
         <v>85</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>78</v>
       </c>
@@ -3493,29 +3617,31 @@
         <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AB11" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AC11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -3527,19 +3653,19 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>78</v>
@@ -3547,7 +3673,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3558,7 +3684,7 @@
         <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>78</v>
@@ -3567,18 +3693,20 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>78</v>
@@ -3603,13 +3731,13 @@
         <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>78</v>
@@ -3627,22 +3755,22 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -3659,39 +3787,39 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3729,34 +3857,34 @@
         <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -3773,7 +3901,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3790,26 +3918,24 @@
         <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3833,13 +3959,13 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>78</v>
@@ -3857,7 +3983,7 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -3869,10 +3995,10 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -3881,7 +4007,7 @@
         <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3889,11 +4015,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3909,23 +4035,21 @@
         <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3949,13 +4073,13 @@
         <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>78</v>
@@ -3973,7 +4097,7 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>76</v>
@@ -3985,10 +4109,10 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
@@ -3997,7 +4121,7 @@
         <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -4005,43 +4129,41 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>78</v>
       </c>
@@ -4053,7 +4175,7 @@
         <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>78</v>
@@ -4077,34 +4199,32 @@
         <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
@@ -4113,7 +4233,7 @@
         <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -4121,18 +4241,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>78</v>
@@ -4141,19 +4261,19 @@
         <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -4167,7 +4287,7 @@
         <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>78</v>
@@ -4203,22 +4323,22 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
@@ -4227,7 +4347,7 @@
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -4235,39 +4355,43 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>78</v>
       </c>
@@ -4315,22 +4439,22 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
@@ -4339,7 +4463,7 @@
         <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4347,7 +4471,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4358,10 +4482,10 @@
         <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -4370,18 +4494,18 @@
         <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>78</v>
       </c>
@@ -4417,55 +4541,51 @@
         <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4477,27 +4597,25 @@
         <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>98</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4545,31 +4663,31 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4577,18 +4695,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>78</v>
@@ -4600,15 +4718,17 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>78</v>
@@ -4645,34 +4765,34 @@
         <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
@@ -4689,41 +4809,43 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>78</v>
       </c>
@@ -4747,46 +4869,46 @@
         <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
@@ -4795,7 +4917,7 @@
         <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4803,7 +4925,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4820,25 +4942,25 @@
         <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>78</v>
@@ -4848,7 +4970,7 @@
         <v>78</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>78</v>
@@ -4863,13 +4985,13 @@
         <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>78</v>
@@ -4887,7 +5009,7 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -4899,10 +5021,10 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
@@ -4911,7 +5033,7 @@
         <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4919,7 +5041,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>174</v>
+        <v>226</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4942,19 +5064,19 @@
         <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>78</v>
@@ -4964,10 +5086,10 @@
         <v>78</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>78</v>
@@ -4979,13 +5101,13 @@
         <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>78</v>
@@ -5003,7 +5125,7 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -5015,10 +5137,10 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
@@ -5027,7 +5149,7 @@
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -5035,7 +5157,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5043,7 +5165,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>84</v>
@@ -5058,20 +5180,18 @@
         <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>78</v>
       </c>
@@ -5080,10 +5200,10 @@
         <v>78</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>78</v>
@@ -5119,7 +5239,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -5131,10 +5251,10 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
@@ -5143,7 +5263,7 @@
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -5151,7 +5271,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5162,7 +5282,7 @@
         <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>78</v>
@@ -5174,17 +5294,15 @@
         <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>78</v>
@@ -5197,7 +5315,7 @@
         <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>78</v>
@@ -5233,7 +5351,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -5245,10 +5363,10 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
@@ -5257,7 +5375,7 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -5265,7 +5383,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5276,7 +5394,7 @@
         <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>78</v>
@@ -5288,15 +5406,17 @@
         <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>78</v>
@@ -5345,7 +5465,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -5357,10 +5477,10 @@
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
@@ -5369,17 +5489,19 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>208</v>
+        <v>257</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>78</v>
       </c>
@@ -5391,7 +5513,7 @@
         <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -5400,18 +5522,18 @@
         <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>78</v>
       </c>
@@ -5459,31 +5581,31 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5491,7 +5613,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5502,38 +5624,32 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>224</v>
+        <v>97</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>225</v>
+        <v>98</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="P29" t="s" s="2">
-        <v>229</v>
-      </c>
+      <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5577,7 +5693,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -5589,16 +5705,16 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -5607,45 +5723,43 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>234</v>
+        <v>105</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>235</v>
+        <v>106</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>78</v>
       </c>
@@ -5681,19 +5795,19 @@
         <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>232</v>
+        <v>111</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -5705,19 +5819,19 @@
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>238</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>239</v>
+        <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5725,7 +5839,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5742,22 +5856,26 @@
         <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5766,7 +5884,7 @@
         <v>78</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>78</v>
@@ -5781,13 +5899,13 @@
         <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>78</v>
@@ -5805,7 +5923,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -5817,10 +5935,10 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
@@ -5829,7 +5947,7 @@
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5837,18 +5955,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>78</v>
@@ -5857,21 +5975,23 @@
         <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5880,7 +6000,7 @@
         <v>78</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>78</v>
@@ -5895,46 +6015,46 @@
         <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>163</v>
+        <v>224</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -5943,7 +6063,7 @@
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5951,7 +6071,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5959,7 +6079,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>84</v>
@@ -5968,25 +6088,25 @@
         <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>78</v>
@@ -5996,10 +6116,10 @@
         <v>78</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>78</v>
@@ -6011,13 +6131,13 @@
         <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>78</v>
@@ -6035,7 +6155,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -6047,10 +6167,10 @@
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -6059,7 +6179,7 @@
         <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -6067,7 +6187,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6090,20 +6210,18 @@
         <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>78</v>
       </c>
@@ -6115,7 +6233,7 @@
         <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>78</v>
@@ -6151,7 +6269,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -6163,10 +6281,10 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -6175,19 +6293,19 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>262</v>
+        <v>78</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6197,7 +6315,7 @@
         <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -6206,17 +6324,15 @@
         <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>78</v>
@@ -6265,7 +6381,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -6277,10 +6393,10 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -6289,29 +6405,29 @@
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -6320,16 +6436,16 @@
         <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>153</v>
+        <v>251</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6379,22 +6495,22 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -6403,7 +6519,7 @@
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6411,7 +6527,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6422,32 +6538,38 @@
         <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>153</v>
+        <v>265</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="P37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="Q37" t="s" s="2">
         <v>78</v>
       </c>
@@ -6491,39 +6613,39 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6534,10 +6656,10 @@
         <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6546,16 +6668,20 @@
         <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>153</v>
+        <v>274</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6603,7 +6729,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -6615,19 +6741,19 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6635,7 +6761,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6655,21 +6781,19 @@
         <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>203</v>
+        <v>97</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>291</v>
+        <v>99</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>292</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6717,7 +6841,7 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>293</v>
+        <v>100</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -6729,10 +6853,10 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
@@ -6741,19 +6865,19 @@
         <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6763,29 +6887,27 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>298</v>
+        <v>105</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>299</v>
+        <v>106</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6821,19 +6943,19 @@
         <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>296</v>
+        <v>111</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -6845,19 +6967,19 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>302</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6865,7 +6987,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6882,22 +7004,26 @@
         <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>154</v>
+        <v>285</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6906,7 +7032,7 @@
         <v>78</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>78</v>
@@ -6921,13 +7047,13 @@
         <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>78</v>
@@ -6945,7 +7071,7 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>156</v>
+        <v>291</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -6957,10 +7083,10 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>157</v>
+        <v>292</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
@@ -6969,7 +7095,7 @@
         <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>78</v>
+        <v>293</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6977,7 +7103,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6997,19 +7123,23 @@
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>78</v>
       </c>
@@ -7045,34 +7175,34 @@
         <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>163</v>
+        <v>299</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
@@ -7081,7 +7211,7 @@
         <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -7089,13 +7219,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7111,18 +7239,20 @@
         <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>310</v>
+        <v>97</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>78</v>
@@ -7171,22 +7301,22 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>163</v>
+        <v>307</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
@@ -7195,29 +7325,29 @@
         <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -7226,15 +7356,17 @@
         <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>78</v>
@@ -7259,55 +7391,55 @@
         <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="Y44" t="s" s="2">
+      <c r="AK44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7315,7 +7447,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7326,7 +7458,7 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>78</v>
@@ -7338,20 +7470,16 @@
         <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7399,22 +7527,22 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
@@ -7423,7 +7551,7 @@
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7431,7 +7559,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7442,32 +7570,28 @@
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7491,13 +7615,13 @@
         <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>78</v>
@@ -7515,22 +7639,22 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>251</v>
+        <v>328</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
@@ -7539,7 +7663,7 @@
         <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7547,7 +7671,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7570,18 +7694,18 @@
         <v>85</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>340</v>
+        <v>244</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7629,7 +7753,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7641,10 +7765,10 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>157</v>
+        <v>335</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -7653,15 +7777,15 @@
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>157</v>
+        <v>336</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7672,10 +7796,10 @@
         <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7684,16 +7808,20 @@
         <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>203</v>
+        <v>338</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7741,31 +7869,31 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>127</v>
+        <v>345</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7773,7 +7901,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7784,7 +7912,7 @@
         <v>76</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
@@ -7793,23 +7921,19 @@
         <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>350</v>
+        <v>98</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7833,13 +7957,13 @@
         <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>354</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>355</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>78</v>
@@ -7857,7 +7981,7 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>349</v>
+        <v>100</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7869,27 +7993,27 @@
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>356</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>358</v>
+        <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7903,29 +8027,25 @@
         <v>84</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>360</v>
+        <v>104</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7961,53 +8081,55 @@
         <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>359</v>
+        <v>111</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>365</v>
+        <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>366</v>
+        <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>368</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="C51" t="s" s="2">
         <v>78</v>
       </c>
@@ -8022,26 +8144,22 @@
         <v>85</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>78</v>
       </c>
@@ -8089,39 +8207,39 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>369</v>
+        <v>111</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>375</v>
+        <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8132,10 +8250,10 @@
         <v>76</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -8144,20 +8262,16 @@
         <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>378</v>
+        <v>160</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>78</v>
       </c>
@@ -8181,13 +8295,13 @@
         <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>78</v>
+        <v>358</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>78</v>
@@ -8205,31 +8319,31 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>384</v>
+        <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -8237,7 +8351,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8257,19 +8371,23 @@
         <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>154</v>
+        <v>364</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8317,7 +8435,7 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>156</v>
+        <v>368</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -8329,10 +8447,10 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>157</v>
+        <v>369</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
@@ -8341,7 +8459,7 @@
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>78</v>
+        <v>370</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8349,7 +8467,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8366,22 +8484,26 @@
         <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>307</v>
+        <v>372</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8405,46 +8527,46 @@
         <v>78</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>78</v>
+        <v>376</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>78</v>
+        <v>377</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>163</v>
+        <v>378</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
@@ -8453,19 +8575,17 @@
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>78</v>
+        <v>379</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8477,24 +8597,26 @@
         <v>84</v>
       </c>
       <c r="G55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>310</v>
+        <v>381</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>311</v>
+        <v>382</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>78</v>
@@ -8543,22 +8665,22 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>163</v>
+        <v>385</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
@@ -8567,15 +8689,15 @@
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8583,35 +8705,31 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8620,10 +8738,10 @@
         <v>78</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>394</v>
+        <v>78</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>394</v>
+        <v>78</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>78</v>
@@ -8635,13 +8753,13 @@
         <v>78</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>395</v>
+        <v>78</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>396</v>
+        <v>78</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>78</v>
@@ -8659,7 +8777,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -8671,10 +8789,10 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>251</v>
+        <v>335</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
@@ -8683,7 +8801,7 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>398</v>
+        <v>185</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8691,7 +8809,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8702,7 +8820,7 @@
         <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>78</v>
@@ -8714,18 +8832,20 @@
         <v>85</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8737,7 +8857,7 @@
         <v>78</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>403</v>
+        <v>78</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>78</v>
@@ -8749,13 +8869,13 @@
         <v>78</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>78</v>
@@ -8773,7 +8893,7 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -8785,27 +8905,27 @@
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>251</v>
+        <v>397</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>78</v>
+        <v>398</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8819,7 +8939,7 @@
         <v>84</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8828,19 +8948,19 @@
         <v>85</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>153</v>
+        <v>401</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>257</v>
+        <v>405</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>78</v>
@@ -8853,7 +8973,7 @@
         <v>78</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>412</v>
+        <v>78</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>78</v>
@@ -8889,7 +9009,7 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -8901,27 +9021,27 @@
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>259</v>
+        <v>406</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>78</v>
+        <v>407</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>78</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8932,28 +9052,32 @@
         <v>76</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>416</v>
+        <v>84</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>153</v>
+        <v>411</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>78</v>
       </c>
@@ -8965,7 +9089,7 @@
         <v>78</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>419</v>
+        <v>78</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>78</v>
@@ -9001,31 +9125,31 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -9033,18 +9157,18 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>424</v>
+        <v>78</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>85</v>
@@ -9056,16 +9180,20 @@
         <v>85</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>153</v>
+        <v>419</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>78</v>
       </c>
@@ -9077,79 +9205,79 @@
         <v>78</v>
       </c>
       <c r="S60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>432</v>
+        <v>78</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9159,26 +9287,24 @@
         <v>84</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>433</v>
+        <v>98</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>78</v>
@@ -9191,7 +9317,7 @@
         <v>78</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>436</v>
+        <v>78</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>78</v>
@@ -9227,7 +9353,7 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>437</v>
+        <v>100</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
@@ -9239,10 +9365,10 @@
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>438</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
@@ -9251,19 +9377,19 @@
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>439</v>
+        <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>441</v>
+        <v>78</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9273,22 +9399,22 @@
         <v>84</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>442</v>
+        <v>348</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>443</v>
+        <v>349</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9327,34 +9453,34 @@
         <v>78</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>444</v>
+        <v>111</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>445</v>
+        <v>78</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
@@ -9363,7 +9489,7 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>446</v>
+        <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9371,11 +9497,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B63" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="C63" t="s" s="2">
-        <v>448</v>
+        <v>78</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9391,16 +9519,16 @@
         <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>153</v>
+        <v>351</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>449</v>
+        <v>352</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>450</v>
+        <v>353</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9415,7 +9543,7 @@
         <v>78</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>78</v>
@@ -9451,22 +9579,22 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>452</v>
+        <v>111</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>453</v>
+        <v>78</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
@@ -9475,7 +9603,7 @@
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>454</v>
+        <v>78</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9483,7 +9611,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9491,7 +9619,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>84</v>
@@ -9500,24 +9628,26 @@
         <v>85</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9526,10 +9656,10 @@
         <v>78</v>
       </c>
       <c r="R64" t="s" s="2">
-        <v>78</v>
+        <v>435</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>78</v>
+        <v>435</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>78</v>
@@ -9541,13 +9671,13 @@
         <v>78</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>78</v>
+        <v>436</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>78</v>
+        <v>437</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>78</v>
@@ -9565,7 +9695,7 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -9577,10 +9707,10 @@
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>460</v>
+        <v>292</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
@@ -9589,7 +9719,7 @@
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9597,7 +9727,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9620,18 +9750,18 @@
         <v>85</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9643,7 +9773,7 @@
         <v>78</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>78</v>
@@ -9655,13 +9785,13 @@
         <v>78</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>78</v>
+        <v>445</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>78</v>
+        <v>446</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>78</v>
@@ -9679,7 +9809,7 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -9691,10 +9821,10 @@
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
@@ -9703,7 +9833,7 @@
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9711,7 +9841,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9722,7 +9852,7 @@
         <v>76</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>78</v>
@@ -9731,20 +9861,22 @@
         <v>78</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="N66" t="s" s="2">
-        <v>472</v>
+        <v>298</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>78</v>
@@ -9757,7 +9889,7 @@
         <v>78</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>78</v>
+        <v>453</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>78</v>
@@ -9769,13 +9901,13 @@
         <v>78</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>473</v>
+        <v>78</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>474</v>
+        <v>78</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>78</v>
@@ -9793,7 +9925,7 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -9805,27 +9937,27 @@
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>475</v>
+        <v>300</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>476</v>
+        <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9836,32 +9968,28 @@
         <v>76</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>76</v>
+        <v>457</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>479</v>
+        <v>97</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9873,7 +10001,7 @@
         <v>78</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>78</v>
+        <v>460</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>78</v>
@@ -9909,75 +10037,71 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>78</v>
+        <v>465</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>487</v>
+        <v>97</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>78</v>
       </c>
@@ -9989,7 +10113,7 @@
         <v>78</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>78</v>
+        <v>468</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>78</v>
@@ -10025,31 +10149,31 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -10057,18 +10181,18 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>78</v>
+        <v>473</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>85</v>
@@ -10077,23 +10201,21 @@
         <v>78</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>495</v>
+        <v>97</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>78</v>
       </c>
@@ -10105,7 +10227,7 @@
         <v>78</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>78</v>
+        <v>477</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>78</v>
@@ -10141,43 +10263,43 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>500</v>
+        <v>118</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>78</v>
+        <v>480</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10187,22 +10309,22 @@
         <v>84</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>154</v>
+        <v>483</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>155</v>
+        <v>484</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10253,7 +10375,7 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>156</v>
+        <v>485</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
@@ -10265,10 +10387,10 @@
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>157</v>
+        <v>486</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
@@ -10277,48 +10399,46 @@
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>78</v>
+        <v>487</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>129</v>
+        <v>489</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>131</v>
+        <v>490</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>78</v>
@@ -10331,7 +10451,7 @@
         <v>78</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>78</v>
+        <v>492</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>78</v>
@@ -10367,22 +10487,22 @@
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>163</v>
+        <v>493</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>157</v>
+        <v>494</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
@@ -10391,51 +10511,49 @@
         <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>78</v>
+        <v>495</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>505</v>
+        <v>78</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10483,22 +10601,22 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>127</v>
+        <v>501</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
@@ -10507,15 +10625,15 @@
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>78</v>
+        <v>502</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10529,26 +10647,26 @@
         <v>84</v>
       </c>
       <c r="G73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I73" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J73" t="s" s="2">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>78</v>
@@ -10558,10 +10676,10 @@
         <v>78</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>513</v>
+        <v>78</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>78</v>
+        <v>507</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>78</v>
@@ -10573,13 +10691,13 @@
         <v>78</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>514</v>
+        <v>78</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>515</v>
+        <v>78</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>78</v>
@@ -10597,39 +10715,39 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="AF73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>517</v>
-      </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10637,13 +10755,13 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10652,17 +10770,17 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>78</v>
@@ -10687,13 +10805,13 @@
         <v>78</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>78</v>
+        <v>514</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>78</v>
+        <v>515</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>78</v>
@@ -10711,7 +10829,7 @@
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -10723,19 +10841,19 @@
         <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>238</v>
+        <v>516</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>157</v>
+        <v>517</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10743,7 +10861,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10754,7 +10872,7 @@
         <v>76</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>78</v>
@@ -10766,19 +10884,19 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>297</v>
+        <v>520</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>78</v>
@@ -10827,31 +10945,31 @@
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>302</v>
+        <v>525</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10859,7 +10977,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10870,7 +10988,7 @@
         <v>76</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>78</v>
@@ -10882,7 +11000,7 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>378</v>
+        <v>528</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>529</v>
@@ -10890,9 +11008,11 @@
       <c r="L76" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M76" s="2"/>
+      <c r="M76" t="s" s="2">
+        <v>531</v>
+      </c>
       <c r="N76" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>78</v>
@@ -10941,39 +11061,39 @@
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>383</v>
+        <v>533</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10984,10 +11104,10 @@
         <v>76</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
@@ -10996,17 +11116,19 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>104</v>
+        <v>536</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>350</v>
+        <v>537</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>538</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="N77" t="s" s="2">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>78</v>
@@ -11031,13 +11153,13 @@
         <v>78</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>354</v>
+        <v>78</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>355</v>
+        <v>78</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>78</v>
@@ -11055,31 +11177,31 @@
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>96</v>
+        <v>541</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>356</v>
+        <v>542</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>536</v>
+        <v>78</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -11087,7 +11209,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11098,7 +11220,7 @@
         <v>76</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>78</v>
@@ -11110,18 +11232,16 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>538</v>
+        <v>98</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>539</v>
+        <v>99</v>
       </c>
       <c r="M78" s="2"/>
-      <c r="N78" t="s" s="2">
-        <v>540</v>
-      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>78</v>
       </c>
@@ -11169,7 +11289,7 @@
         <v>78</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>537</v>
+        <v>100</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>76</v>
@@ -11178,22 +11298,22 @@
         <v>84</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>541</v>
+        <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>542</v>
+        <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>543</v>
+        <v>78</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11205,14 +11325,14 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>78</v>
@@ -11224,15 +11344,17 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>545</v>
+        <v>105</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>78</v>
@@ -11281,25 +11403,25 @@
         <v>78</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>544</v>
+        <v>111</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>547</v>
+        <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>78</v>
@@ -11313,11 +11435,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>78</v>
+        <v>546</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11330,25 +11452,25 @@
         <v>78</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>495</v>
+        <v>104</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>551</v>
+        <v>107</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>552</v>
+        <v>192</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>78</v>
@@ -11397,7 +11519,7 @@
         <v>78</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>76</v>
@@ -11409,13 +11531,13 @@
         <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>553</v>
+        <v>185</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>554</v>
+        <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>78</v>
@@ -11427,9 +11549,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11443,7 +11565,7 @@
         <v>84</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>78</v>
@@ -11452,16 +11574,18 @@
         <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>154</v>
+        <v>551</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>155</v>
+        <v>552</v>
       </c>
       <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>553</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11470,7 +11594,7 @@
         <v>78</v>
       </c>
       <c r="R81" t="s" s="2">
-        <v>78</v>
+        <v>554</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>78</v>
@@ -11485,13 +11609,13 @@
         <v>78</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>78</v>
+        <v>555</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>78</v>
+        <v>556</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>78</v>
@@ -11509,53 +11633,53 @@
         <v>78</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>156</v>
+        <v>550</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>157</v>
+        <v>557</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>78</v>
+        <v>558</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
@@ -11564,18 +11688,18 @@
         <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>130</v>
+        <v>274</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>131</v>
+        <v>560</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>78</v>
       </c>
@@ -11623,31 +11747,31 @@
         <v>78</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>163</v>
+        <v>559</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>157</v>
+        <v>279</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>78</v>
+        <v>563</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11655,11 +11779,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>505</v>
+        <v>78</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11672,25 +11796,25 @@
         <v>78</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>130</v>
+        <v>338</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>506</v>
+        <v>565</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>507</v>
+        <v>566</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>133</v>
+        <v>567</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>139</v>
+        <v>342</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>78</v>
@@ -11739,7 +11863,7 @@
         <v>78</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>508</v>
+        <v>564</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>76</v>
@@ -11751,19 +11875,19 @@
         <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>127</v>
+        <v>343</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>78</v>
+        <v>568</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -11771,7 +11895,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11779,7 +11903,7 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>84</v>
@@ -11794,19 +11918,17 @@
         <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>175</v>
+        <v>419</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>561</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>78</v>
@@ -11831,13 +11953,13 @@
         <v>78</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>78</v>
@@ -11855,10 +11977,10 @@
         <v>78</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>84</v>
@@ -11867,19 +11989,19 @@
         <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>563</v>
+        <v>424</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>564</v>
+        <v>101</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -11887,7 +12009,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11898,7 +12020,7 @@
         <v>76</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>78</v>
@@ -11910,19 +12032,17 @@
         <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>567</v>
+        <v>391</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>569</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>78</v>
@@ -11947,13 +12067,13 @@
         <v>78</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>78</v>
+        <v>396</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>78</v>
@@ -11971,7 +12091,7 @@
         <v>78</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>76</v>
@@ -11983,19 +12103,19 @@
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>571</v>
+        <v>397</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>572</v>
+        <v>101</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -12003,11 +12123,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>575</v>
+        <v>78</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12026,18 +12146,18 @@
         <v>78</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>576</v>
+        <v>251</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>78</v>
       </c>
@@ -12085,31 +12205,31 @@
         <v>78</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>78</v>
+        <v>582</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12117,7 +12237,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12137,23 +12257,19 @@
         <v>78</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>586</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>78</v>
       </c>
@@ -12201,7 +12317,7 @@
         <v>78</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
@@ -12213,13 +12329,13 @@
         <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>542</v>
+        <v>588</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>587</v>
+        <v>101</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>78</v>
@@ -12233,7 +12349,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12244,31 +12360,31 @@
         <v>76</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>495</v>
+        <v>536</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>78</v>
@@ -12317,7 +12433,7 @@
         <v>78</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>76</v>
@@ -12329,13 +12445,13 @@
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>157</v>
+        <v>595</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>78</v>
@@ -12349,7 +12465,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12372,13 +12488,13 @@
         <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12429,7 +12545,7 @@
         <v>78</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>76</v>
@@ -12444,7 +12560,7 @@
         <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
@@ -12461,11 +12577,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12484,16 +12600,16 @@
         <v>78</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12543,7 +12659,7 @@
         <v>78</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>76</v>
@@ -12555,10 +12671,10 @@
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
@@ -12575,11 +12691,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>505</v>
+        <v>546</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12598,19 +12714,19 @@
         <v>85</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>506</v>
+        <v>547</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>507</v>
+        <v>548</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>78</v>
@@ -12659,7 +12775,7 @@
         <v>78</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>508</v>
+        <v>549</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>76</v>
@@ -12671,10 +12787,10 @@
         <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
@@ -12691,7 +12807,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12711,21 +12827,23 @@
         <v>78</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>598</v>
+        <v>217</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>602</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>603</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>78</v>
       </c>
@@ -12749,13 +12867,13 @@
         <v>78</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>78</v>
@@ -12773,7 +12891,7 @@
         <v>78</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>84</v>
@@ -12785,19 +12903,19 @@
         <v>78</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>148</v>
+        <v>604</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>157</v>
+        <v>605</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -12805,7 +12923,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12813,7 +12931,7 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>84</v>
@@ -12825,19 +12943,23 @@
         <v>78</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>104</v>
+        <v>265</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>611</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>78</v>
       </c>
@@ -12861,13 +12983,13 @@
         <v>78</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>605</v>
+        <v>78</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>606</v>
+        <v>78</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>78</v>
@@ -12885,10 +13007,10 @@
         <v>78</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>84</v>
@@ -12897,26 +13019,940 @@
         <v>78</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>157</v>
+        <v>613</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>78</v>
+        <v>614</v>
       </c>
       <c r="AN93" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN101" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN93">
+  <autoFilter ref="A1:AN101">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12926,7 +13962,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI92">
+  <conditionalFormatting sqref="A2:AI100">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pmi-patient.xlsx
+++ b/StructureDefinition-pmi-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$114</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3863" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4271" uniqueCount="660">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T03:49:15+00:00</t>
+    <t>2022-12-10T18:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -895,6 +895,9 @@
     <t>Patient.name</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">HumanName
 </t>
   </si>
@@ -911,6 +914,10 @@
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:use}
+</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -1087,6 +1094,15 @@
     <t>XPN.13 + XPN.14</t>
   </si>
   <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>Family name (often called 'Surname')</t>
+  </si>
+  <si>
+    <t>Nick name for the participant</t>
+  </si>
+  <si>
     <t>Patient.telecom</t>
   </si>
   <si>
@@ -1452,9 +1468,6 @@
   </si>
   <si>
     <t>Patient.address.line</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>Street name, number, direction &amp; P.O. Box etc.</t>
@@ -1905,7 +1918,7 @@
     <t>Patient.communication.language</t>
   </si>
   <si>
-    <t>The language which can be used to communicate with the patient about his or her health</t>
+    <t>Language preference for the participant</t>
   </si>
   <si>
     <t>The ISO-639-1 alpha 2 code in lower case for the language, optionally followed by a hyphen and the ISO-3166-1 alpha 2 code for the region in upper case; e.g. "en" for English, or "en-US" for American English versus "en-EN" for England English.</t>
@@ -1939,6 +1952,9 @@
   </si>
   <si>
     <t>People that master multiple languages up to certain level may prefer one or more, i.e. feel more confident in communicating in a particular language making other languages sort of a fall back method.</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>preferenceInd</t>
@@ -2384,7 +2400,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO103"/>
+  <dimension ref="A1:AO114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7013,7 +7029,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>279</v>
       </c>
@@ -7026,7 +7042,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>85</v>
+        <v>280</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>86</v>
@@ -7038,19 +7054,19 @@
         <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -7087,16 +7103,14 @@
         <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="AE40" t="s" s="2">
         <v>279</v>
@@ -7114,16 +7128,16 @@
         <v>120</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -7132,11 +7146,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>79</v>
       </c>
@@ -7148,25 +7164,29 @@
         <v>85</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>100</v>
+        <v>282</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -7214,31 +7234,31 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>102</v>
+        <v>279</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>287</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7249,18 +7269,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -7272,17 +7292,15 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7319,31 +7337,31 @@
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>103</v>
@@ -7366,43 +7384,41 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>291</v>
+        <v>107</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7411,7 +7427,7 @@
         <v>79</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>79</v>
@@ -7426,46 +7442,46 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>297</v>
+        <v>113</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>298</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
@@ -7474,7 +7490,7 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7485,7 +7501,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7493,7 +7509,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>85</v>
@@ -7502,25 +7518,25 @@
         <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7530,7 +7546,7 @@
         <v>79</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>79</v>
@@ -7545,13 +7561,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7569,7 +7585,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7584,7 +7600,7 @@
         <v>120</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
@@ -7593,7 +7609,7 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7602,13 +7618,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7618,7 +7634,7 @@
         <v>85</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7630,15 +7646,17 @@
         <v>99</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7686,7 +7704,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7701,7 +7719,7 @@
         <v>120</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -7710,7 +7728,7 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7721,18 +7739,18 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>86</v>
@@ -7747,13 +7765,13 @@
         <v>99</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7803,13 +7821,13 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
@@ -7818,7 +7836,7 @@
         <v>120</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
@@ -7827,7 +7845,7 @@
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7836,13 +7854,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7852,7 +7870,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7864,12 +7882,14 @@
         <v>99</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7918,7 +7938,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7933,7 +7953,7 @@
         <v>120</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
@@ -7942,7 +7962,7 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7953,7 +7973,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7979,10 +7999,10 @@
         <v>99</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -8033,7 +8053,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -8048,7 +8068,7 @@
         <v>120</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
@@ -8057,7 +8077,7 @@
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -8066,9 +8086,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8079,10 +8099,10 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -8091,18 +8111,16 @@
         <v>86</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>250</v>
+        <v>99</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>339</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -8150,13 +8168,13 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
@@ -8165,7 +8183,7 @@
         <v>120</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
@@ -8174,7 +8192,7 @@
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -8183,9 +8201,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8196,10 +8214,10 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -8208,19 +8226,17 @@
         <v>86</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -8269,13 +8285,13 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
@@ -8284,16 +8300,16 @@
         <v>120</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -8302,11 +8318,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="C51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8318,25 +8336,29 @@
         <v>85</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>100</v>
+        <v>282</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8384,31 +8406,31 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>102</v>
+        <v>279</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>287</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8419,7 +8441,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>353</v>
+        <v>290</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8442,13 +8464,13 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>354</v>
+        <v>100</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>355</v>
+        <v>101</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8487,34 +8509,34 @@
         <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
@@ -8532,25 +8554,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8559,15 +8579,17 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>357</v>
+        <v>106</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>358</v>
+        <v>107</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8604,16 +8626,16 @@
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>113</v>
@@ -8631,7 +8653,7 @@
         <v>114</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
@@ -8651,7 +8673,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>360</v>
+        <v>292</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8659,7 +8681,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>85</v>
@@ -8668,7 +8690,7 @@
         <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>86</v>
@@ -8677,13 +8699,17 @@
         <v>162</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>361</v>
+        <v>293</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8692,7 +8718,7 @@
         <v>79</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>79</v>
@@ -8710,10 +8736,10 @@
         <v>217</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>364</v>
+        <v>298</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8731,7 +8757,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8740,13 +8766,13 @@
         <v>85</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>367</v>
+        <v>300</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -8755,7 +8781,7 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>368</v>
+        <v>301</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8766,7 +8792,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>369</v>
+        <v>302</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8792,16 +8818,16 @@
         <v>99</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>370</v>
+        <v>303</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>371</v>
+        <v>304</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>372</v>
+        <v>305</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>373</v>
+        <v>306</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8850,7 +8876,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>374</v>
+        <v>307</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8865,7 +8891,7 @@
         <v>120</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
@@ -8874,7 +8900,7 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>376</v>
+        <v>309</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8885,11 +8911,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>377</v>
+        <v>310</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8902,26 +8928,24 @@
         <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8945,13 +8969,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>382</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8969,7 +8993,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>384</v>
+        <v>315</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8984,7 +9008,7 @@
         <v>120</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
@@ -8993,7 +9017,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>385</v>
+        <v>317</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -9002,23 +9026,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>386</v>
+        <v>318</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -9027,16 +9051,16 @@
         <v>86</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>387</v>
+        <v>99</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>389</v>
+        <v>321</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>390</v>
+        <v>322</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9086,13 +9110,13 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>391</v>
+        <v>323</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>79</v>
@@ -9101,7 +9125,7 @@
         <v>120</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>103</v>
+        <v>324</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -9110,7 +9134,7 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>103</v>
+        <v>325</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -9121,7 +9145,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>392</v>
+        <v>326</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9132,7 +9156,7 @@
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -9144,13 +9168,13 @@
         <v>86</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>250</v>
+        <v>99</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>393</v>
+        <v>327</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>394</v>
+        <v>328</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -9201,13 +9225,13 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>395</v>
+        <v>329</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
@@ -9216,7 +9240,7 @@
         <v>120</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -9225,7 +9249,7 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>187</v>
+        <v>331</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9236,7 +9260,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9247,7 +9271,7 @@
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>79</v>
@@ -9259,20 +9283,16 @@
         <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9296,13 +9316,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9320,13 +9340,13 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>396</v>
+        <v>335</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
@@ -9335,16 +9355,16 @@
         <v>120</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>403</v>
+        <v>336</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>404</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>405</v>
+        <v>337</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9353,9 +9373,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>406</v>
+        <v>338</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9369,7 +9389,7 @@
         <v>85</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9378,19 +9398,17 @@
         <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>407</v>
+        <v>250</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>408</v>
+        <v>339</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>411</v>
+        <v>341</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9439,7 +9457,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>406</v>
+        <v>342</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9454,19 +9472,19 @@
         <v>120</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>412</v>
+        <v>343</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>414</v>
+        <v>344</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
@@ -9474,7 +9492,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>416</v>
+        <v>348</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9485,31 +9503,31 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>418</v>
+        <v>350</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>419</v>
+        <v>351</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>420</v>
+        <v>352</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>421</v>
+        <v>353</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9558,13 +9576,13 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>416</v>
+        <v>348</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
@@ -9573,16 +9591,16 @@
         <v>120</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>422</v>
+        <v>354</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>103</v>
+        <v>355</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>423</v>
+        <v>356</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9591,9 +9609,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>424</v>
+        <v>357</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9604,32 +9622,28 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>425</v>
+        <v>99</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>426</v>
+        <v>100</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9677,31 +9691,31 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>424</v>
+        <v>102</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>430</v>
+        <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9712,7 +9726,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>433</v>
+        <v>358</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9735,13 +9749,13 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>100</v>
+        <v>359</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>101</v>
+        <v>360</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9780,34 +9794,34 @@
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
@@ -9825,11 +9839,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B64" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="C64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9841,7 +9857,7 @@
         <v>85</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9850,13 +9866,13 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>106</v>
+        <v>362</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9895,16 +9911,16 @@
         <v>79</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>113</v>
@@ -9940,13 +9956,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9958,22 +9972,22 @@
         <v>85</v>
       </c>
       <c r="G65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J65" t="s" s="2">
-        <v>357</v>
+        <v>162</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10000,13 +10014,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -10024,22 +10038,22 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>113</v>
+        <v>370</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
@@ -10048,7 +10062,7 @@
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -10057,9 +10071,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>436</v>
+        <v>374</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10067,34 +10081,34 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>437</v>
+        <v>375</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>438</v>
+        <v>376</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>439</v>
+        <v>377</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>440</v>
+        <v>378</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -10104,10 +10118,10 @@
         <v>79</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>79</v>
@@ -10119,13 +10133,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -10143,7 +10157,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>444</v>
+        <v>379</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -10158,7 +10172,7 @@
         <v>120</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
@@ -10167,7 +10181,7 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>445</v>
+        <v>381</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -10178,7 +10192,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>446</v>
+        <v>382</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10195,7 +10209,7 @@
         <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>86</v>
@@ -10204,15 +10218,17 @@
         <v>162</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>447</v>
+        <v>383</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>448</v>
+        <v>384</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
@@ -10224,7 +10240,7 @@
         <v>79</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>79</v>
@@ -10239,10 +10255,10 @@
         <v>217</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>452</v>
+        <v>388</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -10260,7 +10276,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>453</v>
+        <v>389</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10275,7 +10291,7 @@
         <v>120</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
@@ -10284,7 +10300,7 @@
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>454</v>
+        <v>390</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10295,7 +10311,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>455</v>
+        <v>391</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10318,20 +10334,18 @@
         <v>86</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>99</v>
+        <v>392</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>456</v>
+        <v>393</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>457</v>
+        <v>394</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10343,7 +10357,7 @@
         <v>79</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>79</v>
@@ -10379,7 +10393,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>460</v>
+        <v>396</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10394,7 +10408,7 @@
         <v>120</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>306</v>
+        <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -10403,7 +10417,7 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>461</v>
+        <v>103</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10412,9 +10426,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>462</v>
+        <v>397</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10425,10 +10439,10 @@
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10437,13 +10451,13 @@
         <v>86</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>99</v>
+        <v>250</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>464</v>
+        <v>398</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>465</v>
+        <v>399</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10458,7 +10472,7 @@
         <v>79</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>466</v>
+        <v>79</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>79</v>
@@ -10494,13 +10508,13 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
@@ -10509,7 +10523,7 @@
         <v>120</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>468</v>
+        <v>343</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
@@ -10518,7 +10532,7 @@
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>469</v>
+        <v>187</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10527,23 +10541,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>470</v>
+        <v>401</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>471</v>
+        <v>79</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10552,16 +10566,20 @@
         <v>86</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>472</v>
+        <v>402</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10573,7 +10591,7 @@
         <v>79</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>474</v>
+        <v>79</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>79</v>
@@ -10585,13 +10603,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10609,7 +10627,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>475</v>
+        <v>401</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10624,16 +10642,16 @@
         <v>120</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>476</v>
+        <v>408</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>477</v>
+        <v>410</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10644,11 +10662,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>478</v>
+        <v>411</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10667,18 +10685,20 @@
         <v>86</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>99</v>
+        <v>412</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>480</v>
+        <v>413</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>481</v>
+        <v>414</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10690,7 +10710,7 @@
         <v>79</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>79</v>
@@ -10726,7 +10746,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>484</v>
+        <v>411</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10741,19 +10761,19 @@
         <v>120</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>485</v>
+        <v>417</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>486</v>
+        <v>419</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
@@ -10761,11 +10781,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>487</v>
+        <v>421</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10778,22 +10798,26 @@
         <v>86</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>99</v>
+        <v>422</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>489</v>
+        <v>423</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10841,7 +10865,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>491</v>
+        <v>421</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10856,16 +10880,16 @@
         <v>120</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>492</v>
+        <v>427</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>493</v>
+        <v>428</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10876,18 +10900,18 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>494</v>
+        <v>429</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>86</v>
@@ -10899,16 +10923,20 @@
         <v>86</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>99</v>
+        <v>430</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>496</v>
+        <v>431</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10920,7 +10948,7 @@
         <v>79</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>79</v>
@@ -10956,13 +10984,13 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>499</v>
+        <v>429</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
@@ -10971,16 +10999,16 @@
         <v>120</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>500</v>
+        <v>435</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>501</v>
+        <v>437</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10989,9 +11017,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>502</v>
+        <v>438</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11005,26 +11033,24 @@
         <v>85</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>503</v>
+        <v>100</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>505</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -11073,7 +11099,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>506</v>
+        <v>102</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -11085,10 +11111,10 @@
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>507</v>
+        <v>103</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
@@ -11097,7 +11123,7 @@
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -11108,7 +11134,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>509</v>
+        <v>439</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11128,21 +11154,19 @@
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>510</v>
+        <v>359</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>511</v>
+        <v>360</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>512</v>
-      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
@@ -11154,7 +11178,7 @@
         <v>79</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>79</v>
@@ -11178,34 +11202,34 @@
         <v>79</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>514</v>
+        <v>113</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
@@ -11214,7 +11238,7 @@
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>515</v>
+        <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -11223,11 +11247,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B76" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="C76" t="s" s="2">
         <v>79</v>
       </c>
@@ -11236,10 +11262,10 @@
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -11248,18 +11274,16 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>223</v>
+        <v>362</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>517</v>
+        <v>363</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>518</v>
+        <v>364</v>
       </c>
       <c r="M76" s="2"/>
-      <c r="N76" t="s" s="2">
-        <v>519</v>
-      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
@@ -11283,13 +11307,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>520</v>
+        <v>79</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>521</v>
+        <v>79</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -11307,31 +11331,31 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>516</v>
+        <v>113</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>522</v>
+        <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>523</v>
+        <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>524</v>
+        <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11340,9 +11364,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>525</v>
+        <v>441</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11350,34 +11374,34 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>526</v>
+        <v>162</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>527</v>
+        <v>442</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>528</v>
+        <v>443</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>529</v>
+        <v>444</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>530</v>
+        <v>445</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11387,10 +11411,10 @@
         <v>79</v>
       </c>
       <c r="R77" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>79</v>
@@ -11402,13 +11426,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11426,7 +11450,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>525</v>
+        <v>449</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11441,16 +11465,16 @@
         <v>120</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>531</v>
+        <v>300</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>532</v>
+        <v>450</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11461,7 +11485,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>533</v>
+        <v>451</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11472,7 +11496,7 @@
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>79</v>
@@ -11481,23 +11505,21 @@
         <v>79</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>534</v>
+        <v>162</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>535</v>
+        <v>452</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>536</v>
+        <v>453</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
       </c>
@@ -11509,7 +11531,7 @@
         <v>79</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>79</v>
@@ -11521,13 +11543,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11545,13 +11567,13 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>533</v>
+        <v>458</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
@@ -11560,16 +11582,16 @@
         <v>120</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>539</v>
+        <v>300</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>540</v>
+        <v>459</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11578,9 +11600,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>541</v>
+        <v>460</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11591,31 +11613,31 @@
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J79" t="s" s="2">
-        <v>542</v>
+        <v>99</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>543</v>
+        <v>461</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>544</v>
+        <v>462</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>545</v>
+        <v>463</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>546</v>
+        <v>306</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11628,7 +11650,7 @@
         <v>79</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>79</v>
@@ -11664,31 +11686,31 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>547</v>
+        <v>120</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>548</v>
+        <v>308</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11697,9 +11719,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>549</v>
+        <v>467</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11710,25 +11732,25 @@
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>85</v>
+        <v>280</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>100</v>
+        <v>468</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>101</v>
+        <v>469</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11743,7 +11765,7 @@
         <v>79</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>79</v>
@@ -11779,22 +11801,22 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>102</v>
+        <v>471</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>103</v>
+        <v>472</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
@@ -11803,7 +11825,7 @@
         <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11812,42 +11834,40 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>550</v>
+        <v>474</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>105</v>
+        <v>475</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>107</v>
+        <v>476</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11860,7 +11880,7 @@
         <v>79</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>79</v>
+        <v>478</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>79</v>
@@ -11896,22 +11916,22 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>113</v>
+        <v>479</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>103</v>
+        <v>480</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
@@ -11920,7 +11940,7 @@
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>79</v>
+        <v>481</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11929,45 +11949,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>551</v>
+        <v>482</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>552</v>
+        <v>483</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>553</v>
+        <v>484</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>554</v>
+        <v>485</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
       </c>
@@ -11979,7 +11997,7 @@
         <v>79</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>79</v>
@@ -12015,22 +12033,22 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>555</v>
+        <v>488</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>187</v>
+        <v>489</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
@@ -12039,7 +12057,7 @@
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -12050,11 +12068,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>556</v>
+        <v>491</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -12070,21 +12088,19 @@
         <v>79</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>223</v>
+        <v>99</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>557</v>
+        <v>493</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>558</v>
+        <v>494</v>
       </c>
       <c r="M83" s="2"/>
-      <c r="N83" t="s" s="2">
-        <v>559</v>
-      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
       </c>
@@ -12093,7 +12109,7 @@
         <v>79</v>
       </c>
       <c r="R83" t="s" s="2">
-        <v>560</v>
+        <v>79</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>79</v>
@@ -12108,13 +12124,13 @@
         <v>79</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>561</v>
+        <v>79</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>562</v>
+        <v>79</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -12132,13 +12148,13 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>556</v>
+        <v>495</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>79</v>
@@ -12147,16 +12163,16 @@
         <v>120</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>563</v>
+        <v>496</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>564</v>
+        <v>497</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -12167,15 +12183,15 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>565</v>
+        <v>498</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>85</v>
@@ -12187,21 +12203,19 @@
         <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>280</v>
+        <v>99</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>566</v>
+        <v>500</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>567</v>
+        <v>501</v>
       </c>
       <c r="M84" s="2"/>
-      <c r="N84" t="s" s="2">
-        <v>568</v>
-      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
       </c>
@@ -12213,7 +12227,7 @@
         <v>79</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>79</v>
+        <v>502</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>79</v>
@@ -12249,7 +12263,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>565</v>
+        <v>503</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12264,16 +12278,16 @@
         <v>120</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>285</v>
+        <v>504</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12282,9 +12296,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>570</v>
+        <v>506</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12295,32 +12309,30 @@
         <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>344</v>
+        <v>99</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>571</v>
+        <v>507</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>572</v>
+        <v>508</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
       </c>
@@ -12368,13 +12380,13 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>79</v>
@@ -12383,16 +12395,16 @@
         <v>120</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>349</v>
+        <v>511</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>574</v>
+        <v>512</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12403,7 +12415,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>575</v>
+        <v>513</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12423,20 +12435,20 @@
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>425</v>
+        <v>250</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>576</v>
+        <v>514</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>577</v>
+        <v>515</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>578</v>
+        <v>516</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12449,7 +12461,7 @@
         <v>79</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>79</v>
@@ -12485,7 +12497,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12500,16 +12512,16 @@
         <v>120</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>430</v>
+        <v>343</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>579</v>
+        <v>519</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12520,7 +12532,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>580</v>
+        <v>520</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12543,17 +12555,17 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>162</v>
+        <v>223</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>397</v>
+        <v>521</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>581</v>
+        <v>522</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>582</v>
+        <v>523</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12578,13 +12590,13 @@
         <v>79</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>401</v>
+        <v>524</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>402</v>
+        <v>525</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>79</v>
@@ -12602,7 +12614,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>580</v>
+        <v>520</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12617,16 +12629,16 @@
         <v>120</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>403</v>
+        <v>526</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>103</v>
+        <v>527</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>583</v>
+        <v>528</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12637,7 +12649,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>584</v>
+        <v>529</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12660,17 +12672,19 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>257</v>
+        <v>530</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>585</v>
+        <v>531</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>532</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="N88" t="s" s="2">
-        <v>587</v>
+        <v>534</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12719,7 +12733,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>584</v>
+        <v>529</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12728,13 +12742,13 @@
         <v>85</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>588</v>
+        <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>589</v>
+        <v>535</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>103</v>
@@ -12743,7 +12757,7 @@
         <v>79</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>590</v>
+        <v>536</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12754,7 +12768,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>591</v>
+        <v>537</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12777,16 +12791,20 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>250</v>
+        <v>538</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>592</v>
+        <v>539</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12834,13 +12852,13 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>591</v>
+        <v>537</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>79</v>
@@ -12849,7 +12867,7 @@
         <v>120</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>594</v>
+        <v>543</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>103</v>
@@ -12858,7 +12876,7 @@
         <v>79</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12867,9 +12885,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
-        <v>595</v>
+        <v>545</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12883,7 +12901,7 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
@@ -12892,19 +12910,19 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>596</v>
+        <v>547</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>597</v>
+        <v>548</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>598</v>
+        <v>549</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>599</v>
+        <v>550</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12953,7 +12971,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>595</v>
+        <v>545</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12965,13 +12983,13 @@
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>120</v>
+        <v>551</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>600</v>
+        <v>552</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>601</v>
+        <v>103</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>79</v>
@@ -12988,7 +13006,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>602</v>
+        <v>553</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13103,7 +13121,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>603</v>
+        <v>554</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13220,11 +13238,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>604</v>
+        <v>555</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -13246,10 +13264,10 @@
         <v>106</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>109</v>
@@ -13304,7 +13322,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13337,9 +13355,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
-        <v>605</v>
+        <v>560</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13347,13 +13365,13 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>79</v>
@@ -13365,16 +13383,14 @@
         <v>223</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>606</v>
+        <v>561</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>608</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" t="s" s="2">
-        <v>609</v>
+        <v>563</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13384,7 +13400,7 @@
         <v>79</v>
       </c>
       <c r="R94" t="s" s="2">
-        <v>79</v>
+        <v>564</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>79</v>
@@ -13399,13 +13415,13 @@
         <v>79</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>167</v>
+        <v>565</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>168</v>
+        <v>566</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>79</v>
@@ -13423,13 +13439,13 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>605</v>
+        <v>560</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
@@ -13438,16 +13454,16 @@
         <v>120</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>610</v>
+        <v>567</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>611</v>
+        <v>103</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>612</v>
+        <v>568</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13456,9 +13472,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
-        <v>613</v>
+        <v>569</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13466,13 +13482,13 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>79</v>
@@ -13481,19 +13497,17 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>614</v>
+        <v>570</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>616</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>617</v>
+        <v>572</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13542,7 +13556,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>613</v>
+        <v>569</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13557,16 +13571,16 @@
         <v>120</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>618</v>
+        <v>287</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>619</v>
+        <v>103</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>620</v>
+        <v>573</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -13575,23 +13589,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
-        <v>621</v>
+        <v>574</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>622</v>
+        <v>79</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>79</v>
@@ -13600,18 +13614,20 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>623</v>
+        <v>349</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>624</v>
+        <v>575</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>625</v>
+        <v>576</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>577</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
       </c>
@@ -13659,7 +13675,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>621</v>
+        <v>574</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13674,7 +13690,7 @@
         <v>120</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>627</v>
+        <v>354</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>103</v>
@@ -13683,7 +13699,7 @@
         <v>79</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13692,9 +13708,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13705,31 +13721,29 @@
         <v>77</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>257</v>
+        <v>430</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>632</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>633</v>
+        <v>582</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>79</v>
@@ -13778,7 +13792,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13793,16 +13807,16 @@
         <v>120</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>589</v>
+        <v>435</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>634</v>
+        <v>103</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>79</v>
+        <v>583</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13813,7 +13827,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>635</v>
+        <v>584</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13830,25 +13844,23 @@
         <v>79</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>542</v>
+        <v>162</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>636</v>
+        <v>402</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>638</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="M98" s="2"/>
       <c r="N98" t="s" s="2">
-        <v>639</v>
+        <v>586</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>79</v>
@@ -13873,13 +13885,13 @@
         <v>79</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>79</v>
@@ -13897,13 +13909,13 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>635</v>
+        <v>584</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>79</v>
@@ -13912,7 +13924,7 @@
         <v>120</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>640</v>
+        <v>408</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>103</v>
@@ -13921,7 +13933,7 @@
         <v>79</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>79</v>
+        <v>587</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
@@ -13932,7 +13944,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>641</v>
+        <v>588</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13943,7 +13955,7 @@
         <v>77</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>79</v>
@@ -13955,16 +13967,18 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>99</v>
+        <v>257</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>100</v>
+        <v>589</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>101</v>
+        <v>590</v>
       </c>
       <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+      <c r="N99" t="s" s="2">
+        <v>591</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
       </c>
@@ -14012,7 +14026,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>102</v>
+        <v>588</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -14021,22 +14035,22 @@
         <v>85</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>79</v>
+        <v>592</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ99" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AK99" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AK99" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AL99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>79</v>
+        <v>594</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>79</v>
@@ -14047,18 +14061,18 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>642</v>
+        <v>595</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>79</v>
@@ -14070,17 +14084,15 @@
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>107</v>
+        <v>596</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>79</v>
@@ -14129,26 +14141,26 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>113</v>
+        <v>595</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AJ100" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AK100" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AK100" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AL100" t="s" s="2">
         <v>79</v>
       </c>
@@ -14162,44 +14174,44 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
-        <v>643</v>
+        <v>599</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>552</v>
+        <v>79</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>106</v>
+        <v>546</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>553</v>
+        <v>600</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>554</v>
+        <v>601</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>109</v>
+        <v>602</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>198</v>
+        <v>603</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>79</v>
@@ -14248,7 +14260,7 @@
         <v>79</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>555</v>
+        <v>599</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -14260,13 +14272,13 @@
         <v>79</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>187</v>
+        <v>604</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>79</v>
+        <v>605</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>79</v>
@@ -14283,7 +14295,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>644</v>
+        <v>606</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14291,7 +14303,7 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>85</v>
@@ -14303,20 +14315,18 @@
         <v>79</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>645</v>
+        <v>99</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>646</v>
+        <v>100</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>648</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>79</v>
@@ -14365,10 +14375,10 @@
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>644</v>
+        <v>102</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>85</v>
@@ -14377,19 +14387,19 @@
         <v>79</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>649</v>
+        <v>79</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>79</v>
@@ -14400,18 +14410,18 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>650</v>
+        <v>607</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>79</v>
@@ -14420,18 +14430,20 @@
         <v>79</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>651</v>
+        <v>107</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="M103" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>79</v>
@@ -14456,65 +14468,1358 @@
         <v>79</v>
       </c>
       <c r="W103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W105" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="X103" t="s" s="2">
+      <c r="X105" s="2"/>
+      <c r="Y105" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO112" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="Y103" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="Z103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="AF103" t="s" s="2">
+      <c r="N113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AF113" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AG103" t="s" s="2">
+      <c r="AG113" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AH103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI103" t="s" s="2">
+      <c r="AH113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI113" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="AJ103" t="s" s="2">
+      <c r="AJ113" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM113" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="AK103" t="s" s="2">
+      <c r="AN113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO113" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AK114" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AL103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO103" t="s" s="2">
+      <c r="AL114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO114" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO103">
+  <autoFilter ref="A1:AO114">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14524,7 +15829,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI102">
+  <conditionalFormatting sqref="A2:AI113">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pmi-patient.xlsx
+++ b/StructureDefinition-pmi-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-10T18:39:43+00:00</t>
+    <t>2022-12-11T04:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pmi-patient.xlsx
+++ b/StructureDefinition-pmi-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4271" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4271" uniqueCount="671">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-11T04:47:01+00:00</t>
+    <t>2022-12-14T04:26:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -296,7 +296,7 @@
     <t>Resource.id</t>
   </si>
   <si>
-    <t>Participant Identified</t>
+    <t>user -&gt; external_id</t>
   </si>
   <si>
     <t>Patient.meta</t>
@@ -429,6 +429,9 @@
     <t>Meta.source</t>
   </si>
   <si>
+    <t>#participant-provenance or #cati-provenance depending on who made the update</t>
+  </si>
+  <si>
     <t>Patient.meta.profile</t>
   </si>
   <si>
@@ -600,6 +603,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>instance of PMIProvenance</t>
   </si>
   <si>
     <t>provenance</t>
@@ -861,6 +867,9 @@
     <t>Social Security Number</t>
   </si>
   <si>
+    <t>user -&gt; ssn</t>
+  </si>
+  <si>
     <t>Patient.active</t>
   </si>
   <si>
@@ -1012,6 +1021,9 @@
     <t>XPN.1/FN.1</t>
   </si>
   <si>
+    <t>user -&gt; last_name</t>
+  </si>
+  <si>
     <t>Patient.name.given</t>
   </si>
   <si>
@@ -1037,6 +1049,9 @@
     <t>XPN.2 + XPN.3</t>
   </si>
   <si>
+    <t>user -&gt; first_name split by space into an array and user -&gt; middle_initial</t>
+  </si>
+  <si>
     <t>Patient.name.prefix</t>
   </si>
   <si>
@@ -1101,6 +1116,9 @@
   </si>
   <si>
     <t>Nick name for the participant</t>
+  </si>
+  <si>
+    <t>user -&gt; preferred_name</t>
   </si>
   <si>
     <t>Patient.telecom</t>
@@ -1184,6 +1202,9 @@
     <t>XTN.3</t>
   </si>
   <si>
+    <t>#phone, #email</t>
+  </si>
+  <si>
     <t>Patient.telecom.value</t>
   </si>
   <si>
@@ -1206,6 +1227,9 @@
   </si>
   <si>
     <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>user -&gt; verified_primary_phone_number, user -&gt; email, user -&gt; alternate_email</t>
   </si>
   <si>
     <t>Patient.telecom.use</t>
@@ -1378,6 +1402,9 @@
   </si>
   <si>
     <t>PID-11</t>
+  </si>
+  <si>
+    <t>user_address</t>
   </si>
   <si>
     <t>Patient.address.id</t>
@@ -1737,6 +1764,9 @@
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/scopedRole[classCode=CON]</t>
+  </si>
+  <si>
+    <t>user_secondary_contact</t>
   </si>
   <si>
     <t>Patient.contact.id</t>
@@ -1904,6 +1934,9 @@
   </si>
   <si>
     <t>patient.languageCommunication</t>
+  </si>
+  <si>
+    <t>user_preference -&gt; locale</t>
   </si>
   <si>
     <t>Patient.communication.id</t>
@@ -2449,7 +2482,7 @@
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="107.3984375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="40.0703125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="27.7578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="77.44140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3504,12 +3537,12 @@
         <v>79</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -3532,16 +3565,16 @@
         <v>86</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3591,7 +3624,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3626,7 +3659,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3649,16 +3682,16 @@
         <v>86</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3684,13 +3717,13 @@
         <v>79</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>79</v>
@@ -3708,7 +3741,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3743,7 +3776,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3766,16 +3799,16 @@
         <v>86</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3801,13 +3834,13 @@
         <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>79</v>
@@ -3825,7 +3858,7 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3860,7 +3893,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3886,13 +3919,13 @@
         <v>128</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3942,7 +3975,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -3977,7 +4010,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -4000,16 +4033,16 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -4035,13 +4068,13 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>79</v>
@@ -4059,7 +4092,7 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -4094,11 +4127,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -4117,16 +4150,16 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -4176,7 +4209,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -4191,7 +4224,7 @@
         <v>120</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
@@ -4211,11 +4244,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -4234,16 +4267,16 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4281,17 +4314,17 @@
         <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -4306,7 +4339,7 @@
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>79</v>
@@ -4321,18 +4354,18 @@
         <v>79</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>79</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -4351,16 +4384,16 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -4410,7 +4443,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4425,7 +4458,7 @@
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
@@ -4445,13 +4478,13 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -4470,16 +4503,16 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4529,7 +4562,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4544,7 +4577,7 @@
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
@@ -4564,7 +4597,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4593,7 +4626,7 @@
         <v>107</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>109</v>
@@ -4646,7 +4679,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4661,7 +4694,7 @@
         <v>114</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
@@ -4681,7 +4714,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4707,16 +4740,16 @@
         <v>106</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>109</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4765,7 +4798,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4780,7 +4813,7 @@
         <v>114</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
@@ -4800,7 +4833,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4823,17 +4856,17 @@
         <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4870,17 +4903,17 @@
         <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4895,16 +4928,16 @@
         <v>120</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4915,7 +4948,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -5030,7 +5063,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5147,7 +5180,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5170,19 +5203,19 @@
         <v>86</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -5207,13 +5240,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -5231,7 +5264,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5246,7 +5279,7 @@
         <v>120</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
@@ -5255,7 +5288,7 @@
         <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5266,7 +5299,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5289,19 +5322,19 @@
         <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5326,13 +5359,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -5350,7 +5383,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5365,7 +5398,7 @@
         <v>120</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>79</v>
@@ -5374,7 +5407,7 @@
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5385,7 +5418,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5411,16 +5444,16 @@
         <v>128</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5433,7 +5466,7 @@
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -5469,7 +5502,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5484,7 +5517,7 @@
         <v>120</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
@@ -5493,7 +5526,7 @@
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5504,7 +5537,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5530,13 +5563,13 @@
         <v>99</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5550,7 +5583,7 @@
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>79</v>
@@ -5586,7 +5619,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5601,7 +5634,7 @@
         <v>120</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
@@ -5610,7 +5643,7 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5621,7 +5654,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5644,13 +5677,13 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5701,7 +5734,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5716,7 +5749,7 @@
         <v>120</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
@@ -5725,7 +5758,7 @@
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5736,7 +5769,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5759,16 +5792,16 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5818,7 +5851,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5833,7 +5866,7 @@
         <v>120</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
@@ -5842,7 +5875,7 @@
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5853,10 +5886,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>79</v>
@@ -5878,17 +5911,17 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5937,7 +5970,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5952,16 +5985,16 @@
         <v>120</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5972,7 +6005,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6087,7 +6120,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6204,7 +6237,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6227,19 +6260,19 @@
         <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6249,7 +6282,7 @@
         <v>79</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>79</v>
@@ -6264,13 +6297,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6288,7 +6321,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6303,7 +6336,7 @@
         <v>120</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
@@ -6312,7 +6345,7 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6323,7 +6356,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6346,19 +6379,19 @@
         <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6368,7 +6401,7 @@
         <v>79</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>79</v>
@@ -6383,13 +6416,13 @@
         <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -6407,7 +6440,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6422,7 +6455,7 @@
         <v>120</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
@@ -6431,7 +6464,7 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6442,7 +6475,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6468,16 +6501,16 @@
         <v>128</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6487,10 +6520,10 @@
         <v>79</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6526,7 +6559,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6541,7 +6574,7 @@
         <v>120</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
@@ -6550,7 +6583,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6561,7 +6594,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6587,13 +6620,13 @@
         <v>99</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6607,7 +6640,7 @@
         <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>79</v>
@@ -6643,7 +6676,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6658,7 +6691,7 @@
         <v>120</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
@@ -6667,18 +6700,18 @@
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>79</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6701,13 +6734,13 @@
         <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6758,7 +6791,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6773,7 +6806,7 @@
         <v>120</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
@@ -6782,7 +6815,7 @@
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6793,7 +6826,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6816,16 +6849,16 @@
         <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6875,7 +6908,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6890,7 +6923,7 @@
         <v>120</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
@@ -6899,7 +6932,7 @@
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6910,7 +6943,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6933,70 +6966,70 @@
         <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P39" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="Q39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE39" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P39" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="Q39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -7011,13 +7044,13 @@
         <v>120</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -7031,7 +7064,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7042,7 +7075,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>86</v>
@@ -7054,19 +7087,19 @@
         <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -7103,17 +7136,17 @@
         <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -7128,16 +7161,16 @@
         <v>120</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -7148,10 +7181,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>79</v>
@@ -7173,19 +7206,19 @@
         <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -7234,7 +7267,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7249,16 +7282,16 @@
         <v>120</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7269,7 +7302,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7384,7 +7417,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7501,7 +7534,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7524,19 +7557,19 @@
         <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7546,7 +7579,7 @@
         <v>79</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>79</v>
@@ -7561,13 +7594,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7585,7 +7618,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7600,7 +7633,7 @@
         <v>120</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
@@ -7609,7 +7642,7 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7620,7 +7653,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7646,16 +7679,16 @@
         <v>99</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7704,7 +7737,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7719,7 +7752,7 @@
         <v>120</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -7728,7 +7761,7 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7739,11 +7772,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7765,13 +7798,13 @@
         <v>99</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7821,7 +7854,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7836,7 +7869,7 @@
         <v>120</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
@@ -7845,22 +7878,22 @@
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7882,13 +7915,13 @@
         <v>99</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7938,7 +7971,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7953,7 +7986,7 @@
         <v>120</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
@@ -7962,18 +7995,18 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7999,10 +8032,10 @@
         <v>99</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -8053,7 +8086,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -8068,7 +8101,7 @@
         <v>120</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
@@ -8077,7 +8110,7 @@
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -8088,7 +8121,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8114,10 +8147,10 @@
         <v>99</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -8168,7 +8201,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -8183,7 +8216,7 @@
         <v>120</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
@@ -8192,7 +8225,7 @@
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -8203,7 +8236,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8226,17 +8259,17 @@
         <v>86</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -8285,7 +8318,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8300,7 +8333,7 @@
         <v>120</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
@@ -8309,7 +8342,7 @@
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -8320,10 +8353,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>79</v>
@@ -8345,19 +8378,19 @@
         <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8406,7 +8439,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8421,16 +8454,16 @@
         <v>120</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8441,7 +8474,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8556,7 +8589,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8673,7 +8706,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8696,19 +8729,19 @@
         <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8718,7 +8751,7 @@
         <v>79</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>79</v>
@@ -8733,13 +8766,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8757,7 +8790,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8772,7 +8805,7 @@
         <v>120</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -8781,7 +8814,7 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8792,7 +8825,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8818,16 +8851,16 @@
         <v>99</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8876,7 +8909,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8891,7 +8924,7 @@
         <v>120</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
@@ -8900,7 +8933,7 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8911,11 +8944,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8937,13 +8970,13 @@
         <v>99</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8993,7 +9026,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -9008,7 +9041,7 @@
         <v>120</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
@@ -9017,7 +9050,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -9028,11 +9061,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -9054,13 +9087,13 @@
         <v>99</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9110,7 +9143,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -9125,7 +9158,7 @@
         <v>120</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -9134,18 +9167,18 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9171,10 +9204,10 @@
         <v>99</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -9225,7 +9258,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9240,7 +9273,7 @@
         <v>120</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -9249,7 +9282,7 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9260,7 +9293,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9286,10 +9319,10 @@
         <v>99</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -9340,7 +9373,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9355,7 +9388,7 @@
         <v>120</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
@@ -9364,7 +9397,7 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9375,7 +9408,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9398,17 +9431,17 @@
         <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9457,7 +9490,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9472,7 +9505,7 @@
         <v>120</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
@@ -9481,7 +9514,7 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9492,7 +9525,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9515,19 +9548,19 @@
         <v>86</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9576,7 +9609,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9591,16 +9624,16 @@
         <v>120</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9611,7 +9644,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9726,7 +9759,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9752,10 +9785,10 @@
         <v>106</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9841,10 +9874,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>79</v>
@@ -9866,13 +9899,13 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9956,9 +9989,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9972,7 +10005,7 @@
         <v>85</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9981,13 +10014,13 @@
         <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10014,13 +10047,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -10038,7 +10071,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -10047,13 +10080,13 @@
         <v>85</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
@@ -10062,18 +10095,18 @@
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10087,7 +10120,7 @@
         <v>85</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -10099,16 +10132,16 @@
         <v>99</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -10157,7 +10190,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -10172,7 +10205,7 @@
         <v>120</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
@@ -10181,18 +10214,18 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>79</v>
+        <v>389</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10215,19 +10248,19 @@
         <v>86</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -10252,13 +10285,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -10276,7 +10309,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10291,7 +10324,7 @@
         <v>120</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
@@ -10300,7 +10333,7 @@
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10311,7 +10344,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10334,16 +10367,16 @@
         <v>86</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10393,7 +10426,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10428,7 +10461,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10451,13 +10484,13 @@
         <v>86</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10508,7 +10541,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10523,7 +10556,7 @@
         <v>120</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
@@ -10532,7 +10565,7 @@
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10543,7 +10576,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10566,19 +10599,19 @@
         <v>86</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10603,13 +10636,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10627,7 +10660,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10642,16 +10675,16 @@
         <v>120</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10662,7 +10695,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10685,19 +10718,19 @@
         <v>86</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10746,7 +10779,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10761,19 +10794,19 @@
         <v>120</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
@@ -10781,7 +10814,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10804,19 +10837,19 @@
         <v>86</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10865,7 +10898,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10880,7 +10913,7 @@
         <v>120</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>103</v>
@@ -10889,7 +10922,7 @@
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10900,7 +10933,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10923,19 +10956,19 @@
         <v>86</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10984,7 +11017,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10999,27 +11032,27 @@
         <v>120</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11134,7 +11167,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11160,10 +11193,10 @@
         <v>106</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -11249,10 +11282,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>79</v>
@@ -11274,13 +11307,13 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -11366,7 +11399,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11389,19 +11422,19 @@
         <v>86</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11411,10 +11444,10 @@
         <v>79</v>
       </c>
       <c r="R77" t="s" s="2">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>79</v>
@@ -11426,13 +11459,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11450,7 +11483,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11465,7 +11498,7 @@
         <v>120</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
@@ -11474,7 +11507,7 @@
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11485,7 +11518,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11508,16 +11541,16 @@
         <v>86</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11531,7 +11564,7 @@
         <v>79</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>79</v>
@@ -11543,13 +11576,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11567,7 +11600,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11582,7 +11615,7 @@
         <v>120</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
@@ -11591,7 +11624,7 @@
         <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11602,7 +11635,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11628,16 +11661,16 @@
         <v>99</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11650,7 +11683,7 @@
         <v>79</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>79</v>
@@ -11686,7 +11719,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11701,7 +11734,7 @@
         <v>120</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>79</v>
@@ -11710,7 +11743,7 @@
         <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11721,7 +11754,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11732,7 +11765,7 @@
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>86</v>
@@ -11747,10 +11780,10 @@
         <v>99</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11765,7 +11798,7 @@
         <v>79</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>79</v>
@@ -11801,7 +11834,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11816,7 +11849,7 @@
         <v>120</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
@@ -11825,7 +11858,7 @@
         <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11836,11 +11869,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11862,10 +11895,10 @@
         <v>99</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11880,7 +11913,7 @@
         <v>79</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>79</v>
@@ -11916,7 +11949,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11931,7 +11964,7 @@
         <v>120</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
@@ -11940,7 +11973,7 @@
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11951,11 +11984,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11977,13 +12010,13 @@
         <v>99</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11997,7 +12030,7 @@
         <v>79</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>79</v>
@@ -12033,7 +12066,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -12048,7 +12081,7 @@
         <v>120</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
@@ -12057,7 +12090,7 @@
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -12068,11 +12101,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -12094,10 +12127,10 @@
         <v>99</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -12148,7 +12181,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -12163,7 +12196,7 @@
         <v>120</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
@@ -12172,7 +12205,7 @@
         <v>79</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -12183,11 +12216,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -12209,10 +12242,10 @@
         <v>99</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12227,7 +12260,7 @@
         <v>79</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>79</v>
@@ -12263,7 +12296,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12278,7 +12311,7 @@
         <v>120</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
@@ -12287,7 +12320,7 @@
         <v>79</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12298,7 +12331,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12324,13 +12357,13 @@
         <v>99</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -12380,7 +12413,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12395,7 +12428,7 @@
         <v>120</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>79</v>
@@ -12404,7 +12437,7 @@
         <v>79</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12415,7 +12448,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12438,17 +12471,17 @@
         <v>86</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12461,7 +12494,7 @@
         <v>79</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>79</v>
@@ -12497,7 +12530,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12512,7 +12545,7 @@
         <v>120</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>79</v>
@@ -12521,7 +12554,7 @@
         <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12532,7 +12565,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12555,17 +12588,17 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12590,13 +12623,13 @@
         <v>79</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>79</v>
@@ -12614,7 +12647,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12629,16 +12662,16 @@
         <v>120</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12649,7 +12682,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12672,19 +12705,19 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12733,7 +12766,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12748,7 +12781,7 @@
         <v>120</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>103</v>
@@ -12757,7 +12790,7 @@
         <v>79</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12768,7 +12801,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12791,19 +12824,19 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12852,7 +12885,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12867,7 +12900,7 @@
         <v>120</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>103</v>
@@ -12876,7 +12909,7 @@
         <v>79</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12887,7 +12920,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12910,19 +12943,19 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12971,7 +13004,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12983,10 +13016,10 @@
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>103</v>
@@ -13001,12 +13034,12 @@
         <v>79</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>79</v>
+        <v>562</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13121,7 +13154,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13238,11 +13271,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -13264,16 +13297,16 @@
         <v>106</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>109</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -13322,7 +13355,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13337,7 +13370,7 @@
         <v>114</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>79</v>
@@ -13357,7 +13390,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13380,17 +13413,17 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" t="s" s="2">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13400,7 +13433,7 @@
         <v>79</v>
       </c>
       <c r="R94" t="s" s="2">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>79</v>
@@ -13415,13 +13448,13 @@
         <v>79</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>79</v>
@@ -13439,7 +13472,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13454,7 +13487,7 @@
         <v>120</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>103</v>
@@ -13463,7 +13496,7 @@
         <v>79</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13474,7 +13507,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13497,17 +13530,17 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13556,7 +13589,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13571,7 +13604,7 @@
         <v>120</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>103</v>
@@ -13580,7 +13613,7 @@
         <v>79</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -13591,7 +13624,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13614,19 +13647,19 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13675,7 +13708,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13690,7 +13723,7 @@
         <v>120</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>103</v>
@@ -13699,7 +13732,7 @@
         <v>79</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13710,7 +13743,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13733,17 +13766,17 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>79</v>
@@ -13792,7 +13825,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13807,7 +13840,7 @@
         <v>120</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>103</v>
@@ -13816,7 +13849,7 @@
         <v>79</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13827,7 +13860,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13850,17 +13883,17 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" t="s" s="2">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>79</v>
@@ -13885,13 +13918,13 @@
         <v>79</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>79</v>
@@ -13909,7 +13942,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13924,7 +13957,7 @@
         <v>120</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>103</v>
@@ -13933,7 +13966,7 @@
         <v>79</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
@@ -13944,7 +13977,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13967,17 +14000,17 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" t="s" s="2">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -14026,7 +14059,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -14035,13 +14068,13 @@
         <v>85</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>103</v>
@@ -14050,7 +14083,7 @@
         <v>79</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>79</v>
@@ -14061,7 +14094,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14084,13 +14117,13 @@
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -14141,7 +14174,7 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -14156,7 +14189,7 @@
         <v>120</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>103</v>
@@ -14176,7 +14209,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14199,19 +14232,19 @@
         <v>79</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>79</v>
@@ -14260,7 +14293,7 @@
         <v>79</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -14275,10 +14308,10 @@
         <v>120</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>79</v>
@@ -14290,12 +14323,12 @@
         <v>79</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>79</v>
+        <v>616</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14410,7 +14443,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14527,11 +14560,11 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -14553,16 +14586,16 @@
         <v>106</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="M104" t="s" s="2">
         <v>109</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>79</v>
@@ -14611,7 +14644,7 @@
         <v>79</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
@@ -14626,7 +14659,7 @@
         <v>114</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>79</v>
@@ -14646,7 +14679,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14669,19 +14702,19 @@
         <v>79</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>79</v>
@@ -14706,11 +14739,11 @@
         <v>79</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="X105" s="2"/>
       <c r="Y105" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>79</v>
@@ -14728,7 +14761,7 @@
         <v>79</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>85</v>
@@ -14743,16 +14776,16 @@
         <v>120</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14763,7 +14796,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14786,19 +14819,19 @@
         <v>79</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>79</v>
@@ -14808,7 +14841,7 @@
         <v>79</v>
       </c>
       <c r="R106" t="s" s="2">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>79</v>
@@ -14847,7 +14880,7 @@
         <v>79</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14862,16 +14895,16 @@
         <v>120</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>79</v>
@@ -14882,11 +14915,11 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -14905,16 +14938,16 @@
         <v>79</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -14964,7 +14997,7 @@
         <v>79</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
@@ -14979,7 +15012,7 @@
         <v>120</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>103</v>
@@ -14988,7 +15021,7 @@
         <v>79</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>79</v>
@@ -14999,7 +15032,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15022,19 +15055,19 @@
         <v>86</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>79</v>
@@ -15083,7 +15116,7 @@
         <v>79</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
@@ -15098,10 +15131,10 @@
         <v>120</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>79</v>
@@ -15118,7 +15151,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15141,19 +15174,19 @@
         <v>86</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>79</v>
@@ -15202,7 +15235,7 @@
         <v>79</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
@@ -15217,7 +15250,7 @@
         <v>120</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>103</v>
@@ -15237,7 +15270,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15352,7 +15385,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15469,11 +15502,11 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -15495,16 +15528,16 @@
         <v>106</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>109</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>79</v>
@@ -15553,7 +15586,7 @@
         <v>79</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
@@ -15568,7 +15601,7 @@
         <v>114</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>79</v>
@@ -15588,7 +15621,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15611,16 +15644,16 @@
         <v>86</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15670,7 +15703,7 @@
         <v>79</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>85</v>
@@ -15685,7 +15718,7 @@
         <v>120</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>103</v>
@@ -15694,7 +15727,7 @@
         <v>79</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>79</v>
@@ -15705,7 +15738,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15728,13 +15761,13 @@
         <v>86</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -15761,13 +15794,13 @@
         <v>79</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>79</v>
@@ -15785,7 +15818,7 @@
         <v>79</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>85</v>
@@ -15800,7 +15833,7 @@
         <v>120</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>103</v>

--- a/StructureDefinition-pmi-patient.xlsx
+++ b/StructureDefinition-pmi-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$123</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4271" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4606" uniqueCount="675">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T04:26:55+00:00</t>
+    <t>2023-01-09T17:00:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -663,7 +663,7 @@
     <t>Patients are almost always assigned specific numerical identifiers.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
+    <t xml:space="preserve">value:type}
 </t>
   </si>
   <si>
@@ -868,6 +868,23 @@
   </si>
   <si>
     <t>user -&gt; ssn</t>
+  </si>
+  <si>
+    <t>NPH</t>
+  </si>
+  <si>
+    <t>NPH Program Identifier</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://pmi-fhir-ig.github.io/pmi-fhir-ig/CodeSystem/PMIIdentifierTypeCS"/&gt;
+    &lt;code value="NPH"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>NPH Program ID</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -2433,7 +2450,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO114"/>
+  <dimension ref="A1:AO123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4844,7 +4861,7 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>86</v>
@@ -6364,7 +6381,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>85</v>
@@ -6483,7 +6500,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>85</v>
@@ -6941,11 +6958,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6954,38 +6973,34 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K39" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="L39" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>278</v>
+        <v>206</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P39" t="s" s="2">
-        <v>279</v>
-      </c>
+      <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
         <v>79</v>
       </c>
@@ -7029,13 +7044,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>273</v>
+        <v>202</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -7044,16 +7059,16 @@
         <v>120</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>280</v>
+        <v>208</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>103</v>
+        <v>209</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>281</v>
+        <v>210</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -7064,7 +7079,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>282</v>
+        <v>212</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7075,32 +7090,28 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>283</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>284</v>
+        <v>99</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>285</v>
+        <v>100</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -7136,41 +7147,43 @@
         <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AB40" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>282</v>
+        <v>102</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>290</v>
+        <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -7179,47 +7192,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>284</v>
+        <v>106</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>285</v>
+        <v>107</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>286</v>
+        <v>108</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -7255,19 +7264,19 @@
         <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>282</v>
+        <v>113</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7279,19 +7288,19 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>290</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7302,7 +7311,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>214</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7319,22 +7328,26 @@
         <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7358,13 +7371,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7382,7 +7395,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7394,10 +7407,10 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
@@ -7406,7 +7419,7 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7417,18 +7430,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>294</v>
+        <v>224</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -7437,21 +7450,23 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>108</v>
+        <v>227</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7460,7 +7475,7 @@
         <v>79</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>79</v>
@@ -7475,46 +7490,46 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
@@ -7523,7 +7538,7 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7534,7 +7549,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>295</v>
+        <v>234</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7542,7 +7557,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>85</v>
@@ -7551,25 +7566,25 @@
         <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>298</v>
+        <v>237</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>299</v>
+        <v>238</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7579,10 +7594,10 @@
         <v>79</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>79</v>
@@ -7594,13 +7609,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7618,7 +7633,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>302</v>
+        <v>240</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7633,7 +7648,7 @@
         <v>120</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
@@ -7642,7 +7657,7 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7653,7 +7668,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>305</v>
+        <v>243</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7679,17 +7694,15 @@
         <v>99</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7701,7 +7714,7 @@
         <v>79</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>79</v>
@@ -7737,7 +7750,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>310</v>
+        <v>248</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7752,7 +7765,7 @@
         <v>120</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>311</v>
+        <v>249</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -7761,7 +7774,7 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7770,13 +7783,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>251</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7786,7 +7799,7 @@
         <v>85</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7795,17 +7808,15 @@
         <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>99</v>
+        <v>252</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>315</v>
+        <v>253</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7854,7 +7865,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>318</v>
+        <v>255</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7869,7 +7880,7 @@
         <v>120</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>319</v>
+        <v>256</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
@@ -7878,32 +7889,32 @@
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>320</v>
+        <v>257</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>322</v>
+        <v>258</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7912,16 +7923,16 @@
         <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>99</v>
+        <v>259</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>324</v>
+        <v>260</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>325</v>
+        <v>261</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>326</v>
+        <v>262</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7971,13 +7982,13 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>327</v>
+        <v>263</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
@@ -7986,7 +7997,7 @@
         <v>120</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>328</v>
+        <v>264</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
@@ -7995,18 +8006,18 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>329</v>
+        <v>265</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>331</v>
+        <v>277</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8017,32 +8028,38 @@
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>99</v>
+        <v>278</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>332</v>
+        <v>279</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="Q48" t="s" s="2">
         <v>79</v>
       </c>
@@ -8086,13 +8103,13 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
@@ -8101,16 +8118,16 @@
         <v>120</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>335</v>
+        <v>284</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -8119,9 +8136,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8132,7 +8149,7 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>86</v>
@@ -8144,16 +8161,20 @@
         <v>86</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>99</v>
+        <v>288</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
@@ -8189,19 +8210,17 @@
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="AB49" s="2"/>
       <c r="AC49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -8216,16 +8235,16 @@
         <v>120</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -8234,11 +8253,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="C50" t="s" s="2">
         <v>79</v>
       </c>
@@ -8250,7 +8271,7 @@
         <v>85</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -8259,17 +8280,19 @@
         <v>86</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="N50" t="s" s="2">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -8318,13 +8341,13 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>347</v>
+        <v>286</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
@@ -8333,16 +8356,16 @@
         <v>120</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -8351,13 +8374,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8369,29 +8390,25 @@
         <v>85</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>284</v>
+        <v>99</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>285</v>
+        <v>100</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8439,31 +8456,31 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>282</v>
+        <v>102</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>290</v>
+        <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8474,18 +8491,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
@@ -8497,15 +8514,17 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8542,31 +8561,31 @@
         <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>103</v>
@@ -8589,41 +8608,43 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>107</v>
+        <v>300</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>108</v>
+        <v>301</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8632,7 +8653,7 @@
         <v>79</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>79</v>
@@ -8647,46 +8668,46 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>113</v>
+        <v>306</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>103</v>
+        <v>307</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
@@ -8695,7 +8716,7 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8706,7 +8727,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8714,7 +8735,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>85</v>
@@ -8723,25 +8744,25 @@
         <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8751,7 +8772,7 @@
         <v>79</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>79</v>
@@ -8766,13 +8787,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8790,7 +8811,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8805,7 +8826,7 @@
         <v>120</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -8814,7 +8835,7 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8823,13 +8844,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8839,7 +8860,7 @@
         <v>85</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8851,17 +8872,15 @@
         <v>99</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8909,7 +8928,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8924,7 +8943,7 @@
         <v>120</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
@@ -8933,32 +8952,32 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8970,13 +8989,13 @@
         <v>99</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -9026,13 +9045,13 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
@@ -9041,7 +9060,7 @@
         <v>120</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
@@ -9050,22 +9069,22 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -9075,7 +9094,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -9087,14 +9106,12 @@
         <v>99</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -9143,7 +9160,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -9158,7 +9175,7 @@
         <v>120</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -9167,18 +9184,18 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9192,7 +9209,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -9204,10 +9221,10 @@
         <v>99</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -9258,7 +9275,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9273,7 +9290,7 @@
         <v>120</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -9282,7 +9299,7 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9293,7 +9310,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9304,7 +9321,7 @@
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>79</v>
@@ -9316,16 +9333,18 @@
         <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>99</v>
+        <v>252</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9373,13 +9392,13 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
@@ -9388,7 +9407,7 @@
         <v>120</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
@@ -9397,7 +9416,7 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9406,11 +9425,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="C60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9422,7 +9443,7 @@
         <v>85</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9431,17 +9452,19 @@
         <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="N60" t="s" s="2">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9490,13 +9513,13 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>347</v>
+        <v>286</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
@@ -9505,16 +9528,16 @@
         <v>120</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9523,9 +9546,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9536,32 +9559,28 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>355</v>
+        <v>99</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>356</v>
+        <v>100</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9609,31 +9628,31 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>354</v>
+        <v>102</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>360</v>
+        <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9644,18 +9663,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>363</v>
+        <v>298</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9667,15 +9686,17 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9712,31 +9733,31 @@
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>103</v>
@@ -9759,7 +9780,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>364</v>
+        <v>299</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9767,7 +9788,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>85</v>
@@ -9776,22 +9797,26 @@
         <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9800,7 +9825,7 @@
         <v>79</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>79</v>
@@ -9815,46 +9840,46 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>113</v>
+        <v>306</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
@@ -9863,7 +9888,7 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9872,13 +9897,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9890,25 +9913,29 @@
         <v>85</v>
       </c>
       <c r="G64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J64" t="s" s="2">
-        <v>368</v>
+        <v>99</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>369</v>
+        <v>310</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9956,22 +9983,22 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>113</v>
+        <v>314</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
@@ -9980,7 +10007,7 @@
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9989,13 +10016,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>371</v>
+        <v>317</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -10005,7 +10032,7 @@
         <v>85</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -10014,15 +10041,17 @@
         <v>86</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -10047,13 +10076,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -10071,7 +10100,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>376</v>
+        <v>322</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -10080,13 +10109,13 @@
         <v>85</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>378</v>
+        <v>323</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
@@ -10095,29 +10124,29 @@
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>379</v>
+        <v>324</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>86</v>
@@ -10132,17 +10161,15 @@
         <v>99</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -10190,13 +10217,13 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -10205,7 +10232,7 @@
         <v>120</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
@@ -10214,18 +10241,18 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>389</v>
+        <v>357</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>390</v>
+        <v>335</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10236,32 +10263,28 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
@@ -10285,13 +10308,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -10309,13 +10332,13 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>397</v>
+        <v>338</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
@@ -10324,7 +10347,7 @@
         <v>120</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
@@ -10333,7 +10356,7 @@
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10344,7 +10367,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>399</v>
+        <v>341</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10355,7 +10378,7 @@
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>79</v>
@@ -10367,17 +10390,15 @@
         <v>86</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>400</v>
+        <v>99</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>401</v>
+        <v>342</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10426,13 +10447,13 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>404</v>
+        <v>344</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
@@ -10441,7 +10462,7 @@
         <v>120</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>103</v>
+        <v>345</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -10450,7 +10471,7 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>103</v>
+        <v>346</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10461,7 +10482,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>405</v>
+        <v>347</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10472,7 +10493,7 @@
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>79</v>
@@ -10487,13 +10508,15 @@
         <v>252</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>406</v>
+        <v>348</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>407</v>
+        <v>349</v>
       </c>
       <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10541,7 +10564,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10556,7 +10579,7 @@
         <v>120</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
@@ -10565,7 +10588,7 @@
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>188</v>
+        <v>353</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10574,9 +10597,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>409</v>
+        <v>358</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10587,10 +10610,10 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10599,19 +10622,19 @@
         <v>86</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>163</v>
+        <v>359</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10636,13 +10659,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10660,13 +10683,13 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>409</v>
+        <v>358</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
@@ -10675,16 +10698,16 @@
         <v>120</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>416</v>
+        <v>364</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>417</v>
+        <v>365</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>418</v>
+        <v>366</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10693,9 +10716,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>419</v>
+        <v>367</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10709,29 +10732,25 @@
         <v>85</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>420</v>
+        <v>99</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>421</v>
+        <v>100</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10779,7 +10798,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>419</v>
+        <v>102</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10791,30 +10810,30 @@
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>425</v>
+        <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>429</v>
+        <v>368</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10828,29 +10847,25 @@
         <v>85</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>430</v>
+        <v>106</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>431</v>
+        <v>369</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10886,43 +10901,43 @@
         <v>79</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>429</v>
+        <v>113</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10933,9 +10948,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B73" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="C73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10944,7 +10961,7 @@
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>86</v>
@@ -10953,23 +10970,19 @@
         <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>438</v>
+        <v>372</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>439</v>
+        <v>373</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -11017,7 +11030,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>437</v>
+        <v>113</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -11029,30 +11042,30 @@
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>447</v>
+        <v>375</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11066,22 +11079,22 @@
         <v>85</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>100</v>
+        <v>376</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>101</v>
+        <v>377</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -11108,13 +11121,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -11132,7 +11145,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>102</v>
+        <v>380</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -11141,13 +11154,13 @@
         <v>85</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>103</v>
+        <v>382</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
@@ -11156,18 +11169,18 @@
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>448</v>
+        <v>385</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11181,25 +11194,29 @@
         <v>85</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
       </c>
@@ -11235,34 +11252,34 @@
         <v>79</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>113</v>
+        <v>390</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
@@ -11271,22 +11288,20 @@
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
         <v>79</v>
       </c>
@@ -11298,25 +11313,29 @@
         <v>85</v>
       </c>
       <c r="G76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H76" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I76" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>368</v>
+        <v>163</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
       </c>
@@ -11340,13 +11359,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>79</v>
+        <v>400</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -11364,22 +11383,22 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>113</v>
+        <v>401</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
@@ -11388,7 +11407,7 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11397,9 +11416,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>450</v>
+        <v>403</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11407,35 +11426,33 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>163</v>
+        <v>404</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
       </c>
@@ -11444,10 +11461,10 @@
         <v>79</v>
       </c>
       <c r="R77" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>79</v>
@@ -11459,13 +11476,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11483,7 +11500,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11498,7 +11515,7 @@
         <v>120</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>303</v>
+        <v>103</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
@@ -11507,7 +11524,7 @@
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>459</v>
+        <v>103</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11518,7 +11535,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>460</v>
+        <v>409</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11529,7 +11546,7 @@
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>79</v>
@@ -11541,17 +11558,15 @@
         <v>86</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>461</v>
+        <v>410</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11564,7 +11579,7 @@
         <v>79</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>464</v>
+        <v>79</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>79</v>
@@ -11576,13 +11591,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>466</v>
+        <v>79</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11600,7 +11615,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>467</v>
+        <v>412</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11615,7 +11630,7 @@
         <v>120</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
@@ -11624,7 +11639,7 @@
         <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>468</v>
+        <v>188</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11635,7 +11650,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>469</v>
+        <v>413</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11646,7 +11661,7 @@
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>79</v>
@@ -11658,19 +11673,19 @@
         <v>86</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>470</v>
+        <v>414</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>471</v>
+        <v>415</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>472</v>
+        <v>416</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>309</v>
+        <v>417</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11683,7 +11698,7 @@
         <v>79</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>79</v>
@@ -11695,13 +11710,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11719,7 +11734,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>474</v>
+        <v>413</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11734,16 +11749,16 @@
         <v>120</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>311</v>
+        <v>420</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>475</v>
+        <v>422</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11754,7 +11769,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>476</v>
+        <v>423</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11765,7 +11780,7 @@
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>283</v>
+        <v>85</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>86</v>
@@ -11777,16 +11792,20 @@
         <v>86</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>99</v>
+        <v>424</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>477</v>
+        <v>425</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11798,7 +11817,7 @@
         <v>79</v>
       </c>
       <c r="S80" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="T80" t="s" s="2">
         <v>79</v>
@@ -11834,13 +11853,13 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>480</v>
+        <v>423</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>79</v>
@@ -11849,19 +11868,19 @@
         <v>120</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>481</v>
+        <v>429</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>482</v>
+        <v>431</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -11869,11 +11888,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>483</v>
+        <v>433</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11886,22 +11905,26 @@
         <v>86</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>99</v>
+        <v>434</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>485</v>
+        <v>435</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11913,7 +11936,7 @@
         <v>79</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>79</v>
@@ -11949,7 +11972,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>488</v>
+        <v>433</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11964,16 +11987,16 @@
         <v>120</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>489</v>
+        <v>439</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>490</v>
+        <v>440</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11984,18 +12007,18 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>491</v>
+        <v>441</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>492</v>
+        <v>79</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>86</v>
@@ -12007,18 +12030,20 @@
         <v>86</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>99</v>
+        <v>442</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>493</v>
+        <v>443</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>494</v>
+        <v>444</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
       </c>
@@ -12030,7 +12055,7 @@
         <v>79</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>79</v>
@@ -12066,13 +12091,13 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>497</v>
+        <v>441</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
@@ -12081,31 +12106,31 @@
         <v>120</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>498</v>
+        <v>447</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>499</v>
+        <v>449</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -12115,22 +12140,22 @@
         <v>85</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>502</v>
+        <v>100</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>503</v>
+        <v>101</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -12181,7 +12206,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>504</v>
+        <v>102</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -12193,10 +12218,10 @@
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>505</v>
+        <v>103</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
@@ -12205,7 +12230,7 @@
         <v>79</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>506</v>
+        <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -12214,13 +12239,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>507</v>
+        <v>452</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -12230,22 +12255,22 @@
         <v>85</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>509</v>
+        <v>369</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>510</v>
+        <v>370</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12260,7 +12285,7 @@
         <v>79</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>79</v>
@@ -12284,34 +12309,34 @@
         <v>79</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>512</v>
+        <v>113</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
@@ -12320,7 +12345,7 @@
         <v>79</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>514</v>
+        <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -12331,9 +12356,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B85" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="C85" t="s" s="2">
         <v>79</v>
       </c>
@@ -12351,20 +12378,18 @@
         <v>79</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>99</v>
+        <v>372</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>516</v>
+        <v>373</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12413,22 +12438,22 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>519</v>
+        <v>113</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>520</v>
+        <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>79</v>
@@ -12437,7 +12462,7 @@
         <v>79</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>521</v>
+        <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12446,9 +12471,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>522</v>
+        <v>454</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12456,32 +12481,34 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>252</v>
+        <v>163</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>523</v>
+        <v>455</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="N86" t="s" s="2">
-        <v>525</v>
+        <v>458</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12491,10 +12518,10 @@
         <v>79</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>526</v>
+        <v>459</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>79</v>
@@ -12506,13 +12533,13 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12530,7 +12557,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>527</v>
+        <v>462</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12545,7 +12572,7 @@
         <v>120</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>79</v>
@@ -12554,7 +12581,7 @@
         <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>528</v>
+        <v>463</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12565,7 +12592,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>529</v>
+        <v>464</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12576,7 +12603,7 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>79</v>
@@ -12585,21 +12612,21 @@
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>530</v>
+        <v>465</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" t="s" s="2">
-        <v>532</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
       </c>
@@ -12611,7 +12638,7 @@
         <v>79</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>79</v>
@@ -12623,13 +12650,13 @@
         <v>79</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>145</v>
+        <v>219</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>533</v>
+        <v>469</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>534</v>
+        <v>470</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>79</v>
@@ -12647,7 +12674,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>529</v>
+        <v>471</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12662,16 +12689,16 @@
         <v>120</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>535</v>
+        <v>307</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>536</v>
+        <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>537</v>
+        <v>472</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12682,7 +12709,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>538</v>
+        <v>473</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12693,7 +12720,7 @@
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
@@ -12702,22 +12729,22 @@
         <v>79</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>539</v>
+        <v>99</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>540</v>
+        <v>474</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>541</v>
+        <v>475</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>543</v>
+        <v>313</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12730,7 +12757,7 @@
         <v>79</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>79</v>
+        <v>477</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>79</v>
@@ -12766,7 +12793,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>538</v>
+        <v>478</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12781,16 +12808,16 @@
         <v>120</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>544</v>
+        <v>315</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>545</v>
+        <v>479</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12799,9 +12826,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
-        <v>546</v>
+        <v>480</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12812,32 +12839,28 @@
         <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>547</v>
+        <v>99</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>548</v>
+        <v>481</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12849,7 +12872,7 @@
         <v>79</v>
       </c>
       <c r="S89" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="T89" t="s" s="2">
         <v>79</v>
@@ -12885,7 +12908,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>546</v>
+        <v>484</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12900,16 +12923,16 @@
         <v>120</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>552</v>
+        <v>485</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>553</v>
+        <v>486</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12920,18 +12943,18 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>554</v>
+        <v>487</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>86</v>
@@ -12940,23 +12963,19 @@
         <v>79</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>555</v>
+        <v>99</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>556</v>
+        <v>489</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12968,7 +12987,7 @@
         <v>79</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>79</v>
@@ -13004,46 +13023,46 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>554</v>
+        <v>492</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>560</v>
+        <v>120</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>561</v>
+        <v>493</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>562</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
-        <v>563</v>
+        <v>495</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -13053,24 +13072,26 @@
         <v>85</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>100</v>
+        <v>497</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -13083,7 +13104,7 @@
         <v>79</v>
       </c>
       <c r="S91" t="s" s="2">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="T91" t="s" s="2">
         <v>79</v>
@@ -13119,7 +13140,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>102</v>
+        <v>501</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -13131,10 +13152,10 @@
         <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>103</v>
+        <v>502</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>79</v>
@@ -13143,7 +13164,7 @@
         <v>79</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>79</v>
+        <v>503</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -13152,42 +13173,40 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
-        <v>564</v>
+        <v>504</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>105</v>
+        <v>505</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>107</v>
+        <v>506</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -13236,22 +13255,22 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>113</v>
+        <v>508</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>103</v>
+        <v>509</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>79</v>
@@ -13260,7 +13279,7 @@
         <v>79</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -13269,45 +13288,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>565</v>
+        <v>511</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>566</v>
+        <v>512</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>567</v>
+        <v>513</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>79</v>
       </c>
@@ -13319,7 +13334,7 @@
         <v>79</v>
       </c>
       <c r="S93" t="s" s="2">
-        <v>79</v>
+        <v>515</v>
       </c>
       <c r="T93" t="s" s="2">
         <v>79</v>
@@ -13355,22 +13370,22 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>569</v>
+        <v>516</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>188</v>
+        <v>517</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>79</v>
@@ -13379,7 +13394,7 @@
         <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>79</v>
+        <v>518</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -13390,7 +13405,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>570</v>
+        <v>519</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13410,21 +13425,21 @@
         <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>571</v>
+        <v>520</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>79</v>
       </c>
@@ -13433,7 +13448,7 @@
         <v>79</v>
       </c>
       <c r="R94" t="s" s="2">
-        <v>574</v>
+        <v>79</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>79</v>
@@ -13448,13 +13463,13 @@
         <v>79</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>575</v>
+        <v>79</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>576</v>
+        <v>79</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>79</v>
@@ -13472,13 +13487,13 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>570</v>
+        <v>523</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
@@ -13487,16 +13502,16 @@
         <v>120</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>577</v>
+        <v>524</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>578</v>
+        <v>525</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13505,9 +13520,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>579</v>
+        <v>526</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13515,32 +13530,32 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I95" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J95" t="s" s="2">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>580</v>
+        <v>527</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>581</v>
+        <v>528</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>582</v>
+        <v>529</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13553,7 +13568,7 @@
         <v>79</v>
       </c>
       <c r="S95" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="T95" t="s" s="2">
         <v>79</v>
@@ -13589,7 +13604,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>579</v>
+        <v>531</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13604,16 +13619,16 @@
         <v>120</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>290</v>
+        <v>352</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>583</v>
+        <v>532</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -13622,9 +13637,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>584</v>
+        <v>533</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13635,10 +13650,10 @@
         <v>77</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>79</v>
@@ -13647,19 +13662,17 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>355</v>
+        <v>225</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>585</v>
+        <v>534</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>587</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>359</v>
+        <v>536</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13684,13 +13697,13 @@
         <v>79</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>79</v>
+        <v>538</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>79</v>
@@ -13708,13 +13721,13 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>584</v>
+        <v>533</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>79</v>
@@ -13723,16 +13736,16 @@
         <v>120</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>360</v>
+        <v>539</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>103</v>
+        <v>540</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>588</v>
+        <v>541</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13741,9 +13754,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>589</v>
+        <v>542</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13754,10 +13767,10 @@
         <v>77</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>79</v>
@@ -13766,17 +13779,19 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>438</v>
+        <v>543</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>590</v>
+        <v>544</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M97" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>546</v>
+      </c>
       <c r="N97" t="s" s="2">
-        <v>592</v>
+        <v>547</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>79</v>
@@ -13825,7 +13840,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>589</v>
+        <v>542</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13840,7 +13855,7 @@
         <v>120</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>103</v>
@@ -13849,7 +13864,7 @@
         <v>79</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>593</v>
+        <v>549</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13860,7 +13875,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>594</v>
+        <v>550</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13883,17 +13898,19 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>163</v>
+        <v>551</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>410</v>
+        <v>552</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M98" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>554</v>
+      </c>
       <c r="N98" t="s" s="2">
-        <v>596</v>
+        <v>555</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>79</v>
@@ -13918,13 +13935,13 @@
         <v>79</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>79</v>
@@ -13942,13 +13959,13 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>594</v>
+        <v>550</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>79</v>
@@ -13957,7 +13974,7 @@
         <v>120</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>416</v>
+        <v>556</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>103</v>
@@ -13966,7 +13983,7 @@
         <v>79</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>597</v>
+        <v>557</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
@@ -13975,9 +13992,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
-        <v>598</v>
+        <v>558</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13988,10 +14005,10 @@
         <v>77</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>79</v>
@@ -14000,17 +14017,19 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>259</v>
+        <v>559</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>599</v>
+        <v>560</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="M99" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="N99" t="s" s="2">
-        <v>601</v>
+        <v>563</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -14059,22 +14078,22 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>598</v>
+        <v>558</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>602</v>
+        <v>79</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>120</v>
+        <v>564</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>603</v>
+        <v>565</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>103</v>
@@ -14083,18 +14102,18 @@
         <v>79</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>604</v>
+        <v>79</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>79</v>
+        <v>566</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>605</v>
+        <v>567</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14105,7 +14124,7 @@
         <v>77</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>79</v>
@@ -14117,13 +14136,13 @@
         <v>79</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>252</v>
+        <v>99</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>606</v>
+        <v>100</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>607</v>
+        <v>101</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -14174,7 +14193,7 @@
         <v>79</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>605</v>
+        <v>102</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>77</v>
@@ -14186,13 +14205,13 @@
         <v>79</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>608</v>
+        <v>103</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>79</v>
@@ -14207,23 +14226,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>609</v>
+        <v>568</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>79</v>
@@ -14232,20 +14251,18 @@
         <v>79</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>555</v>
+        <v>106</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>610</v>
+        <v>107</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>611</v>
+        <v>108</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>613</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>79</v>
       </c>
@@ -14293,7 +14310,7 @@
         <v>79</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>609</v>
+        <v>113</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>77</v>
@@ -14305,13 +14322,13 @@
         <v>79</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>614</v>
+        <v>103</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>615</v>
+        <v>79</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>79</v>
@@ -14323,44 +14340,48 @@
         <v>79</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>616</v>
+        <v>79</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>617</v>
+        <v>569</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>79</v>
+        <v>570</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>100</v>
+        <v>571</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O102" t="s" s="2">
         <v>79</v>
       </c>
@@ -14408,22 +14429,22 @@
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>102</v>
+        <v>573</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>79</v>
@@ -14441,23 +14462,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
-        <v>618</v>
+        <v>574</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>79</v>
@@ -14466,18 +14487,18 @@
         <v>79</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>107</v>
+        <v>575</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="O103" t="s" s="2">
         <v>79</v>
       </c>
@@ -14486,7 +14507,7 @@
         <v>79</v>
       </c>
       <c r="R103" t="s" s="2">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>79</v>
@@ -14501,13 +14522,13 @@
         <v>79</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>79</v>
+        <v>579</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>79</v>
+        <v>580</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>79</v>
@@ -14525,7 +14546,7 @@
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>113</v>
+        <v>574</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -14537,19 +14558,19 @@
         <v>79</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AJ103" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AK103" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AK103" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AL103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>79</v>
+        <v>582</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>79</v>
@@ -14558,44 +14579,42 @@
         <v>79</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>566</v>
+        <v>79</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>106</v>
+        <v>288</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
-        <v>200</v>
+        <v>586</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>79</v>
@@ -14644,31 +14663,31 @@
         <v>79</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>188</v>
+        <v>294</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>79</v>
+        <v>587</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
@@ -14677,9 +14696,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
-        <v>620</v>
+        <v>588</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14687,13 +14706,13 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>79</v>
@@ -14702,19 +14721,19 @@
         <v>79</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>225</v>
+        <v>359</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>621</v>
+        <v>589</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>622</v>
+        <v>590</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>623</v>
+        <v>591</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>624</v>
+        <v>363</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>79</v>
@@ -14739,11 +14758,13 @@
         <v>79</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="X105" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y105" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>79</v>
@@ -14761,13 +14782,13 @@
         <v>79</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>620</v>
+        <v>588</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>79</v>
@@ -14776,16 +14797,16 @@
         <v>120</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>625</v>
+        <v>364</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>626</v>
+        <v>103</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>627</v>
+        <v>592</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14794,9 +14815,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
-        <v>628</v>
+        <v>593</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14810,7 +14831,7 @@
         <v>85</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>79</v>
@@ -14819,19 +14840,17 @@
         <v>79</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>274</v>
+        <v>442</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>629</v>
+        <v>594</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>631</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="M106" s="2"/>
       <c r="N106" t="s" s="2">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>79</v>
@@ -14841,7 +14860,7 @@
         <v>79</v>
       </c>
       <c r="R106" t="s" s="2">
-        <v>633</v>
+        <v>79</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>79</v>
@@ -14880,7 +14899,7 @@
         <v>79</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>628</v>
+        <v>593</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14895,16 +14914,16 @@
         <v>120</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>634</v>
+        <v>447</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>635</v>
+        <v>103</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>636</v>
+        <v>597</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>79</v>
@@ -14915,11 +14934,11 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>637</v>
+        <v>598</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>638</v>
+        <v>79</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -14938,18 +14957,18 @@
         <v>79</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>639</v>
+        <v>163</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>640</v>
+        <v>414</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" t="s" s="2">
+        <v>600</v>
+      </c>
       <c r="O107" t="s" s="2">
         <v>79</v>
       </c>
@@ -14973,13 +14992,13 @@
         <v>79</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>79</v>
@@ -14997,13 +15016,13 @@
         <v>79</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>637</v>
+        <v>598</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>79</v>
@@ -15012,7 +15031,7 @@
         <v>120</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>643</v>
+        <v>420</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>103</v>
@@ -15021,7 +15040,7 @@
         <v>79</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>644</v>
+        <v>601</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>79</v>
@@ -15032,7 +15051,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>645</v>
+        <v>602</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15052,22 +15071,20 @@
         <v>79</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J108" t="s" s="2">
         <v>259</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>646</v>
+        <v>603</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>648</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>79</v>
@@ -15116,7 +15133,7 @@
         <v>79</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>645</v>
+        <v>602</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
@@ -15125,22 +15142,22 @@
         <v>85</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>79</v>
+        <v>606</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>650</v>
+        <v>103</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>79</v>
+        <v>608</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>79</v>
@@ -15151,7 +15168,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>651</v>
+        <v>609</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15168,26 +15185,22 @@
         <v>79</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>555</v>
+        <v>252</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>652</v>
+        <v>610</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>655</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>79</v>
       </c>
@@ -15235,13 +15248,13 @@
         <v>79</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>651</v>
+        <v>609</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>79</v>
@@ -15250,7 +15263,7 @@
         <v>120</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>656</v>
+        <v>612</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>103</v>
@@ -15268,9 +15281,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="110" hidden="true">
+    <row r="110">
       <c r="A110" t="s" s="2">
-        <v>657</v>
+        <v>613</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15284,7 +15297,7 @@
         <v>85</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>79</v>
@@ -15293,16 +15306,20 @@
         <v>79</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>99</v>
+        <v>559</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>100</v>
+        <v>614</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
+        <v>615</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>617</v>
+      </c>
       <c r="O110" t="s" s="2">
         <v>79</v>
       </c>
@@ -15350,25 +15367,25 @@
         <v>79</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>102</v>
+        <v>613</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>103</v>
+        <v>618</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>79</v>
+        <v>619</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>79</v>
@@ -15380,23 +15397,23 @@
         <v>79</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>79</v>
+        <v>620</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>658</v>
+        <v>621</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>79</v>
@@ -15408,17 +15425,15 @@
         <v>79</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>79</v>
@@ -15467,19 +15482,19 @@
         <v>79</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>103</v>
@@ -15502,11 +15517,11 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>659</v>
+        <v>622</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>566</v>
+        <v>105</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -15519,26 +15534,24 @@
         <v>79</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>106</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>567</v>
+        <v>107</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>568</v>
+        <v>108</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="N112" t="s" s="2">
-        <v>200</v>
-      </c>
+      <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>79</v>
       </c>
@@ -15586,7 +15599,7 @@
         <v>79</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>569</v>
+        <v>113</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
@@ -15601,7 +15614,7 @@
         <v>114</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>79</v>
@@ -15621,41 +15634,43 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>660</v>
+        <v>623</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>79</v>
+        <v>570</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>661</v>
+        <v>106</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>662</v>
+        <v>571</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>663</v>
+        <v>572</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="N113" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O113" t="s" s="2">
         <v>79</v>
       </c>
@@ -15703,31 +15718,31 @@
         <v>79</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>660</v>
+        <v>573</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>665</v>
+        <v>79</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>79</v>
@@ -15738,7 +15753,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>666</v>
+        <v>624</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15758,19 +15773,23 @@
         <v>79</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>628</v>
+      </c>
       <c r="O114" t="s" s="2">
         <v>79</v>
       </c>
@@ -15796,11 +15815,9 @@
       <c r="W114" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="X114" t="s" s="2">
-        <v>668</v>
-      </c>
+      <c r="X114" s="2"/>
       <c r="Y114" t="s" s="2">
-        <v>669</v>
+        <v>169</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>79</v>
@@ -15818,7 +15835,7 @@
         <v>79</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>666</v>
+        <v>624</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>85</v>
@@ -15833,26 +15850,1083 @@
         <v>120</v>
       </c>
       <c r="AJ114" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO114" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F115" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R115" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO115" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P116" s="2"/>
+      <c r="Q116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO116" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO117" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO118" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F119" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO119" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P120" s="2"/>
+      <c r="Q120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO120" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="121" hidden="true">
+      <c r="A121" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P121" s="2"/>
+      <c r="Q121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO121" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="122" hidden="true">
+      <c r="A122" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="N122" s="2"/>
+      <c r="O122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P122" s="2"/>
+      <c r="Q122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO122" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="123" hidden="true">
+      <c r="A123" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="AK114" t="s" s="2">
+      <c r="B123" s="2"/>
+      <c r="C123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F123" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P123" s="2"/>
+      <c r="Q123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AK123" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AL114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO114" t="s" s="2">
+      <c r="AL123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO123" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO114">
+  <autoFilter ref="A1:AO123">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15862,7 +16936,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI113">
+  <conditionalFormatting sqref="A2:AI122">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pmi-patient.xlsx
+++ b/StructureDefinition-pmi-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4606" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4605" uniqueCount="676">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-09T17:00:58+00:00</t>
+    <t>2023-01-09T19:01:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -734,10 +734,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>https://pmi-fhir-ig.github.io/pmi-fhir-ig/ValueSet/PMIIdentifierTypeVS</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -861,6 +858,12 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/sid/us-ssn</t>
   </si>
   <si>
@@ -879,7 +882,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="https://pmi-fhir-ig.github.io/pmi-fhir-ig/CodeSystem/PMIIdentifierTypeCS"/&gt;
-    &lt;code value="NPH"/&gt;
+    &lt;code value="NPH-1000"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2483,7 +2486,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.78515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -5376,31 +5379,29 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X25" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="X25" s="2"/>
+      <c r="Y25" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5424,7 +5425,7 @@
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5435,7 +5436,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5461,16 +5462,16 @@
         <v>128</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5483,43 +5484,43 @@
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5534,16 +5535,16 @@
         <v>120</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5554,7 +5555,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5580,13 +5581,13 @@
         <v>99</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5600,43 +5601,43 @@
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5651,16 +5652,16 @@
         <v>120</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5671,7 +5672,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5694,13 +5695,13 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5751,7 +5752,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5766,16 +5767,16 @@
         <v>120</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5786,7 +5787,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5809,16 +5810,16 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5868,7 +5869,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5883,16 +5884,16 @@
         <v>120</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5906,7 +5907,7 @@
         <v>202</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>79</v>
@@ -5931,7 +5932,7 @@
         <v>203</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>205</v>
@@ -6299,7 +6300,7 @@
         <v>79</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>79</v>
@@ -6418,7 +6419,7 @@
         <v>79</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>79</v>
@@ -6436,28 +6437,28 @@
         <v>145</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6481,7 +6482,7 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6492,7 +6493,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6518,16 +6519,16 @@
         <v>128</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6537,46 +6538,46 @@
         <v>79</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="S35" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6591,16 +6592,16 @@
         <v>120</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6611,7 +6612,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6637,13 +6638,13 @@
         <v>99</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6657,43 +6658,43 @@
         <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6708,27 +6709,27 @@
         <v>120</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6751,13 +6752,13 @@
         <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6808,7 +6809,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6823,16 +6824,16 @@
         <v>120</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6843,7 +6844,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6866,16 +6867,16 @@
         <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6925,7 +6926,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6940,16 +6941,16 @@
         <v>120</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6963,7 +6964,7 @@
         <v>202</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>79</v>
@@ -6988,7 +6989,7 @@
         <v>203</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>205</v>
@@ -7475,7 +7476,7 @@
         <v>79</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>79</v>
@@ -7493,28 +7494,28 @@
         <v>145</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7538,7 +7539,7 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7549,7 +7550,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7575,16 +7576,16 @@
         <v>128</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7597,43 +7598,43 @@
         <v>79</v>
       </c>
       <c r="S44" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7648,16 +7649,16 @@
         <v>120</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7668,7 +7669,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7694,13 +7695,13 @@
         <v>99</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7714,43 +7715,43 @@
         <v>79</v>
       </c>
       <c r="S45" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7765,16 +7766,16 @@
         <v>120</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7785,7 +7786,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7808,13 +7809,13 @@
         <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7865,7 +7866,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7880,16 +7881,16 @@
         <v>120</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7900,7 +7901,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7923,16 +7924,16 @@
         <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7982,7 +7983,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7997,16 +7998,16 @@
         <v>120</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -8017,7 +8018,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8040,70 +8041,70 @@
         <v>86</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Q48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE48" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P48" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="Q48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -8118,13 +8119,13 @@
         <v>120</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -8138,7 +8139,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8149,7 +8150,7 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>86</v>
@@ -8161,19 +8162,19 @@
         <v>86</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -8210,7 +8211,7 @@
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AB49" s="2"/>
       <c r="AC49" t="s" s="2">
@@ -8220,7 +8221,7 @@
         <v>186</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -8235,16 +8236,16 @@
         <v>120</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -8255,10 +8256,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>79</v>
@@ -8280,19 +8281,19 @@
         <v>86</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -8341,7 +8342,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8356,16 +8357,16 @@
         <v>120</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -8376,7 +8377,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8491,7 +8492,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8608,7 +8609,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8634,16 +8635,16 @@
         <v>163</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8653,7 +8654,7 @@
         <v>79</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>79</v>
@@ -8671,10 +8672,10 @@
         <v>219</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -8692,7 +8693,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8707,7 +8708,7 @@
         <v>120</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
@@ -8716,7 +8717,7 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8727,7 +8728,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8753,16 +8754,16 @@
         <v>99</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8811,7 +8812,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8826,7 +8827,7 @@
         <v>120</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -8835,7 +8836,7 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8846,11 +8847,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8872,13 +8873,13 @@
         <v>99</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8928,7 +8929,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8943,7 +8944,7 @@
         <v>120</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
@@ -8952,22 +8953,22 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8989,13 +8990,13 @@
         <v>99</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -9045,7 +9046,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -9060,7 +9061,7 @@
         <v>120</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
@@ -9069,18 +9070,18 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9106,10 +9107,10 @@
         <v>99</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -9160,7 +9161,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -9175,7 +9176,7 @@
         <v>120</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -9184,7 +9185,7 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -9195,7 +9196,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9221,10 +9222,10 @@
         <v>99</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -9275,7 +9276,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9290,7 +9291,7 @@
         <v>120</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -9299,7 +9300,7 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9310,7 +9311,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9333,17 +9334,17 @@
         <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9392,7 +9393,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9407,7 +9408,7 @@
         <v>120</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
@@ -9416,7 +9417,7 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9427,7 +9428,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>167</v>
@@ -9452,19 +9453,19 @@
         <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9513,7 +9514,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9528,16 +9529,16 @@
         <v>120</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9548,7 +9549,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9663,7 +9664,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9780,7 +9781,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9806,16 +9807,16 @@
         <v>163</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9825,7 +9826,7 @@
         <v>79</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>79</v>
@@ -9843,10 +9844,10 @@
         <v>219</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9864,7 +9865,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9879,7 +9880,7 @@
         <v>120</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
@@ -9888,7 +9889,7 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9899,7 +9900,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9925,16 +9926,16 @@
         <v>99</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9983,7 +9984,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9998,7 +9999,7 @@
         <v>120</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
@@ -10007,7 +10008,7 @@
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -10018,11 +10019,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -10044,13 +10045,13 @@
         <v>99</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -10100,7 +10101,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -10115,7 +10116,7 @@
         <v>120</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
@@ -10124,7 +10125,7 @@
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -10135,11 +10136,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -10161,13 +10162,13 @@
         <v>99</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -10217,7 +10218,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -10232,7 +10233,7 @@
         <v>120</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
@@ -10241,18 +10242,18 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10278,10 +10279,10 @@
         <v>99</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -10332,7 +10333,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10347,7 +10348,7 @@
         <v>120</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
@@ -10356,7 +10357,7 @@
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10367,7 +10368,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10393,10 +10394,10 @@
         <v>99</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10447,7 +10448,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10462,7 +10463,7 @@
         <v>120</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -10471,7 +10472,7 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10482,7 +10483,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10505,17 +10506,17 @@
         <v>86</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10564,7 +10565,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10579,7 +10580,7 @@
         <v>120</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
@@ -10588,7 +10589,7 @@
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10599,7 +10600,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10622,19 +10623,19 @@
         <v>86</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10683,7 +10684,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10698,16 +10699,16 @@
         <v>120</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10718,7 +10719,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10833,7 +10834,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10859,10 +10860,10 @@
         <v>106</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10948,10 +10949,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>79</v>
@@ -10973,13 +10974,13 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -11065,7 +11066,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11091,10 +11092,10 @@
         <v>163</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -11124,10 +11125,10 @@
         <v>219</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -11145,7 +11146,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -11154,13 +11155,13 @@
         <v>85</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
@@ -11169,18 +11170,18 @@
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11206,16 +11207,16 @@
         <v>99</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -11264,7 +11265,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11279,7 +11280,7 @@
         <v>120</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
@@ -11288,18 +11289,18 @@
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11325,16 +11326,16 @@
         <v>163</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -11362,10 +11363,10 @@
         <v>219</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -11383,7 +11384,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11398,7 +11399,7 @@
         <v>120</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
@@ -11407,7 +11408,7 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11418,7 +11419,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11441,16 +11442,16 @@
         <v>86</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11500,7 +11501,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11535,7 +11536,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11558,13 +11559,13 @@
         <v>86</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11615,7 +11616,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11630,7 +11631,7 @@
         <v>120</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
@@ -11650,7 +11651,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11676,16 +11677,16 @@
         <v>163</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11713,10 +11714,10 @@
         <v>219</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11734,7 +11735,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11749,16 +11750,16 @@
         <v>120</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11769,7 +11770,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11792,19 +11793,19 @@
         <v>86</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11853,7 +11854,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11868,19 +11869,19 @@
         <v>120</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -11888,7 +11889,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11911,19 +11912,19 @@
         <v>86</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11972,7 +11973,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11987,7 +11988,7 @@
         <v>120</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>103</v>
@@ -11996,7 +11997,7 @@
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -12007,7 +12008,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12030,19 +12031,19 @@
         <v>86</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -12091,7 +12092,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -12106,27 +12107,27 @@
         <v>120</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12241,7 +12242,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12267,10 +12268,10 @@
         <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12356,10 +12357,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>79</v>
@@ -12381,13 +12382,13 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12473,7 +12474,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12499,16 +12500,16 @@
         <v>163</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12518,10 +12519,10 @@
         <v>79</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>79</v>
@@ -12536,10 +12537,10 @@
         <v>219</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12557,7 +12558,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12572,7 +12573,7 @@
         <v>120</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>79</v>
@@ -12581,7 +12582,7 @@
         <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12592,7 +12593,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12618,13 +12619,13 @@
         <v>163</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12638,7 +12639,7 @@
         <v>79</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>79</v>
@@ -12653,10 +12654,10 @@
         <v>219</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>79</v>
@@ -12674,7 +12675,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12689,7 +12690,7 @@
         <v>120</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>79</v>
@@ -12698,7 +12699,7 @@
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12709,7 +12710,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12735,16 +12736,16 @@
         <v>99</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12757,7 +12758,7 @@
         <v>79</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>79</v>
@@ -12793,7 +12794,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12808,7 +12809,7 @@
         <v>120</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>79</v>
@@ -12817,7 +12818,7 @@
         <v>79</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12828,7 +12829,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12839,7 +12840,7 @@
         <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>86</v>
@@ -12854,10 +12855,10 @@
         <v>99</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12872,7 +12873,7 @@
         <v>79</v>
       </c>
       <c r="S89" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="T89" t="s" s="2">
         <v>79</v>
@@ -12908,7 +12909,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12923,7 +12924,7 @@
         <v>120</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>79</v>
@@ -12932,7 +12933,7 @@
         <v>79</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12943,11 +12944,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12969,10 +12970,10 @@
         <v>99</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12987,7 +12988,7 @@
         <v>79</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>79</v>
@@ -13023,7 +13024,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -13038,7 +13039,7 @@
         <v>120</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>79</v>
@@ -13047,7 +13048,7 @@
         <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -13058,11 +13059,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -13084,13 +13085,13 @@
         <v>99</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -13104,7 +13105,7 @@
         <v>79</v>
       </c>
       <c r="S91" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="T91" t="s" s="2">
         <v>79</v>
@@ -13140,7 +13141,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -13155,7 +13156,7 @@
         <v>120</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>79</v>
@@ -13164,7 +13165,7 @@
         <v>79</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -13175,11 +13176,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -13201,10 +13202,10 @@
         <v>99</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -13255,7 +13256,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -13270,7 +13271,7 @@
         <v>120</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>79</v>
@@ -13279,7 +13280,7 @@
         <v>79</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -13290,11 +13291,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -13316,10 +13317,10 @@
         <v>99</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13334,7 +13335,7 @@
         <v>79</v>
       </c>
       <c r="S93" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="T93" t="s" s="2">
         <v>79</v>
@@ -13370,7 +13371,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -13385,7 +13386,7 @@
         <v>120</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>79</v>
@@ -13394,7 +13395,7 @@
         <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>
@@ -13405,7 +13406,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13431,13 +13432,13 @@
         <v>99</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13487,7 +13488,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13502,7 +13503,7 @@
         <v>120</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>79</v>
@@ -13511,7 +13512,7 @@
         <v>79</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>79</v>
@@ -13522,7 +13523,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13545,17 +13546,17 @@
         <v>86</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13568,7 +13569,7 @@
         <v>79</v>
       </c>
       <c r="S95" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="T95" t="s" s="2">
         <v>79</v>
@@ -13604,7 +13605,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13619,7 +13620,7 @@
         <v>120</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>79</v>
@@ -13628,7 +13629,7 @@
         <v>79</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>79</v>
@@ -13639,7 +13640,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13665,14 +13666,14 @@
         <v>225</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>79</v>
@@ -13700,10 +13701,10 @@
         <v>145</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>79</v>
@@ -13721,7 +13722,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13736,16 +13737,16 @@
         <v>120</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>79</v>
@@ -13756,7 +13757,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13779,19 +13780,19 @@
         <v>79</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>79</v>
@@ -13840,7 +13841,7 @@
         <v>79</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>77</v>
@@ -13855,7 +13856,7 @@
         <v>120</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>103</v>
@@ -13864,7 +13865,7 @@
         <v>79</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>79</v>
@@ -13875,7 +13876,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13898,19 +13899,19 @@
         <v>79</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>79</v>
@@ -13959,7 +13960,7 @@
         <v>79</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>77</v>
@@ -13974,7 +13975,7 @@
         <v>120</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>103</v>
@@ -13983,7 +13984,7 @@
         <v>79</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>79</v>
@@ -13994,7 +13995,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14017,19 +14018,19 @@
         <v>79</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>79</v>
@@ -14078,7 +14079,7 @@
         <v>79</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>77</v>
@@ -14090,10 +14091,10 @@
         <v>79</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>103</v>
@@ -14108,12 +14109,12 @@
         <v>79</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14228,7 +14229,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14345,11 +14346,11 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -14371,10 +14372,10 @@
         <v>106</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>109</v>
@@ -14429,7 +14430,7 @@
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>77</v>
@@ -14464,7 +14465,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14490,14 +14491,14 @@
         <v>225</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>79</v>
@@ -14507,7 +14508,7 @@
         <v>79</v>
       </c>
       <c r="R103" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>79</v>
@@ -14525,10 +14526,10 @@
         <v>145</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>79</v>
@@ -14546,7 +14547,7 @@
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>77</v>
@@ -14561,7 +14562,7 @@
         <v>120</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>103</v>
@@ -14570,7 +14571,7 @@
         <v>79</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>79</v>
@@ -14581,7 +14582,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14604,17 +14605,17 @@
         <v>79</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>79</v>
@@ -14663,7 +14664,7 @@
         <v>79</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>77</v>
@@ -14678,7 +14679,7 @@
         <v>120</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>103</v>
@@ -14687,7 +14688,7 @@
         <v>79</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>79</v>
@@ -14698,7 +14699,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14721,19 +14722,19 @@
         <v>79</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>79</v>
@@ -14782,7 +14783,7 @@
         <v>79</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
@@ -14797,7 +14798,7 @@
         <v>120</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>103</v>
@@ -14806,7 +14807,7 @@
         <v>79</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14817,7 +14818,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14840,17 +14841,17 @@
         <v>79</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>79</v>
@@ -14899,7 +14900,7 @@
         <v>79</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
@@ -14914,7 +14915,7 @@
         <v>120</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>103</v>
@@ -14923,7 +14924,7 @@
         <v>79</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>79</v>
@@ -14934,7 +14935,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14960,14 +14961,14 @@
         <v>163</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>79</v>
@@ -14995,10 +14996,10 @@
         <v>219</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>79</v>
@@ -15016,7 +15017,7 @@
         <v>79</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
@@ -15031,7 +15032,7 @@
         <v>120</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>103</v>
@@ -15040,7 +15041,7 @@
         <v>79</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>79</v>
@@ -15051,7 +15052,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15074,17 +15075,17 @@
         <v>79</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>79</v>
@@ -15133,7 +15134,7 @@
         <v>79</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
@@ -15142,13 +15143,13 @@
         <v>85</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>103</v>
@@ -15157,7 +15158,7 @@
         <v>79</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>79</v>
@@ -15168,7 +15169,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15191,13 +15192,13 @@
         <v>79</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -15248,7 +15249,7 @@
         <v>79</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
@@ -15263,7 +15264,7 @@
         <v>120</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>103</v>
@@ -15283,7 +15284,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15306,19 +15307,19 @@
         <v>79</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>79</v>
@@ -15367,7 +15368,7 @@
         <v>79</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
@@ -15382,10 +15383,10 @@
         <v>120</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>79</v>
@@ -15397,12 +15398,12 @@
         <v>79</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15517,7 +15518,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15634,11 +15635,11 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -15660,10 +15661,10 @@
         <v>106</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>109</v>
@@ -15718,7 +15719,7 @@
         <v>79</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
@@ -15753,7 +15754,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15779,16 +15780,16 @@
         <v>225</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>79</v>
@@ -15835,7 +15836,7 @@
         <v>79</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>85</v>
@@ -15850,16 +15851,16 @@
         <v>120</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>79</v>
@@ -15870,7 +15871,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15893,19 +15894,19 @@
         <v>79</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>79</v>
@@ -15915,7 +15916,7 @@
         <v>79</v>
       </c>
       <c r="R115" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="S115" t="s" s="2">
         <v>79</v>
@@ -15954,7 +15955,7 @@
         <v>79</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>77</v>
@@ -15969,16 +15970,16 @@
         <v>120</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>79</v>
@@ -15989,11 +15990,11 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -16012,16 +16013,16 @@
         <v>79</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -16071,7 +16072,7 @@
         <v>79</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
@@ -16086,7 +16087,7 @@
         <v>120</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>103</v>
@@ -16095,7 +16096,7 @@
         <v>79</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>79</v>
@@ -16106,7 +16107,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16129,19 +16130,19 @@
         <v>86</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>79</v>
@@ -16190,7 +16191,7 @@
         <v>79</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
@@ -16205,10 +16206,10 @@
         <v>120</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>79</v>
@@ -16225,7 +16226,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16248,19 +16249,19 @@
         <v>86</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>79</v>
@@ -16309,7 +16310,7 @@
         <v>79</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
@@ -16324,7 +16325,7 @@
         <v>120</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>103</v>
@@ -16344,7 +16345,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16459,7 +16460,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16576,11 +16577,11 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -16602,10 +16603,10 @@
         <v>106</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M121" t="s" s="2">
         <v>109</v>
@@ -16660,7 +16661,7 @@
         <v>79</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>77</v>
@@ -16695,7 +16696,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16718,16 +16719,16 @@
         <v>86</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -16777,7 +16778,7 @@
         <v>79</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>85</v>
@@ -16801,7 +16802,7 @@
         <v>79</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>79</v>
@@ -16812,7 +16813,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16838,10 +16839,10 @@
         <v>163</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16871,10 +16872,10 @@
         <v>219</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>79</v>
@@ -16892,7 +16893,7 @@
         <v>79</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>85</v>
@@ -16907,7 +16908,7 @@
         <v>120</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>103</v>

--- a/StructureDefinition-pmi-patient.xlsx
+++ b/StructureDefinition-pmi-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$143</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4605" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5351" uniqueCount="737">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-09T19:01:04+00:00</t>
+    <t>2023-01-17T01:07:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1824,14 +1824,6 @@
     <t>Used to determine which contact person is the most relevant to approach, depending on circumstances.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0131"/&gt;
-    &lt;code value="CP"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
@@ -1842,6 +1834,193 @@
   </si>
   <si>
     <t>NK1-7, NK1-3</t>
+  </si>
+  <si>
+    <t>Patient.contact.relationship.id</t>
+  </si>
+  <si>
+    <t>Patient.contact.relationship.extension</t>
+  </si>
+  <si>
+    <t>Patient.contact.relationship.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:system}
+</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Patient.contact.relationship.coding.id</t>
+  </si>
+  <si>
+    <t>Patient.contact.relationship.coding.extension</t>
+  </si>
+  <si>
+    <t>Patient.contact.relationship.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0131</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>Patient.contact.relationship.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>Patient.contact.relationship.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>Patient.contact.relationship.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>Patient.contact.relationship.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>PMI</t>
+  </si>
+  <si>
+    <t>https://pmi-fhir-ig.github.io/pmi-fhir-ig/CodeSystem/PMIRelationshipTypeCS</t>
+  </si>
+  <si>
+    <t>Patient.contact.relationship.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Patient.contact.name</t>
@@ -2453,7 +2632,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO123"/>
+  <dimension ref="A1:AO143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2462,7 +2641,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.59375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="15.33984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -14463,7 +14642,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
         <v>575</v>
       </c>
@@ -14476,10 +14655,10 @@
         <v>77</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>79</v>
@@ -14508,7 +14687,7 @@
         <v>79</v>
       </c>
       <c r="R103" t="s" s="2">
-        <v>579</v>
+        <v>79</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>79</v>
@@ -14526,10 +14705,10 @@
         <v>145</v>
       </c>
       <c r="X103" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="Y103" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>79</v>
@@ -14559,10 +14738,10 @@
         <v>79</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>103</v>
@@ -14571,18 +14750,18 @@
         <v>79</v>
       </c>
       <c r="AM103" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14590,13 +14769,13 @@
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F104" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>79</v>
@@ -14605,18 +14784,16 @@
         <v>79</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>289</v>
+        <v>99</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>585</v>
+        <v>100</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>586</v>
+        <v>101</v>
       </c>
       <c r="M104" s="2"/>
-      <c r="N104" t="s" s="2">
-        <v>587</v>
-      </c>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>79</v>
       </c>
@@ -14664,46 +14841,46 @@
         <v>79</v>
       </c>
       <c r="AE104" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -14713,7 +14890,7 @@
         <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>79</v>
@@ -14722,20 +14899,18 @@
         <v>79</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>360</v>
+        <v>106</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>590</v>
+        <v>107</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>591</v>
+        <v>108</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>79</v>
       </c>
@@ -14771,19 +14946,19 @@
         <v>79</v>
       </c>
       <c r="AA105" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AC105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD105" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>589</v>
+        <v>113</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>77</v>
@@ -14795,19 +14970,19 @@
         <v>79</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>365</v>
+        <v>103</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>593</v>
+        <v>79</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>79</v>
@@ -14816,9 +14991,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14829,7 +15004,7 @@
         <v>77</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>85</v>
+        <v>288</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>86</v>
@@ -14838,20 +15013,22 @@
         <v>79</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>443</v>
+        <v>141</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="M106" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>588</v>
+      </c>
       <c r="N106" t="s" s="2">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>79</v>
@@ -14888,25 +15065,23 @@
         <v>79</v>
       </c>
       <c r="AA106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="AB106" s="2"/>
       <c r="AC106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD106" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>79</v>
@@ -14915,16 +15090,16 @@
         <v>120</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>448</v>
+        <v>592</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>79</v>
@@ -14933,11 +15108,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B107" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>594</v>
+      </c>
       <c r="C107" t="s" s="2">
         <v>79</v>
       </c>
@@ -14946,29 +15123,31 @@
         <v>77</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>415</v>
+        <v>586</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="M107" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>588</v>
+      </c>
       <c r="N107" t="s" s="2">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>79</v>
@@ -14993,13 +15172,13 @@
         <v>79</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>79</v>
@@ -15017,13 +15196,13 @@
         <v>79</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>79</v>
@@ -15032,16 +15211,16 @@
         <v>120</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>421</v>
+        <v>592</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>79</v>
@@ -15052,7 +15231,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15063,7 +15242,7 @@
         <v>77</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>79</v>
@@ -15075,18 +15254,16 @@
         <v>79</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>258</v>
+        <v>99</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>604</v>
+        <v>100</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>605</v>
+        <v>101</v>
       </c>
       <c r="M108" s="2"/>
-      <c r="N108" t="s" s="2">
-        <v>606</v>
-      </c>
+      <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>79</v>
       </c>
@@ -15134,7 +15311,7 @@
         <v>79</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>603</v>
+        <v>102</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>77</v>
@@ -15143,22 +15320,22 @@
         <v>85</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>607</v>
+        <v>79</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>608</v>
+        <v>103</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>609</v>
+        <v>79</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>79</v>
@@ -15169,18 +15346,18 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>79</v>
@@ -15192,15 +15369,17 @@
         <v>79</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>251</v>
+        <v>106</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>611</v>
+        <v>107</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="M109" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>79</v>
@@ -15237,37 +15416,37 @@
         <v>79</v>
       </c>
       <c r="AA109" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AC109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD109" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>610</v>
+        <v>113</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>613</v>
+        <v>103</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>79</v>
@@ -15282,9 +15461,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15292,34 +15471,34 @@
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F110" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I110" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="H110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J110" t="s" s="2">
-        <v>560</v>
+        <v>128</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>616</v>
+        <v>599</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>79</v>
@@ -15329,7 +15508,7 @@
         <v>79</v>
       </c>
       <c r="R110" t="s" s="2">
-        <v>79</v>
+        <v>602</v>
       </c>
       <c r="S110" t="s" s="2">
         <v>79</v>
@@ -15368,13 +15547,13 @@
         <v>79</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>79</v>
@@ -15383,27 +15562,27 @@
         <v>120</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>620</v>
+        <v>79</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>79</v>
+        <v>605</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>621</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15423,18 +15602,20 @@
         <v>79</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J111" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>100</v>
+        <v>607</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M111" s="2"/>
+        <v>608</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>609</v>
+      </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>79</v>
@@ -15483,7 +15664,7 @@
         <v>79</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>102</v>
+        <v>610</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>77</v>
@@ -15495,10 +15676,10 @@
         <v>79</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>103</v>
+        <v>611</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>79</v>
@@ -15507,7 +15688,7 @@
         <v>79</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>79</v>
+        <v>612</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>79</v>
@@ -15518,18 +15699,18 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>79</v>
@@ -15538,21 +15719,21 @@
         <v>79</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>107</v>
+        <v>614</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>615</v>
+      </c>
+      <c r="M112" s="2"/>
+      <c r="N112" t="s" s="2">
+        <v>616</v>
+      </c>
       <c r="O112" t="s" s="2">
         <v>79</v>
       </c>
@@ -15561,7 +15742,7 @@
         <v>79</v>
       </c>
       <c r="R112" t="s" s="2">
-        <v>79</v>
+        <v>594</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>79</v>
@@ -15600,22 +15781,22 @@
         <v>79</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>113</v>
+        <v>617</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>103</v>
+        <v>618</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>79</v>
@@ -15624,7 +15805,7 @@
         <v>79</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>79</v>
+        <v>619</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>79</v>
@@ -15635,42 +15816,40 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>571</v>
+        <v>79</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>572</v>
+        <v>621</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>200</v>
+        <v>623</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>79</v>
@@ -15719,22 +15898,22 @@
         <v>79</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>574</v>
+        <v>624</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>188</v>
+        <v>625</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>79</v>
@@ -15743,7 +15922,7 @@
         <v>79</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>79</v>
+        <v>626</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>79</v>
@@ -15754,7 +15933,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15762,7 +15941,7 @@
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F114" t="s" s="2">
         <v>85</v>
@@ -15774,22 +15953,22 @@
         <v>79</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>79</v>
@@ -15814,11 +15993,13 @@
         <v>79</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="X114" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y114" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>79</v>
@@ -15836,10 +16017,10 @@
         <v>79</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>85</v>
@@ -15851,16 +16032,16 @@
         <v>120</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>631</v>
+        <v>79</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>79</v>
@@ -15869,11 +16050,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="B115" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>635</v>
+      </c>
       <c r="C115" t="s" s="2">
         <v>79</v>
       </c>
@@ -15885,28 +16068,28 @@
         <v>85</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>279</v>
+        <v>141</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>634</v>
+        <v>586</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>635</v>
+        <v>587</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>636</v>
+        <v>588</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>637</v>
+        <v>589</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>79</v>
@@ -15916,7 +16099,7 @@
         <v>79</v>
       </c>
       <c r="R115" t="s" s="2">
-        <v>638</v>
+        <v>79</v>
       </c>
       <c r="S115" t="s" s="2">
         <v>79</v>
@@ -15955,13 +16138,13 @@
         <v>79</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>633</v>
+        <v>591</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>79</v>
@@ -15970,16 +16153,16 @@
         <v>120</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>639</v>
+        <v>592</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>640</v>
+        <v>79</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>641</v>
+        <v>593</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>79</v>
@@ -15990,18 +16173,18 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>642</v>
+        <v>595</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>643</v>
+        <v>79</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>79</v>
@@ -16013,17 +16196,15 @@
         <v>79</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>644</v>
+        <v>99</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>645</v>
+        <v>100</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>647</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M116" s="2"/>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>79</v>
@@ -16072,31 +16253,31 @@
         <v>79</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>642</v>
+        <v>102</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>648</v>
+        <v>103</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>649</v>
+        <v>79</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>79</v>
@@ -16107,18 +16288,18 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>650</v>
+        <v>596</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>79</v>
@@ -16127,23 +16308,21 @@
         <v>79</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>258</v>
+        <v>106</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>651</v>
+        <v>107</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>652</v>
+        <v>108</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>654</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>79</v>
       </c>
@@ -16179,37 +16358,37 @@
         <v>79</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>650</v>
+        <v>113</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>608</v>
+        <v>103</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>655</v>
+        <v>79</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>79</v>
@@ -16226,7 +16405,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>656</v>
+        <v>597</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16234,34 +16413,34 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>560</v>
+        <v>128</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>657</v>
+        <v>598</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>658</v>
+        <v>599</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>659</v>
+        <v>600</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>660</v>
+        <v>601</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>79</v>
@@ -16271,7 +16450,7 @@
         <v>79</v>
       </c>
       <c r="R118" t="s" s="2">
-        <v>79</v>
+        <v>636</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>79</v>
@@ -16310,13 +16489,13 @@
         <v>79</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>656</v>
+        <v>603</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>79</v>
@@ -16325,16 +16504,16 @@
         <v>120</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>661</v>
+        <v>604</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>79</v>
+        <v>605</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>79</v>
@@ -16345,7 +16524,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>662</v>
+        <v>606</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16365,18 +16544,20 @@
         <v>79</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J119" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>100</v>
+        <v>607</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M119" s="2"/>
+        <v>608</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>609</v>
+      </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>79</v>
@@ -16425,7 +16606,7 @@
         <v>79</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>102</v>
+        <v>610</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>77</v>
@@ -16437,10 +16618,10 @@
         <v>79</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>103</v>
+        <v>611</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>79</v>
@@ -16449,7 +16630,7 @@
         <v>79</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>79</v>
+        <v>612</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>79</v>
@@ -16460,18 +16641,18 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>663</v>
+        <v>613</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>79</v>
@@ -16480,21 +16661,21 @@
         <v>79</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>107</v>
+        <v>614</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N120" s="2"/>
+        <v>615</v>
+      </c>
+      <c r="M120" s="2"/>
+      <c r="N120" t="s" s="2">
+        <v>616</v>
+      </c>
       <c r="O120" t="s" s="2">
         <v>79</v>
       </c>
@@ -16542,22 +16723,22 @@
         <v>79</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>113</v>
+        <v>617</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>103</v>
+        <v>618</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>79</v>
@@ -16566,7 +16747,7 @@
         <v>79</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>79</v>
+        <v>619</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>79</v>
@@ -16577,42 +16758,40 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>664</v>
+        <v>620</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>571</v>
+        <v>79</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>572</v>
+        <v>621</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>200</v>
+        <v>623</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>79</v>
@@ -16661,22 +16840,22 @@
         <v>79</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>574</v>
+        <v>624</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>188</v>
+        <v>625</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>79</v>
@@ -16685,7 +16864,7 @@
         <v>79</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>79</v>
+        <v>626</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>79</v>
@@ -16696,7 +16875,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>665</v>
+        <v>627</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16704,7 +16883,7 @@
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F122" t="s" s="2">
         <v>85</v>
@@ -16719,18 +16898,20 @@
         <v>86</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>666</v>
+        <v>279</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>667</v>
+        <v>628</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>668</v>
+        <v>629</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="N122" s="2"/>
+        <v>630</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>631</v>
+      </c>
       <c r="O122" t="s" s="2">
         <v>79</v>
       </c>
@@ -16778,10 +16959,10 @@
         <v>79</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>665</v>
+        <v>632</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>85</v>
@@ -16793,16 +16974,16 @@
         <v>120</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>208</v>
+        <v>633</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>670</v>
+        <v>634</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>79</v>
@@ -16813,7 +16994,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>671</v>
+        <v>637</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16821,7 +17002,7 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F123" t="s" s="2">
         <v>85</v>
@@ -16836,16 +17017,20 @@
         <v>86</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>672</v>
+        <v>638</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
+        <v>639</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>641</v>
+      </c>
       <c r="O123" t="s" s="2">
         <v>79</v>
       </c>
@@ -16869,13 +17054,13 @@
         <v>79</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>673</v>
+        <v>79</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>674</v>
+        <v>79</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>79</v>
@@ -16893,10 +17078,10 @@
         <v>79</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>671</v>
+        <v>642</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>85</v>
@@ -16908,26 +17093,2372 @@
         <v>120</v>
       </c>
       <c r="AJ123" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO123" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F124" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="M124" s="2"/>
+      <c r="N124" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="O124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P124" s="2"/>
+      <c r="Q124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO124" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P125" s="2"/>
+      <c r="Q125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO125" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F126" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="M126" s="2"/>
+      <c r="N126" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P126" s="2"/>
+      <c r="Q126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO126" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="127" hidden="true">
+      <c r="A127" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M127" s="2"/>
+      <c r="N127" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="O127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO127" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="128" hidden="true">
+      <c r="A128" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="M128" s="2"/>
+      <c r="N128" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P128" s="2"/>
+      <c r="Q128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO128" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="129" hidden="true">
+      <c r="A129" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P129" s="2"/>
+      <c r="Q129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO129" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="AK123" t="s" s="2">
+      <c r="B130" s="2"/>
+      <c r="C130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F130" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="O130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P130" s="2"/>
+      <c r="Q130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO130" t="s" s="2">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="131" hidden="true">
+      <c r="A131" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F131" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P131" s="2"/>
+      <c r="Q131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AL123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO123" t="s" s="2">
+      <c r="AK131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN131" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO131" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="132" hidden="true">
+      <c r="A132" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N132" s="2"/>
+      <c r="O132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P132" s="2"/>
+      <c r="Q132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN132" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO132" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" hidden="true">
+      <c r="A133" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P133" s="2"/>
+      <c r="Q133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN133" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO133" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="134" hidden="true">
+      <c r="A134" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F134" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="O134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P134" s="2"/>
+      <c r="Q134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="X134" s="2"/>
+      <c r="Y134" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AL134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM134" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="AN134" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO134" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="135" hidden="true">
+      <c r="A135" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F135" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="O135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P135" s="2"/>
+      <c r="Q135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R135" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="S135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="AF135" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG135" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="AL135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM135" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="AN135" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO135" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" hidden="true">
+      <c r="A136" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="N136" s="2"/>
+      <c r="O136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P136" s="2"/>
+      <c r="Q136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM136" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="AN136" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO136" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="137" hidden="true">
+      <c r="A137" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I137" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K137" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="N137" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="O137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P137" s="2"/>
+      <c r="Q137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE137" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="AF137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG137" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI137" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ137" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="AL137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN137" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO137" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="138" hidden="true">
+      <c r="A138" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="O138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P138" s="2"/>
+      <c r="Q138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI138" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN138" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO138" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="139" hidden="true">
+      <c r="A139" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F139" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+      <c r="O139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P139" s="2"/>
+      <c r="Q139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN139" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO139" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="140" hidden="true">
+      <c r="A140" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N140" s="2"/>
+      <c r="O140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P140" s="2"/>
+      <c r="Q140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN140" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO140" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="141" hidden="true">
+      <c r="A141" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P141" s="2"/>
+      <c r="Q141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN141" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO141" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="142" hidden="true">
+      <c r="A142" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F142" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="N142" s="2"/>
+      <c r="O142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P142" s="2"/>
+      <c r="Q142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="AN142" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO142" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="143" hidden="true">
+      <c r="A143" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F143" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P143" s="2"/>
+      <c r="Q143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="AF143" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG143" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI143" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AJ143" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN143" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO143" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO123">
+  <autoFilter ref="A1:AO143">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16937,7 +19468,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI122">
+  <conditionalFormatting sqref="A2:AI142">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
